--- a/System_2.2.0.xlsx
+++ b/System_2.2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32D0B17-C17D-4AD6-BE31-7BEB8D3208B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A358D2-CF2A-4FF2-B6DC-83766392CE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="625">
   <si>
     <t>Zone</t>
   </si>
@@ -3546,7 +3546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="791">
+  <cellXfs count="792">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5036,6 +5036,186 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5048,12 +5228,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5065,12 +5239,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -5093,190 +5261,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5318,43 +5357,25 @@
     <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5423,46 +5444,46 @@
     <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5540,47 +5561,29 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5877,8 +5880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6916,7 +6919,7 @@
       <c r="H1" s="97" t="s">
         <v>343</v>
       </c>
-      <c r="I1" s="613" t="s">
+      <c r="I1" s="659" t="s">
         <v>369</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6952,7 +6955,7 @@
       <c r="X1" s="430" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="657" t="s">
+      <c r="Y1" s="653" t="s">
         <v>529</v>
       </c>
       <c r="Z1" s="406">
@@ -6977,7 +6980,7 @@
         <v>498</v>
       </c>
       <c r="AM1" s="402"/>
-      <c r="AN1" s="640"/>
+      <c r="AN1" s="635"/>
       <c r="AO1" s="338" t="s">
         <v>469</v>
       </c>
@@ -6986,23 +6989,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="666">
+      <c r="A2" s="617">
         <f ca="1">TODAY()</f>
         <v>45286</v>
       </c>
-      <c r="B2" s="668" t="s">
+      <c r="B2" s="619" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="645" t="s">
+      <c r="C2" s="615" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="670" t="s">
+      <c r="D2" s="621" t="s">
         <v>355</v>
       </c>
-      <c r="E2" s="609" t="s">
+      <c r="E2" s="669" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="619" t="s">
+      <c r="F2" s="640" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="393" t="s">
@@ -7011,31 +7014,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="614"/>
+      <c r="I2" s="660"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="611" t="s">
+      <c r="K2" s="671" t="s">
         <v>342</v>
       </c>
-      <c r="L2" s="612"/>
-      <c r="M2" s="619" t="s">
+      <c r="L2" s="672"/>
+      <c r="M2" s="640" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="649" t="s">
+      <c r="O2" s="644" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="645" t="s">
+      <c r="Q2" s="615" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="598"/>
-      <c r="S2" s="634" t="s">
+      <c r="S2" s="657" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7045,7 +7048,7 @@
       <c r="X2" s="431" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="658"/>
+      <c r="Y2" s="654"/>
       <c r="Z2" s="407">
         <v>1</v>
       </c>
@@ -7068,15 +7071,15 @@
         <v>463</v>
       </c>
       <c r="AM2" s="428"/>
-      <c r="AN2" s="641"/>
+      <c r="AN2" s="636"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="667"/>
-      <c r="B3" s="669"/>
-      <c r="C3" s="646"/>
-      <c r="D3" s="671"/>
-      <c r="E3" s="610"/>
-      <c r="F3" s="620"/>
+      <c r="A3" s="618"/>
+      <c r="B3" s="620"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="622"/>
+      <c r="E3" s="670"/>
+      <c r="F3" s="641"/>
       <c r="G3" s="394" t="s">
         <v>28</v>
       </c>
@@ -7095,17 +7098,17 @@
       <c r="L3" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="620"/>
+      <c r="M3" s="641"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="650"/>
+      <c r="O3" s="645"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="646"/>
+      <c r="Q3" s="616"/>
       <c r="R3" s="600"/>
-      <c r="S3" s="636"/>
+      <c r="S3" s="658"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7113,7 +7116,7 @@
       <c r="X3" s="431" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="658"/>
+      <c r="Y3" s="654"/>
       <c r="Z3" s="408">
         <v>1</v>
       </c>
@@ -7122,7 +7125,7 @@
       <c r="AC3" s="100" t="s">
         <v>480</v>
       </c>
-      <c r="AD3" s="631" t="s">
+      <c r="AD3" s="656" t="s">
         <v>455</v>
       </c>
       <c r="AE3" s="257"/>
@@ -7134,16 +7137,16 @@
       <c r="AK3" s="257"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="428"/>
-      <c r="AN3" s="641"/>
+      <c r="AN3" s="636"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="238" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="682" t="s">
+      <c r="B4" s="633" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="645" t="s">
+      <c r="C4" s="615" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="347" t="s">
@@ -7152,7 +7155,7 @@
       <c r="E4" s="378">
         <v>2</v>
       </c>
-      <c r="F4" s="620"/>
+      <c r="F4" s="641"/>
       <c r="G4" s="381" t="s">
         <v>201</v>
       </c>
@@ -7169,11 +7172,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="204"/>
-      <c r="M4" s="620"/>
+      <c r="M4" s="641"/>
       <c r="N4" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="650"/>
+      <c r="O4" s="645"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7195,12 +7198,12 @@
       <c r="X4" s="431" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="658"/>
+      <c r="Y4" s="654"/>
       <c r="Z4" s="409"/>
       <c r="AA4" s="307"/>
       <c r="AB4" s="209"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="631"/>
+      <c r="AD4" s="656"/>
       <c r="AE4" s="257"/>
       <c r="AF4" s="257"/>
       <c r="AG4" s="16"/>
@@ -7210,37 +7213,37 @@
       <c r="AK4" s="257"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="428"/>
-      <c r="AN4" s="641"/>
+      <c r="AN4" s="636"/>
       <c r="AO4" s="338" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="613" t="s">
+      <c r="A5" s="659" t="s">
         <v>418</v>
       </c>
-      <c r="B5" s="683"/>
-      <c r="C5" s="646"/>
+      <c r="B5" s="634"/>
+      <c r="C5" s="616"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="379">
         <v>1</v>
       </c>
-      <c r="F5" s="620"/>
-      <c r="G5" s="674" t="s">
+      <c r="F5" s="641"/>
+      <c r="G5" s="625" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="674"/>
-      <c r="I5" s="674"/>
-      <c r="J5" s="674"/>
-      <c r="K5" s="674"/>
-      <c r="L5" s="675"/>
-      <c r="M5" s="620"/>
+      <c r="H5" s="625"/>
+      <c r="I5" s="625"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="626"/>
+      <c r="M5" s="641"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="650"/>
+      <c r="O5" s="645"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7248,7 +7251,7 @@
       <c r="X5" s="431" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="658"/>
+      <c r="Y5" s="654"/>
       <c r="Z5" s="409">
         <v>1</v>
       </c>
@@ -7271,24 +7274,24 @@
       <c r="AK5" s="257"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="428"/>
-      <c r="AN5" s="641"/>
+      <c r="AN5" s="636"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="614"/>
-      <c r="B6" s="680" t="s">
+      <c r="A6" s="660"/>
+      <c r="B6" s="631" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="629"/>
-      <c r="F6" s="620"/>
-      <c r="G6" s="676"/>
-      <c r="H6" s="676"/>
-      <c r="I6" s="676"/>
-      <c r="J6" s="676"/>
-      <c r="K6" s="676"/>
-      <c r="L6" s="677"/>
-      <c r="M6" s="620"/>
-      <c r="O6" s="650"/>
+      <c r="C6" s="661"/>
+      <c r="D6" s="662"/>
+      <c r="F6" s="641"/>
+      <c r="G6" s="627"/>
+      <c r="H6" s="627"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="627"/>
+      <c r="L6" s="628"/>
+      <c r="M6" s="641"/>
+      <c r="O6" s="645"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7298,7 +7301,7 @@
       <c r="X6" s="431" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="658"/>
+      <c r="Y6" s="654"/>
       <c r="Z6" s="407">
         <v>1</v>
       </c>
@@ -7312,16 +7315,16 @@
       <c r="AF6" s="257"/>
       <c r="AG6" s="257"/>
       <c r="AH6" s="257"/>
-      <c r="AI6" s="630"/>
+      <c r="AI6" s="650"/>
       <c r="AJ6" s="441" t="s">
         <v>458</v>
       </c>
-      <c r="AK6" s="630" t="s">
+      <c r="AK6" s="650" t="s">
         <v>251</v>
       </c>
       <c r="AL6" s="257"/>
       <c r="AM6" s="428"/>
-      <c r="AN6" s="641"/>
+      <c r="AN6" s="636"/>
       <c r="AO6" s="338" t="s">
         <v>470</v>
       </c>
@@ -7330,7 +7333,7 @@
       <c r="A7" s="232" t="s">
         <v>572</v>
       </c>
-      <c r="B7" s="681"/>
+      <c r="B7" s="632"/>
       <c r="C7" s="202" t="s">
         <v>374</v>
       </c>
@@ -7340,7 +7343,7 @@
       <c r="E7" s="265">
         <v>3</v>
       </c>
-      <c r="F7" s="620"/>
+      <c r="F7" s="641"/>
       <c r="G7" s="395">
         <v>0</v>
       </c>
@@ -7359,8 +7362,8 @@
       <c r="L7" s="212">
         <v>0</v>
       </c>
-      <c r="M7" s="620"/>
-      <c r="O7" s="650"/>
+      <c r="M7" s="641"/>
+      <c r="O7" s="645"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7374,7 +7377,7 @@
       <c r="X7" s="431" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="658"/>
+      <c r="Y7" s="654"/>
       <c r="Z7" s="407">
         <v>1</v>
       </c>
@@ -7384,18 +7387,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="257"/>
       <c r="AF7" s="257"/>
-      <c r="AG7" s="631" t="s">
+      <c r="AG7" s="656" t="s">
         <v>454</v>
       </c>
       <c r="AH7" s="257"/>
-      <c r="AI7" s="630"/>
+      <c r="AI7" s="650"/>
       <c r="AJ7" s="257"/>
-      <c r="AK7" s="630"/>
+      <c r="AK7" s="650"/>
       <c r="AL7" s="80" t="s">
         <v>496</v>
       </c>
       <c r="AM7" s="428"/>
-      <c r="AN7" s="641"/>
+      <c r="AN7" s="636"/>
       <c r="AP7" s="76" t="s">
         <v>471</v>
       </c>
@@ -7412,27 +7415,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="620"/>
-      <c r="G8" s="675">
-        <v>0</v>
-      </c>
-      <c r="H8" s="672" t="s">
+      <c r="F8" s="641"/>
+      <c r="G8" s="626">
+        <v>0</v>
+      </c>
+      <c r="H8" s="623" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="598">
         <v>0</v>
       </c>
-      <c r="J8" s="672" t="s">
+      <c r="J8" s="623" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="678"/>
-      <c r="L8" s="632"/>
-      <c r="M8" s="647"/>
-      <c r="N8" s="637">
+      <c r="K8" s="629"/>
+      <c r="L8" s="663"/>
+      <c r="M8" s="642"/>
+      <c r="N8" s="666">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="650"/>
+      <c r="O8" s="645"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7442,7 +7445,7 @@
       <c r="X8" s="431" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="658"/>
+      <c r="Y8" s="654"/>
       <c r="Z8" s="409"/>
       <c r="AA8" s="307"/>
       <c r="AB8" s="209"/>
@@ -7450,14 +7453,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="257"/>
       <c r="AF8" s="257"/>
-      <c r="AG8" s="631"/>
+      <c r="AG8" s="656"/>
       <c r="AH8" s="257"/>
-      <c r="AI8" s="630"/>
+      <c r="AI8" s="650"/>
       <c r="AJ8" s="257"/>
       <c r="AK8" s="257"/>
       <c r="AL8" s="257"/>
       <c r="AM8" s="428"/>
-      <c r="AN8" s="641"/>
+      <c r="AN8" s="636"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="232" t="s">
@@ -7472,17 +7475,17 @@
       <c r="D9" s="348" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="620"/>
-      <c r="G9" s="677"/>
-      <c r="H9" s="673"/>
+      <c r="F9" s="641"/>
+      <c r="G9" s="628"/>
+      <c r="H9" s="624"/>
       <c r="I9" s="600"/>
-      <c r="J9" s="673"/>
-      <c r="K9" s="679"/>
-      <c r="L9" s="633"/>
-      <c r="M9" s="648"/>
-      <c r="N9" s="638"/>
-      <c r="O9" s="651"/>
-      <c r="S9" s="634" t="s">
+      <c r="J9" s="624"/>
+      <c r="K9" s="630"/>
+      <c r="L9" s="664"/>
+      <c r="M9" s="643"/>
+      <c r="N9" s="667"/>
+      <c r="O9" s="646"/>
+      <c r="S9" s="657" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7494,7 +7497,7 @@
       <c r="X9" s="431" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="658"/>
+      <c r="Y9" s="654"/>
       <c r="Z9" s="410"/>
       <c r="AA9" s="307"/>
       <c r="AB9" s="209"/>
@@ -7504,16 +7507,16 @@
       </c>
       <c r="AE9" s="257"/>
       <c r="AF9" s="257"/>
-      <c r="AG9" s="631"/>
+      <c r="AG9" s="656"/>
       <c r="AH9" s="257"/>
-      <c r="AI9" s="630"/>
+      <c r="AI9" s="650"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="630" t="s">
+      <c r="AK9" s="650" t="s">
         <v>251</v>
       </c>
       <c r="AL9" s="257"/>
       <c r="AM9" s="428"/>
-      <c r="AN9" s="641"/>
+      <c r="AN9" s="636"/>
       <c r="AP9" s="2" t="s">
         <v>508</v>
       </c>
@@ -7530,20 +7533,20 @@
         <f>Boat!W8</f>
         <v>39</v>
       </c>
-      <c r="F10" s="620"/>
+      <c r="F10" s="641"/>
       <c r="N10" s="418" t="s">
         <v>396</v>
       </c>
-      <c r="O10" s="622" t="s">
+      <c r="O10" s="678" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="652" t="s">
+      <c r="P10" s="647" t="s">
         <v>400</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="635"/>
+      <c r="S10" s="665"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7555,7 +7558,7 @@
       <c r="X10" s="431" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="658"/>
+      <c r="Y10" s="654"/>
       <c r="Z10" s="409">
         <v>0</v>
       </c>
@@ -7573,16 +7576,16 @@
       <c r="AF10" s="238" t="s">
         <v>311</v>
       </c>
-      <c r="AG10" s="631"/>
+      <c r="AG10" s="656"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="630"/>
+      <c r="AI10" s="650"/>
       <c r="AJ10" s="257"/>
-      <c r="AK10" s="630"/>
+      <c r="AK10" s="650"/>
       <c r="AL10" s="257"/>
       <c r="AM10" s="442" t="s">
         <v>318</v>
       </c>
-      <c r="AN10" s="641"/>
+      <c r="AN10" s="636"/>
       <c r="AO10" s="204" t="s">
         <v>94</v>
       </c>
@@ -7600,18 +7603,18 @@
       <c r="D11" s="170" t="s">
         <v>355</v>
       </c>
-      <c r="F11" s="620"/>
+      <c r="F11" s="641"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="623"/>
-      <c r="P11" s="653"/>
+      <c r="O11" s="679"/>
+      <c r="P11" s="648"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="S11" s="635"/>
+      <c r="S11" s="665"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7621,7 +7624,7 @@
       <c r="X11" s="431" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="658"/>
+      <c r="Y11" s="654"/>
       <c r="Z11" s="409"/>
       <c r="AA11" s="307">
         <v>1</v>
@@ -7635,14 +7638,14 @@
       <c r="AF11" s="257" t="s">
         <v>476</v>
       </c>
-      <c r="AG11" s="631"/>
+      <c r="AG11" s="656"/>
       <c r="AH11" s="257"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="257"/>
       <c r="AK11" s="257"/>
       <c r="AL11" s="257"/>
       <c r="AM11" s="428"/>
-      <c r="AN11" s="641"/>
+      <c r="AN11" s="636"/>
       <c r="AP11" s="76" t="s">
         <v>484</v>
       </c>
@@ -7661,7 +7664,7 @@
       <c r="E12" s="224">
         <v>3</v>
       </c>
-      <c r="F12" s="620"/>
+      <c r="F12" s="641"/>
       <c r="G12" s="337" t="s">
         <v>400</v>
       </c>
@@ -7670,16 +7673,16 @@
       </c>
       <c r="I12" s="605"/>
       <c r="J12" s="605"/>
-      <c r="K12" s="627"/>
+      <c r="K12" s="683"/>
       <c r="L12" s="203"/>
       <c r="M12" s="203"/>
       <c r="N12" s="203"/>
-      <c r="O12" s="623"/>
-      <c r="P12" s="653"/>
+      <c r="O12" s="679"/>
+      <c r="P12" s="648"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="636"/>
+      <c r="S12" s="658"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7689,7 +7692,7 @@
       <c r="X12" s="431" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="658"/>
+      <c r="Y12" s="654"/>
       <c r="Z12" s="407">
         <v>1</v>
       </c>
@@ -7700,16 +7703,16 @@
       <c r="AC12" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD12" s="639" t="s">
+      <c r="AD12" s="668" t="s">
         <v>240</v>
       </c>
       <c r="AE12" s="441" t="s">
         <v>239</v>
       </c>
-      <c r="AF12" s="631" t="s">
+      <c r="AF12" s="656" t="s">
         <v>228</v>
       </c>
-      <c r="AG12" s="631"/>
+      <c r="AG12" s="656"/>
       <c r="AH12" s="238" t="s">
         <v>259</v>
       </c>
@@ -7719,10 +7722,10 @@
       <c r="AJ12" s="257"/>
       <c r="AK12" s="257"/>
       <c r="AL12" s="257"/>
-      <c r="AM12" s="655" t="s">
+      <c r="AM12" s="651" t="s">
         <v>249</v>
       </c>
-      <c r="AN12" s="641"/>
+      <c r="AN12" s="636"/>
       <c r="AO12" s="338" t="s">
         <v>96</v>
       </c>
@@ -7734,17 +7737,17 @@
       <c r="E13" s="448">
         <v>-3</v>
       </c>
-      <c r="F13" s="620"/>
+      <c r="F13" s="641"/>
       <c r="G13" s="605" t="s">
         <v>430</v>
       </c>
       <c r="H13" s="605"/>
       <c r="I13" s="605"/>
-      <c r="J13" s="627"/>
+      <c r="J13" s="683"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="623"/>
-      <c r="P13" s="654"/>
+      <c r="O13" s="679"/>
+      <c r="P13" s="649"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7754,7 +7757,7 @@
       <c r="X13" s="431" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="658"/>
+      <c r="Y13" s="654"/>
       <c r="Z13" s="407">
         <v>1</v>
       </c>
@@ -7765,8 +7768,8 @@
         <v>500</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="639"/>
-      <c r="AF13" s="631"/>
+      <c r="AD13" s="668"/>
+      <c r="AF13" s="656"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="238" t="s">
         <v>308</v>
@@ -7777,8 +7780,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="257"/>
       <c r="AL13" s="257"/>
-      <c r="AM13" s="655"/>
-      <c r="AN13" s="641"/>
+      <c r="AM13" s="651"/>
+      <c r="AN13" s="636"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="450"/>
@@ -7786,18 +7789,18 @@
       <c r="C14" s="459"/>
       <c r="D14" s="452"/>
       <c r="E14" s="453"/>
-      <c r="F14" s="620"/>
+      <c r="F14" s="641"/>
       <c r="G14" s="605" t="s">
         <v>429</v>
       </c>
       <c r="H14" s="605"/>
       <c r="I14" s="605"/>
-      <c r="J14" s="627"/>
+      <c r="J14" s="683"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="623"/>
+      <c r="O14" s="679"/>
       <c r="Q14" s="61" t="s">
         <v>533</v>
       </c>
@@ -7811,24 +7814,24 @@
       <c r="X14" s="431" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="658"/>
+      <c r="Y14" s="654"/>
       <c r="Z14" s="407">
         <v>1</v>
       </c>
       <c r="AA14" s="307"/>
       <c r="AB14" s="209"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="639"/>
+      <c r="AD14" s="668"/>
       <c r="AE14" s="257"/>
-      <c r="AF14" s="631"/>
+      <c r="AF14" s="656"/>
       <c r="AG14" s="257"/>
       <c r="AH14" s="257"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="257"/>
       <c r="AK14" s="257"/>
       <c r="AL14" s="257"/>
-      <c r="AM14" s="655"/>
-      <c r="AN14" s="641"/>
+      <c r="AM14" s="651"/>
+      <c r="AN14" s="636"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="449" t="s">
@@ -7837,8 +7840,8 @@
       <c r="C15" s="598" t="s">
         <v>373</v>
       </c>
-      <c r="F15" s="620"/>
-      <c r="O15" s="623"/>
+      <c r="F15" s="641"/>
+      <c r="O15" s="679"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7851,7 +7854,7 @@
       <c r="X15" s="431" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="658"/>
+      <c r="Y15" s="654"/>
       <c r="Z15" s="409">
         <v>1</v>
       </c>
@@ -7860,8 +7863,8 @@
       <c r="AC15" s="76" t="s">
         <v>479</v>
       </c>
-      <c r="AD15" s="639"/>
-      <c r="AF15" s="631"/>
+      <c r="AD15" s="668"/>
+      <c r="AF15" s="656"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="238" t="s">
         <v>448</v>
@@ -7874,8 +7877,8 @@
       </c>
       <c r="AK15" s="257"/>
       <c r="AL15" s="257"/>
-      <c r="AM15" s="655"/>
-      <c r="AN15" s="641"/>
+      <c r="AM15" s="651"/>
+      <c r="AN15" s="636"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7897,13 +7900,13 @@
       <c r="E16" s="224">
         <v>1</v>
       </c>
-      <c r="F16" s="620"/>
+      <c r="F16" s="641"/>
       <c r="G16" s="337" t="s">
         <v>488</v>
       </c>
       <c r="I16" s="469"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="623"/>
+      <c r="O16" s="679"/>
       <c r="R16" s="435" t="s">
         <v>184</v>
       </c>
@@ -7914,7 +7917,7 @@
       <c r="X16" s="431" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="658"/>
+      <c r="Y16" s="654"/>
       <c r="Z16" s="407">
         <v>1</v>
       </c>
@@ -7935,18 +7938,18 @@
       <c r="AM16" s="428" t="s">
         <v>317</v>
       </c>
-      <c r="AN16" s="641"/>
+      <c r="AN16" s="636"/>
       <c r="AP16" s="76" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="620"/>
+      <c r="F17" s="641"/>
       <c r="I17" s="470"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="623"/>
+      <c r="O17" s="679"/>
       <c r="Q17" s="21" t="s">
         <v>531</v>
       </c>
@@ -7966,7 +7969,7 @@
       <c r="X17" s="431" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="658"/>
+      <c r="Y17" s="654"/>
       <c r="Z17" s="409"/>
       <c r="AA17" s="307"/>
       <c r="AB17" s="209"/>
@@ -7991,7 +7994,7 @@
       <c r="AK17" s="257"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="428"/>
-      <c r="AN17" s="641"/>
+      <c r="AN17" s="636"/>
       <c r="AO17" s="204" t="s">
         <v>497</v>
       </c>
@@ -8015,21 +8018,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="620"/>
+      <c r="F18" s="641"/>
       <c r="G18" s="337" t="s">
         <v>528</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="623"/>
+      <c r="O18" s="679"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="615" t="s">
+      <c r="R18" s="673" t="s">
         <v>536</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="663" t="s">
+      <c r="U18" s="612" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8039,7 +8042,7 @@
       <c r="X18" s="431" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="658"/>
+      <c r="Y18" s="654"/>
       <c r="Z18" s="409">
         <v>1</v>
       </c>
@@ -8050,38 +8053,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="257"/>
-      <c r="AF18" s="630" t="s">
+      <c r="AF18" s="650" t="s">
         <v>475</v>
       </c>
       <c r="AG18" s="257"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="656" t="s">
+      <c r="AJ18" s="652" t="s">
         <v>315</v>
       </c>
       <c r="AK18" s="257"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="428"/>
-      <c r="AN18" s="641"/>
+      <c r="AN18" s="636"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="620"/>
+      <c r="F19" s="641"/>
       <c r="I19" s="219"/>
-      <c r="O19" s="623"/>
-      <c r="R19" s="616"/>
+      <c r="O19" s="679"/>
+      <c r="R19" s="674"/>
       <c r="S19" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="U19" s="664"/>
+      <c r="U19" s="613"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="431" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="658"/>
+      <c r="Y19" s="654"/>
       <c r="Z19" s="407">
         <v>1</v>
       </c>
@@ -8090,17 +8093,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="257"/>
-      <c r="AF19" s="630"/>
+      <c r="AF19" s="650"/>
       <c r="AG19" s="257"/>
       <c r="AH19" s="257"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="656"/>
+      <c r="AJ19" s="652"/>
       <c r="AK19" s="460" t="s">
         <v>251</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="428"/>
-      <c r="AN19" s="641"/>
+      <c r="AN19" s="636"/>
       <c r="AP19" s="76" t="s">
         <v>468</v>
       </c>
@@ -8121,24 +8124,24 @@
       <c r="E20" s="437">
         <v>-1</v>
       </c>
-      <c r="F20" s="620"/>
+      <c r="F20" s="641"/>
       <c r="G20" s="337" t="s">
         <v>491</v>
       </c>
       <c r="I20" s="219"/>
-      <c r="O20" s="623"/>
-      <c r="Q20" s="625" t="s">
+      <c r="O20" s="679"/>
+      <c r="Q20" s="681" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="665"/>
+      <c r="U20" s="614"/>
       <c r="W20" s="405"/>
       <c r="X20" s="432" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="658"/>
+      <c r="Y20" s="654"/>
       <c r="Z20" s="411">
         <v>1</v>
       </c>
@@ -8163,7 +8166,7 @@
       <c r="AM20" s="381" t="s">
         <v>249</v>
       </c>
-      <c r="AN20" s="641"/>
+      <c r="AN20" s="636"/>
       <c r="AO20" s="338" t="s">
         <v>460</v>
       </c>
@@ -8184,20 +8187,20 @@
       <c r="E21" s="265">
         <v>0</v>
       </c>
-      <c r="F21" s="620"/>
+      <c r="F21" s="641"/>
       <c r="I21" s="219"/>
-      <c r="O21" s="623"/>
-      <c r="Q21" s="626"/>
+      <c r="O21" s="679"/>
+      <c r="Q21" s="682"/>
       <c r="T21" s="422"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="660"/>
+      <c r="V21" s="609"/>
       <c r="W21" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="429" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="658"/>
+      <c r="Y21" s="654"/>
       <c r="Z21" s="445">
         <v>3</v>
       </c>
@@ -8228,15 +8231,15 @@
       <c r="AM21" s="428" t="s">
         <v>545</v>
       </c>
-      <c r="AN21" s="641"/>
+      <c r="AN21" s="636"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="620"/>
+      <c r="F22" s="641"/>
       <c r="G22" s="337" t="s">
         <v>489</v>
       </c>
       <c r="I22" s="219"/>
-      <c r="O22" s="623"/>
+      <c r="O22" s="679"/>
       <c r="R22" s="434" t="s">
         <v>44</v>
       </c>
@@ -8244,14 +8247,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="661"/>
+      <c r="V22" s="610"/>
       <c r="W22" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="429" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="658"/>
+      <c r="Y22" s="654"/>
       <c r="Z22" s="415"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="415"/>
@@ -8262,7 +8265,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="630" t="s">
+      <c r="AJ22" s="650" t="s">
         <v>472</v>
       </c>
       <c r="AK22" s="257"/>
@@ -8270,7 +8273,7 @@
         <v>478</v>
       </c>
       <c r="AM22" s="300"/>
-      <c r="AN22" s="641"/>
+      <c r="AN22" s="636"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="231" t="s">
@@ -8288,22 +8291,22 @@
       <c r="E23" s="225">
         <v>1</v>
       </c>
-      <c r="F23" s="620"/>
+      <c r="F23" s="641"/>
       <c r="I23" s="219"/>
-      <c r="O23" s="623"/>
-      <c r="Q23" s="625" t="s">
+      <c r="O23" s="679"/>
+      <c r="Q23" s="681" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="661"/>
+      <c r="V23" s="610"/>
       <c r="W23" s="148"/>
       <c r="X23" s="429" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="658"/>
+      <c r="Y23" s="654"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="415"/>
@@ -8314,13 +8317,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="630"/>
+      <c r="AJ23" s="650"/>
       <c r="AK23" s="257"/>
       <c r="AL23" s="80" t="s">
         <v>507</v>
       </c>
       <c r="AM23" s="300"/>
-      <c r="AN23" s="641"/>
+      <c r="AN23" s="636"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="440" t="s">
@@ -8338,23 +8341,23 @@
       <c r="E24" s="436">
         <v>1</v>
       </c>
-      <c r="F24" s="620"/>
+      <c r="F24" s="641"/>
       <c r="G24" s="61" t="s">
         <v>490</v>
       </c>
       <c r="I24" s="219"/>
-      <c r="O24" s="623"/>
-      <c r="Q24" s="626"/>
+      <c r="O24" s="679"/>
+      <c r="Q24" s="682"/>
       <c r="T24" s="17"/>
       <c r="U24" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="661"/>
+      <c r="V24" s="610"/>
       <c r="W24" s="148"/>
       <c r="X24" s="429" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="658"/>
+      <c r="Y24" s="654"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="415"/>
@@ -8373,12 +8376,12 @@
         <v>463</v>
       </c>
       <c r="AM24" s="300"/>
-      <c r="AN24" s="641"/>
+      <c r="AN24" s="636"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="620"/>
+      <c r="F25" s="641"/>
       <c r="I25" s="219"/>
-      <c r="O25" s="623"/>
+      <c r="O25" s="679"/>
       <c r="P25" s="204" t="s">
         <v>280</v>
       </c>
@@ -8391,12 +8394,12 @@
       <c r="U25" s="400" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="662"/>
+      <c r="V25" s="611"/>
       <c r="W25" s="148"/>
       <c r="X25" s="429" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="658"/>
+      <c r="Y25" s="654"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="415"/>
@@ -8413,7 +8416,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="300"/>
-      <c r="AN25" s="641"/>
+      <c r="AN25" s="636"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="231" t="s">
@@ -8431,17 +8434,17 @@
       <c r="E26" s="380">
         <v>1</v>
       </c>
-      <c r="F26" s="620"/>
+      <c r="F26" s="641"/>
       <c r="G26" s="337" t="s">
         <v>487</v>
       </c>
       <c r="I26" s="219"/>
-      <c r="O26" s="623"/>
-      <c r="P26" s="643" t="s">
+      <c r="O26" s="679"/>
+      <c r="P26" s="638" t="s">
         <v>526</v>
       </c>
-      <c r="Q26" s="644"/>
-      <c r="R26" s="617" t="s">
+      <c r="Q26" s="639"/>
+      <c r="R26" s="675" t="s">
         <v>535</v>
       </c>
       <c r="T26" s="178"/>
@@ -8453,7 +8456,7 @@
       <c r="X26" s="429" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="658"/>
+      <c r="Y26" s="654"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="415"/>
@@ -8480,7 +8483,7 @@
       <c r="AM26" s="442" t="s">
         <v>456</v>
       </c>
-      <c r="AN26" s="641"/>
+      <c r="AN26" s="636"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8492,13 +8495,13 @@
       <c r="E27" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="621"/>
+      <c r="F27" s="677"/>
       <c r="G27" s="61" t="s">
         <v>544</v>
       </c>
       <c r="I27" s="220"/>
-      <c r="O27" s="624"/>
-      <c r="R27" s="618"/>
+      <c r="O27" s="680"/>
+      <c r="R27" s="676"/>
       <c r="S27" s="421" t="s">
         <v>54</v>
       </c>
@@ -8511,7 +8514,7 @@
       <c r="X27" s="429" t="s">
         <v>530</v>
       </c>
-      <c r="Y27" s="659"/>
+      <c r="Y27" s="655"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="416"/>
@@ -8528,10 +8531,48 @@
       <c r="AM27" s="381" t="s">
         <v>319</v>
       </c>
-      <c r="AN27" s="642"/>
+      <c r="AN27" s="637"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -8548,44 +8589,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8622,12 +8625,12 @@
       <c r="B1" s="603" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="627"/>
+      <c r="C1" s="683"/>
       <c r="D1" s="204"/>
       <c r="J1" s="603" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="627"/>
+      <c r="K1" s="683"/>
       <c r="L1" s="195" t="s">
         <v>330</v>
       </c>
@@ -8961,8 +8964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N12" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9030,7 +9033,7 @@
       <c r="P1" s="398" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" s="701" t="s">
+      <c r="Q1" s="714" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9054,7 +9057,7 @@
       <c r="AA1" s="517" t="s">
         <v>437</v>
       </c>
-      <c r="AB1" s="695" t="s">
+      <c r="AB1" s="708" t="s">
         <v>594</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9076,32 +9079,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="706">
+      <c r="A2" s="693">
         <f ca="1">TODAY()</f>
         <v>45286</v>
       </c>
-      <c r="B2" s="708" t="s">
+      <c r="B2" s="695" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="645" t="s">
+      <c r="C2" s="615" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="710" t="s">
+      <c r="D2" s="697" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="712" t="s">
+      <c r="E2" s="699" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="191" t="s">
         <v>218</v>
       </c>
-      <c r="G2" s="613" t="s">
+      <c r="G2" s="659" t="s">
         <v>372</v>
       </c>
       <c r="H2" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I2" s="692" t="s">
+      <c r="I2" s="705" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="396" t="s">
@@ -9125,7 +9128,7 @@
       <c r="P2" s="399">
         <v>40</v>
       </c>
-      <c r="Q2" s="702"/>
+      <c r="Q2" s="715"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>4</v>
@@ -9150,7 +9153,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="696"/>
+      <c r="AB2" s="709"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>344</v>
@@ -9167,14 +9170,14 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="707"/>
-      <c r="B3" s="709"/>
-      <c r="C3" s="646"/>
-      <c r="D3" s="711"/>
-      <c r="E3" s="713"/>
-      <c r="G3" s="614"/>
+      <c r="A3" s="694"/>
+      <c r="B3" s="696"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="698"/>
+      <c r="E3" s="700"/>
+      <c r="G3" s="660"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="693"/>
+      <c r="I3" s="706"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9189,7 +9192,7 @@
       <c r="V3" s="470"/>
       <c r="W3" s="6"/>
       <c r="X3" s="470"/>
-      <c r="AB3" s="696"/>
+      <c r="AB3" s="709"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>589</v>
@@ -9199,8 +9202,12 @@
         <f>IF((AE7-SUM(AL2:AL10)&lt;0),AE7-SUM(AI2:AI10),0)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="470"/>
+      <c r="AH3" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="AI3" s="470">
+        <v>1</v>
+      </c>
       <c r="AJ3" s="553"/>
       <c r="AK3" s="6" t="s">
         <v>249</v>
@@ -9214,10 +9221,10 @@
         <v>380</v>
       </c>
       <c r="B4" s="243"/>
-      <c r="C4" s="714" t="s">
+      <c r="C4" s="701" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="693"/>
+      <c r="I4" s="706"/>
       <c r="R4" s="471" t="s">
         <v>589</v>
       </c>
@@ -9229,7 +9236,7 @@
       <c r="V4" s="470"/>
       <c r="W4" s="6"/>
       <c r="X4" s="470"/>
-      <c r="AB4" s="696"/>
+      <c r="AB4" s="709"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9260,7 +9267,7 @@
       <c r="B5" s="100" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="715"/>
+      <c r="C5" s="702"/>
       <c r="D5" s="222" t="s">
         <v>102</v>
       </c>
@@ -9276,7 +9283,7 @@
       <c r="H5" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="693"/>
+      <c r="I5" s="706"/>
       <c r="J5" s="397" t="s">
         <v>268</v>
       </c>
@@ -9303,7 +9310,7 @@
       <c r="V5" s="468"/>
       <c r="W5" s="6"/>
       <c r="X5" s="468"/>
-      <c r="AB5" s="696"/>
+      <c r="AB5" s="709"/>
       <c r="AC5" s="2" t="s">
         <v>592</v>
       </c>
@@ -9325,19 +9332,19 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="703" t="s">
+      <c r="A6" s="690" t="s">
         <v>285</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="628"/>
-      <c r="D6" s="629"/>
+      <c r="C6" s="661"/>
+      <c r="D6" s="662"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="599"/>
-      <c r="I6" s="693"/>
+      <c r="I6" s="706"/>
       <c r="P6" s="61" t="s">
         <v>592</v>
       </c>
@@ -9349,7 +9356,7 @@
         <f>S7+S11-SUM(V2:V10)</f>
         <v>3</v>
       </c>
-      <c r="AB6" s="696"/>
+      <c r="AB6" s="709"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
@@ -9357,7 +9364,7 @@
       </c>
       <c r="AF6" s="64">
         <f>AF7-SUM(AI2:AI10)+AF11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="6"/>
       <c r="AI6" s="525"/>
@@ -9365,7 +9372,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="704"/>
+      <c r="A7" s="691"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9376,7 +9383,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="599"/>
-      <c r="I7" s="693"/>
+      <c r="I7" s="706"/>
       <c r="M7" s="16" t="s">
         <v>347</v>
       </c>
@@ -9408,7 +9415,7 @@
       <c r="X7" s="469">
         <v>1</v>
       </c>
-      <c r="AB7" s="696"/>
+      <c r="AB7" s="709"/>
       <c r="AC7" s="99" t="s">
         <v>593</v>
       </c>
@@ -9421,7 +9428,7 @@
       </c>
       <c r="AF7" s="295">
         <f>8-AF11</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH7" s="6" t="s">
         <v>249</v>
@@ -9438,7 +9445,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="705"/>
+      <c r="A8" s="692"/>
       <c r="B8" s="212" t="s">
         <v>28</v>
       </c>
@@ -9447,7 +9454,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="599"/>
-      <c r="I8" s="693"/>
+      <c r="I8" s="706"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6"/>
       <c r="V8" s="24"/>
@@ -9457,7 +9464,7 @@
       <c r="X8" s="470">
         <v>1</v>
       </c>
-      <c r="AB8" s="696"/>
+      <c r="AB8" s="709"/>
       <c r="AC8" s="515"/>
       <c r="AH8" s="6" t="s">
         <v>612</v>
@@ -9488,7 +9495,7 @@
       </c>
       <c r="G9" s="599"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="693"/>
+      <c r="I9" s="706"/>
       <c r="M9" s="19" t="s">
         <v>525</v>
       </c>
@@ -9501,7 +9508,7 @@
       <c r="X9" s="470">
         <v>1</v>
       </c>
-      <c r="AB9" s="696"/>
+      <c r="AB9" s="709"/>
       <c r="AC9" s="515"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9525,7 +9532,7 @@
         <v>39</v>
       </c>
       <c r="G10" s="599"/>
-      <c r="I10" s="693"/>
+      <c r="I10" s="706"/>
       <c r="J10" s="24" t="s">
         <v>372</v>
       </c>
@@ -9540,7 +9547,7 @@
       <c r="V10" s="470"/>
       <c r="W10" s="6"/>
       <c r="X10" s="470"/>
-      <c r="AB10" s="696"/>
+      <c r="AB10" s="709"/>
       <c r="AC10" s="515"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9572,7 +9579,7 @@
         <v>265</v>
       </c>
       <c r="G11" s="599"/>
-      <c r="I11" s="693"/>
+      <c r="I11" s="706"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9598,13 +9605,13 @@
       <c r="S11" s="24">
         <v>3</v>
       </c>
-      <c r="U11" s="698" t="s">
+      <c r="U11" s="711" t="s">
         <v>558</v>
       </c>
-      <c r="V11" s="699"/>
-      <c r="W11" s="699"/>
-      <c r="X11" s="700"/>
-      <c r="AB11" s="697"/>
+      <c r="V11" s="712"/>
+      <c r="W11" s="712"/>
+      <c r="X11" s="713"/>
+      <c r="AB11" s="710"/>
       <c r="AC11" s="99" t="s">
         <v>595</v>
       </c>
@@ -9615,16 +9622,16 @@
         <v>0</v>
       </c>
       <c r="AF11" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="414"/>
-      <c r="AH11" s="698" t="s">
+      <c r="AH11" s="711" t="s">
         <v>603</v>
       </c>
-      <c r="AI11" s="699"/>
-      <c r="AJ11" s="699"/>
-      <c r="AK11" s="699"/>
-      <c r="AL11" s="700"/>
+      <c r="AI11" s="712"/>
+      <c r="AJ11" s="712"/>
+      <c r="AK11" s="712"/>
+      <c r="AL11" s="713"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="227" t="s">
@@ -9635,7 +9642,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="599"/>
-      <c r="I12" s="693"/>
+      <c r="I12" s="706"/>
       <c r="J12" s="24" t="s">
         <v>516</v>
       </c>
@@ -9668,7 +9675,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="599"/>
-      <c r="I13" s="693"/>
+      <c r="I13" s="706"/>
       <c r="J13" s="108" t="s">
         <v>548</v>
       </c>
@@ -9712,7 +9719,7 @@
       <c r="H14" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="693"/>
+      <c r="I14" s="706"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9739,7 +9746,7 @@
       <c r="H15" s="271">
         <v>0</v>
       </c>
-      <c r="I15" s="693"/>
+      <c r="I15" s="706"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9770,7 +9777,7 @@
       <c r="D16" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="I16" s="693"/>
+      <c r="I16" s="706"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9806,7 +9813,7 @@
       <c r="G17" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I17" s="693"/>
+      <c r="I17" s="706"/>
       <c r="L17" s="2" t="s">
         <v>426</v>
       </c>
@@ -9820,13 +9827,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="693"/>
+      <c r="I18" s="706"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="690" t="s">
+      <c r="O18" s="703" t="s">
         <v>517</v>
       </c>
-      <c r="P18" s="691"/>
+      <c r="P18" s="704"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9848,7 +9855,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="693"/>
+      <c r="I19" s="706"/>
       <c r="M19" s="21" t="s">
         <v>425</v>
       </c>
@@ -9880,7 +9887,7 @@
       <c r="G20" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I20" s="693"/>
+      <c r="I20" s="706"/>
       <c r="K20" s="19" t="s">
         <v>422</v>
       </c>
@@ -9911,7 +9918,7 @@
       <c r="X20" s="468"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="693"/>
+      <c r="I21" s="706"/>
       <c r="M21" s="216" t="s">
         <v>411</v>
       </c>
@@ -9945,7 +9952,7 @@
       <c r="G22" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I22" s="693"/>
+      <c r="I22" s="706"/>
       <c r="P22" s="99" t="s">
         <v>591</v>
       </c>
@@ -9960,7 +9967,7 @@
       <c r="E23" s="283" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="693"/>
+      <c r="I23" s="706"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>5</v>
@@ -9977,7 +9984,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="693"/>
+      <c r="I24" s="706"/>
       <c r="U24" s="35"/>
       <c r="V24" s="509">
         <v>0</v>
@@ -10005,7 +10012,7 @@
       <c r="H25" s="191" t="s">
         <v>266</v>
       </c>
-      <c r="I25" s="693"/>
+      <c r="I25" s="706"/>
       <c r="J25" s="397" t="s">
         <v>269</v>
       </c>
@@ -10050,7 +10057,7 @@
       <c r="H26" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="693"/>
+      <c r="I26" s="706"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10085,7 +10092,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="693"/>
+      <c r="I27" s="706"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10112,7 +10119,7 @@
       <c r="E28" s="215">
         <v>2</v>
       </c>
-      <c r="I28" s="693"/>
+      <c r="I28" s="706"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10134,7 +10141,7 @@
       <c r="H29" s="191" t="s">
         <v>267</v>
       </c>
-      <c r="I29" s="694"/>
+      <c r="I29" s="707"/>
       <c r="J29" s="324"/>
       <c r="L29" s="96" t="s">
         <v>273</v>
@@ -10192,6 +10199,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10203,13 +10217,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10220,8 +10227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView topLeftCell="T18" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10321,14 +10328,14 @@
         <f ca="1">TODAY()</f>
         <v>45286</v>
       </c>
-      <c r="T1" s="735"/>
+      <c r="T1" s="742"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="719" t="s">
+      <c r="X1" s="726" t="s">
         <v>441</v>
       </c>
-      <c r="Y1" s="720"/>
+      <c r="Y1" s="727"/>
       <c r="Z1" s="306">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10344,27 +10351,27 @@
       <c r="AD1" s="302" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="721" t="s">
+      <c r="AE1" s="728" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="722"/>
-      <c r="AG1" s="723"/>
-      <c r="AH1" s="724" t="s">
+      <c r="AF1" s="729"/>
+      <c r="AG1" s="730"/>
+      <c r="AH1" s="731" t="s">
         <v>293</v>
       </c>
-      <c r="AI1" s="725"/>
-      <c r="AJ1" s="726"/>
-      <c r="AK1" s="613" t="s">
+      <c r="AI1" s="732"/>
+      <c r="AJ1" s="733"/>
+      <c r="AK1" s="659" t="s">
         <v>616</v>
       </c>
       <c r="AL1" s="551" t="s">
         <v>617</v>
       </c>
-      <c r="AM1" s="716" t="s">
+      <c r="AM1" s="723" t="s">
         <v>444</v>
       </c>
-      <c r="AN1" s="717"/>
-      <c r="AO1" s="718"/>
+      <c r="AN1" s="724"/>
+      <c r="AO1" s="725"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10379,27 +10386,27 @@
         <f>K2+L2</f>
         <v>29</v>
       </c>
-      <c r="K2" s="743">
+      <c r="K2" s="721">
         <f>SUM(K4:K37)</f>
         <v>6</v>
       </c>
-      <c r="L2" s="741">
+      <c r="L2" s="719">
         <f>SUM(L4:L37)</f>
         <v>23</v>
       </c>
-      <c r="M2" s="727">
+      <c r="M2" s="734">
         <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="729">
+      <c r="N2" s="736">
         <f>SUM(N4:N29)</f>
         <v>9</v>
       </c>
-      <c r="O2" s="731">
+      <c r="O2" s="738">
         <f>SUM(O4:O29)</f>
         <v>9</v>
       </c>
-      <c r="P2" s="637">
+      <c r="P2" s="666">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-3</v>
       </c>
@@ -10412,14 +10419,14 @@
       <c r="S2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="T2" s="736"/>
+      <c r="T2" s="743"/>
       <c r="U2" s="537" t="s">
         <v>262</v>
       </c>
       <c r="V2" s="482" t="s">
         <v>219</v>
       </c>
-      <c r="W2" s="733" t="s">
+      <c r="W2" s="740" t="s">
         <v>234</v>
       </c>
       <c r="X2" s="483" t="s">
@@ -10461,7 +10468,7 @@
       <c r="AJ2" s="150" t="s">
         <v>288</v>
       </c>
-      <c r="AK2" s="614"/>
+      <c r="AK2" s="660"/>
       <c r="AL2" s="592" t="s">
         <v>288</v>
       </c>
@@ -10489,12 +10496,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="744"/>
-      <c r="L3" s="742"/>
-      <c r="M3" s="728"/>
-      <c r="N3" s="730"/>
-      <c r="O3" s="732"/>
-      <c r="P3" s="638"/>
+      <c r="K3" s="722"/>
+      <c r="L3" s="720"/>
+      <c r="M3" s="735"/>
+      <c r="N3" s="737"/>
+      <c r="O3" s="739"/>
+      <c r="P3" s="667"/>
       <c r="Q3" s="172">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10502,7 +10509,7 @@
       <c r="S3" s="159" t="s">
         <v>244</v>
       </c>
-      <c r="T3" s="737"/>
+      <c r="T3" s="744"/>
       <c r="U3" s="538">
         <f>SUM(U4:U29)</f>
         <v>12</v>
@@ -10511,7 +10518,7 @@
         <f>SUM(V4:V29)</f>
         <v>39</v>
       </c>
-      <c r="W3" s="734"/>
+      <c r="W3" s="741"/>
       <c r="X3" s="485">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>8</v>
@@ -10562,7 +10569,7 @@
       </c>
       <c r="AJ3" s="404">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK3" s="404">
         <f>SUM(AK4:AK37)</f>
@@ -10617,7 +10624,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="738">
+      <c r="P4" s="716">
         <v>1</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10703,7 +10710,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="739"/>
+      <c r="P5" s="717"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>340</v>
@@ -10797,7 +10804,7 @@
         <f>AC6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="739"/>
+      <c r="P6" s="717"/>
       <c r="Q6" s="19" t="s">
         <v>335</v>
       </c>
@@ -10900,7 +10907,7 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="739"/>
+      <c r="P7" s="717"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>335</v>
@@ -11016,7 +11023,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="739"/>
+      <c r="P8" s="717"/>
       <c r="Q8" s="21" t="s">
         <v>233</v>
       </c>
@@ -11107,7 +11114,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="739"/>
+      <c r="P9" s="717"/>
       <c r="Q9" s="21" t="s">
         <v>335</v>
       </c>
@@ -11212,7 +11219,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="739"/>
+      <c r="P10" s="717"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>340</v>
@@ -11302,7 +11309,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="739"/>
+      <c r="P11" s="717"/>
       <c r="Q11" s="21" t="s">
         <v>335</v>
       </c>
@@ -11367,14 +11374,14 @@
       <c r="AR11" s="508"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="675" t="s">
+      <c r="A12" s="626" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="625" t="s">
+      <c r="E12" s="681" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="262"/>
@@ -11399,7 +11406,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P12" s="739"/>
+      <c r="P12" s="717"/>
       <c r="Q12" s="21" t="s">
         <v>335</v>
       </c>
@@ -11476,14 +11483,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="677"/>
+      <c r="A13" s="628"/>
       <c r="B13" s="584">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="626"/>
+      <c r="E13" s="682"/>
       <c r="F13" s="172">
         <v>0</v>
       </c>
@@ -11507,7 +11514,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="739"/>
+      <c r="P13" s="717"/>
       <c r="Q13" s="21" t="s">
         <v>335</v>
       </c>
@@ -11589,7 +11596,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="739"/>
+      <c r="P14" s="717"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="200" t="s">
         <v>339</v>
@@ -11690,7 +11697,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="739"/>
+      <c r="P15" s="717"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="200" t="s">
         <v>339</v>
@@ -11782,7 +11789,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="739"/>
+      <c r="P16" s="717"/>
       <c r="Q16" s="21" t="s">
         <v>335</v>
       </c>
@@ -11883,7 +11890,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="739"/>
+      <c r="P17" s="717"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>341</v>
@@ -11983,7 +11990,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="739"/>
+      <c r="P18" s="717"/>
       <c r="Q18" s="21" t="s">
         <v>335</v>
       </c>
@@ -12073,7 +12080,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="739"/>
+      <c r="P19" s="717"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>334</v>
@@ -12181,11 +12188,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="740"/>
+      <c r="P20" s="718"/>
       <c r="Q20" s="603" t="s">
         <v>335</v>
       </c>
-      <c r="R20" s="627"/>
+      <c r="R20" s="683"/>
       <c r="S20" s="534" t="s">
         <v>85</v>
       </c>
@@ -12445,7 +12452,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="682" t="s">
+      <c r="E23" s="633" t="s">
         <v>289</v>
       </c>
       <c r="F23" s="180"/>
@@ -12519,7 +12526,9 @@
       <c r="AI23" s="375">
         <v>0</v>
       </c>
-      <c r="AJ23" s="509"/>
+      <c r="AJ23" s="509">
+        <v>1</v>
+      </c>
       <c r="AK23" s="559"/>
       <c r="AL23" s="317"/>
       <c r="AM23" s="336">
@@ -12548,7 +12557,7 @@
       <c r="C24" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E24" s="683"/>
+      <c r="E24" s="634"/>
       <c r="F24" s="172"/>
       <c r="H24" s="42"/>
       <c r="J24" s="571" t="s">
@@ -12573,7 +12582,7 @@
       <c r="Q24" s="603" t="s">
         <v>335</v>
       </c>
-      <c r="R24" s="627"/>
+      <c r="R24" s="683"/>
       <c r="S24" s="534" t="s">
         <v>249</v>
       </c>
@@ -12852,6 +12861,7 @@
       <c r="AR26" s="508"/>
     </row>
     <row r="27" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="791"/>
       <c r="E27" s="31" t="s">
         <v>290</v>
       </c>
@@ -13228,8 +13238,8 @@
       <c r="AR31" s="508"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="630"/>
-      <c r="B32" s="630"/>
+      <c r="A32" s="650"/>
+      <c r="B32" s="650"/>
       <c r="J32" s="572"/>
       <c r="K32" s="587"/>
       <c r="L32" s="581">
@@ -13325,9 +13335,7 @@
     </row>
     <row r="33" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="80"/>
-      <c r="B33" s="24">
-        <v>4</v>
-      </c>
+      <c r="B33" s="24"/>
       <c r="G33" s="382">
         <v>-1</v>
       </c>
@@ -13703,7 +13711,7 @@
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D37" s="382">
         <v>1</v>
@@ -13808,15 +13816,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13828,6 +13827,15 @@
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13895,7 +13903,7 @@
       <c r="V1" s="603" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="627"/>
+      <c r="W1" s="683"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13914,7 +13922,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="752" t="s">
+      <c r="AD1" s="759" t="s">
         <v>211</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13931,10 +13939,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="751" t="s">
+      <c r="F2" s="790" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="779" t="s">
+      <c r="G2" s="747" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13962,10 +13970,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="719" t="s">
+      <c r="V2" s="726" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="720"/>
+      <c r="W2" s="727"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -13984,7 +13992,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="753"/>
+      <c r="AD2" s="760"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -14003,8 +14011,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="679"/>
-      <c r="G3" s="780"/>
+      <c r="F3" s="630"/>
+      <c r="G3" s="748"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -14015,13 +14023,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="789" t="s">
+      <c r="O3" s="757" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="771" t="s">
+      <c r="P3" s="778" t="s">
         <v>217</v>
       </c>
-      <c r="Q3" s="772"/>
+      <c r="Q3" s="779"/>
       <c r="S3" s="57" t="s">
         <v>218</v>
       </c>
@@ -14031,15 +14039,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="753"/>
+      <c r="AD3" s="760"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="780"/>
+      <c r="G4" s="748"/>
       <c r="H4" s="6"/>
       <c r="L4" s="687" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="790"/>
+      <c r="O4" s="758"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14053,8 +14061,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="605"/>
-      <c r="AA4" s="627"/>
-      <c r="AD4" s="753"/>
+      <c r="AA4" s="683"/>
+      <c r="AD4" s="760"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14069,21 +14077,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="780"/>
+      <c r="G5" s="748"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="758" t="s">
+      <c r="K5" s="765" t="s">
         <v>215</v>
       </c>
-      <c r="L5" s="773"/>
+      <c r="L5" s="780"/>
       <c r="M5" s="2" t="s">
         <v>213</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="O5" s="790"/>
+      <c r="O5" s="758"/>
       <c r="P5" s="108" t="s">
         <v>214</v>
       </c>
@@ -14099,11 +14107,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="761" t="s">
+      <c r="Y5" s="768" t="s">
         <v>282</v>
       </c>
-      <c r="Z5" s="762"/>
-      <c r="AD5" s="753"/>
+      <c r="Z5" s="769"/>
+      <c r="AD5" s="760"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14113,16 +14121,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="780"/>
+      <c r="G6" s="748"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="759"/>
-      <c r="L6" s="773"/>
-      <c r="O6" s="790"/>
+      <c r="K6" s="766"/>
+      <c r="L6" s="780"/>
+      <c r="O6" s="758"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14132,23 +14140,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="753"/>
+      <c r="AD6" s="760"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="780"/>
+      <c r="G7" s="748"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="759"/>
-      <c r="L7" s="773"/>
+      <c r="K7" s="766"/>
+      <c r="L7" s="780"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="790"/>
+      <c r="O7" s="758"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="753"/>
+      <c r="AD7" s="760"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14161,7 +14169,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="780"/>
+      <c r="G8" s="748"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14171,41 +14179,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="759"/>
-      <c r="L8" s="773"/>
-      <c r="O8" s="790"/>
+      <c r="K8" s="766"/>
+      <c r="L8" s="780"/>
+      <c r="O8" s="758"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="755" t="s">
+      <c r="S8" s="762" t="s">
         <v>210</v>
       </c>
-      <c r="T8" s="756"/>
-      <c r="U8" s="756"/>
-      <c r="V8" s="756"/>
-      <c r="W8" s="756"/>
-      <c r="X8" s="756"/>
-      <c r="Y8" s="756"/>
-      <c r="Z8" s="756"/>
-      <c r="AA8" s="756"/>
-      <c r="AB8" s="756"/>
-      <c r="AC8" s="757"/>
-      <c r="AD8" s="753"/>
+      <c r="T8" s="763"/>
+      <c r="U8" s="763"/>
+      <c r="V8" s="763"/>
+      <c r="W8" s="763"/>
+      <c r="X8" s="763"/>
+      <c r="Y8" s="763"/>
+      <c r="Z8" s="763"/>
+      <c r="AA8" s="763"/>
+      <c r="AB8" s="763"/>
+      <c r="AC8" s="764"/>
+      <c r="AD8" s="760"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="745"/>
-      <c r="G9" s="780"/>
+      <c r="C9" s="784"/>
+      <c r="G9" s="748"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="759"/>
-      <c r="L9" s="783" t="s">
+      <c r="K9" s="766"/>
+      <c r="L9" s="751" t="s">
         <v>216</v>
       </c>
-      <c r="M9" s="784"/>
-      <c r="N9" s="785"/>
-      <c r="O9" s="790"/>
+      <c r="M9" s="752"/>
+      <c r="N9" s="753"/>
+      <c r="O9" s="758"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="753"/>
+      <c r="AD9" s="760"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="746"/>
+      <c r="C10" s="785"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14213,7 +14221,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="780"/>
+      <c r="G10" s="748"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14221,33 +14229,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="759"/>
-      <c r="M10" s="748" t="s">
+      <c r="K10" s="766"/>
+      <c r="M10" s="787" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="749"/>
-      <c r="O10" s="749"/>
-      <c r="P10" s="749"/>
-      <c r="Q10" s="749"/>
-      <c r="R10" s="749"/>
-      <c r="S10" s="749"/>
-      <c r="T10" s="749"/>
-      <c r="U10" s="749"/>
-      <c r="V10" s="749"/>
-      <c r="W10" s="749"/>
-      <c r="X10" s="749"/>
-      <c r="Y10" s="749"/>
-      <c r="Z10" s="749"/>
-      <c r="AA10" s="749"/>
-      <c r="AB10" s="749"/>
-      <c r="AC10" s="750"/>
-      <c r="AD10" s="753"/>
+      <c r="N10" s="788"/>
+      <c r="O10" s="788"/>
+      <c r="P10" s="788"/>
+      <c r="Q10" s="788"/>
+      <c r="R10" s="788"/>
+      <c r="S10" s="788"/>
+      <c r="T10" s="788"/>
+      <c r="U10" s="788"/>
+      <c r="V10" s="788"/>
+      <c r="W10" s="788"/>
+      <c r="X10" s="788"/>
+      <c r="Y10" s="788"/>
+      <c r="Z10" s="788"/>
+      <c r="AA10" s="788"/>
+      <c r="AB10" s="788"/>
+      <c r="AC10" s="789"/>
+      <c r="AD10" s="760"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="747"/>
-      <c r="G11" s="780"/>
+      <c r="C11" s="786"/>
+      <c r="G11" s="748"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="759"/>
+      <c r="K11" s="766"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14255,17 +14263,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="769" t="s">
+      <c r="Z11" s="776" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="770"/>
+      <c r="AA11" s="777"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="753"/>
+      <c r="AD11" s="760"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14278,7 +14286,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="780"/>
+      <c r="G12" s="748"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14286,8 +14294,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="759"/>
-      <c r="L12" s="774" t="s">
+      <c r="K12" s="766"/>
+      <c r="L12" s="781" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14318,25 +14326,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="763" t="s">
+      <c r="AA12" s="770" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="764"/>
+      <c r="AB12" s="771"/>
       <c r="AC12" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="AD12" s="753"/>
+      <c r="AD12" s="760"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="745"/>
-      <c r="G13" s="780"/>
-      <c r="K13" s="759"/>
-      <c r="L13" s="775"/>
+      <c r="C13" s="784"/>
+      <c r="G13" s="748"/>
+      <c r="K13" s="766"/>
+      <c r="L13" s="782"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="782" t="s">
+      <c r="Q13" s="750" t="s">
         <v>208</v>
       </c>
-      <c r="R13" s="644"/>
+      <c r="R13" s="639"/>
       <c r="S13" s="599"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14345,17 +14353,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="765"/>
-      <c r="AB13" s="766"/>
-      <c r="AD13" s="753"/>
+      <c r="AA13" s="772"/>
+      <c r="AB13" s="773"/>
+      <c r="AD13" s="760"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C14" s="747"/>
+      <c r="C14" s="786"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="780"/>
+      <c r="G14" s="748"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14363,8 +14371,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="759"/>
-      <c r="L14" s="775"/>
+      <c r="K14" s="766"/>
+      <c r="L14" s="782"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14385,9 +14393,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="765"/>
-      <c r="AB14" s="766"/>
-      <c r="AD14" s="753"/>
+      <c r="AA14" s="772"/>
+      <c r="AB14" s="773"/>
+      <c r="AD14" s="760"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14402,19 +14410,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="780"/>
+      <c r="G15" s="748"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="759"/>
-      <c r="L15" s="776"/>
-      <c r="Q15" s="782" t="s">
+      <c r="K15" s="766"/>
+      <c r="L15" s="783"/>
+      <c r="Q15" s="750" t="s">
         <v>209</v>
       </c>
-      <c r="R15" s="644"/>
+      <c r="R15" s="639"/>
       <c r="S15" s="599"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14423,14 +14431,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="765"/>
-      <c r="AB15" s="766"/>
-      <c r="AD15" s="753"/>
+      <c r="AA15" s="772"/>
+      <c r="AB15" s="773"/>
+      <c r="AD15" s="760"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="780"/>
-      <c r="K16" s="759"/>
+      <c r="G16" s="748"/>
+      <c r="K16" s="766"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14449,24 +14457,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="765"/>
-      <c r="AB16" s="766"/>
-      <c r="AD16" s="753"/>
+      <c r="AA16" s="772"/>
+      <c r="AB16" s="773"/>
+      <c r="AD16" s="760"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="777" t="s">
+      <c r="F17" s="745" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="780"/>
+      <c r="G17" s="748"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="759"/>
+      <c r="K17" s="766"/>
       <c r="S17" s="599"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14474,9 +14482,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="765"/>
-      <c r="AB17" s="766"/>
-      <c r="AD17" s="753"/>
+      <c r="AA17" s="772"/>
+      <c r="AB17" s="773"/>
+      <c r="AD17" s="760"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14486,15 +14494,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="778"/>
-      <c r="G18" s="780"/>
+      <c r="F18" s="746"/>
+      <c r="G18" s="748"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="759"/>
+      <c r="K18" s="766"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14505,42 +14513,39 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="767"/>
-      <c r="AB18" s="768"/>
-      <c r="AD18" s="753"/>
+      <c r="AA18" s="774"/>
+      <c r="AB18" s="775"/>
+      <c r="AD18" s="760"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="781"/>
-      <c r="K19" s="760"/>
+      <c r="G19" s="749"/>
+      <c r="K19" s="767"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="786" t="s">
+      <c r="R19" s="754" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="787"/>
-      <c r="T19" s="788"/>
+      <c r="S19" s="755"/>
+      <c r="T19" s="756"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="754"/>
+      <c r="AD19" s="761"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14552,11 +14557,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.2.0.xlsx
+++ b/System_2.2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A358D2-CF2A-4FF2-B6DC-83766392CE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B232C8B-D143-4524-9A89-1665802FBA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="622">
   <si>
     <t>Zone</t>
   </si>
@@ -1905,15 +1905,6 @@
   </si>
   <si>
     <t>Rbangla</t>
-  </si>
-  <si>
-    <t>2 F INCapacity</t>
-  </si>
-  <si>
-    <t>15F</t>
-  </si>
-  <si>
-    <t>3M 3F</t>
   </si>
 </sst>
 </file>
@@ -4988,6 +4979,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5036,6 +5030,159 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5054,12 +5201,6 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5114,169 +5255,61 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5318,43 +5351,70 @@
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5378,112 +5438,25 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5561,29 +5534,47 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5880,8 +5871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5937,10 +5928,10 @@
       <c r="I2" s="391" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="601" t="s">
+      <c r="J2" s="602" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="602"/>
+      <c r="K2" s="603"/>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5950,14 +5941,14 @@
       <c r="N2" s="349" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="603" t="s">
+      <c r="O2" s="604" t="s">
         <v>375</v>
       </c>
-      <c r="P2" s="604"/>
-      <c r="Q2" s="605"/>
-      <c r="R2" s="605"/>
-      <c r="S2" s="605"/>
-      <c r="T2" s="606" t="s">
+      <c r="P2" s="605"/>
+      <c r="Q2" s="606"/>
+      <c r="R2" s="606"/>
+      <c r="S2" s="606"/>
+      <c r="T2" s="607" t="s">
         <v>376</v>
       </c>
       <c r="V2" s="21" t="s">
@@ -5971,7 +5962,7 @@
       <c r="C3" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="598"/>
+      <c r="D3" s="599"/>
       <c r="E3" s="337"/>
       <c r="F3" s="265" t="s">
         <v>68</v>
@@ -6000,7 +5991,7 @@
       <c r="S3" s="24">
         <v>1</v>
       </c>
-      <c r="T3" s="607"/>
+      <c r="T3" s="608"/>
       <c r="U3" s="19" t="s">
         <v>566</v>
       </c>
@@ -6016,7 +6007,7 @@
       <c r="C4" s="165" t="s">
         <v>354</v>
       </c>
-      <c r="D4" s="599"/>
+      <c r="D4" s="600"/>
       <c r="E4" s="61"/>
       <c r="F4" s="359" t="s">
         <v>42</v>
@@ -6033,7 +6024,7 @@
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="313"/>
-      <c r="T4" s="607"/>
+      <c r="T4" s="608"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -6042,7 +6033,7 @@
       <c r="C5" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="600"/>
+      <c r="D5" s="601"/>
       <c r="F5" s="363" t="s">
         <v>42</v>
       </c>
@@ -6059,7 +6050,7 @@
         <v>503</v>
       </c>
       <c r="P5" s="313"/>
-      <c r="T5" s="607"/>
+      <c r="T5" s="608"/>
       <c r="U5" s="204" t="s">
         <v>225</v>
       </c>
@@ -6096,7 +6087,7 @@
       <c r="P6" s="313"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="6"/>
-      <c r="T6" s="607"/>
+      <c r="T6" s="608"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="209" t="s">
@@ -6134,7 +6125,7 @@
       <c r="S7" s="24">
         <v>1</v>
       </c>
-      <c r="T7" s="607"/>
+      <c r="T7" s="608"/>
     </row>
     <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -6163,7 +6154,7 @@
       <c r="P8" s="313"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="6"/>
-      <c r="T8" s="607"/>
+      <c r="T8" s="608"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -6202,7 +6193,7 @@
       <c r="S9" s="24">
         <v>1</v>
       </c>
-      <c r="T9" s="607"/>
+      <c r="T9" s="608"/>
     </row>
     <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -6232,7 +6223,7 @@
         <v>503</v>
       </c>
       <c r="P10" s="313"/>
-      <c r="T10" s="607"/>
+      <c r="T10" s="608"/>
     </row>
     <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -6272,7 +6263,7 @@
       <c r="S11" s="24">
         <v>1</v>
       </c>
-      <c r="T11" s="607"/>
+      <c r="T11" s="608"/>
       <c r="U11" s="204" t="s">
         <v>224</v>
       </c>
@@ -6305,7 +6296,7 @@
       <c r="P12" s="313"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="142"/>
-      <c r="T12" s="607"/>
+      <c r="T12" s="608"/>
     </row>
     <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="256" t="s">
@@ -6335,7 +6326,7 @@
       </c>
       <c r="P13" s="313"/>
       <c r="R13" s="142"/>
-      <c r="T13" s="607"/>
+      <c r="T13" s="608"/>
       <c r="U13" s="2" t="s">
         <v>587</v>
       </c>
@@ -6345,7 +6336,7 @@
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P14" s="313"/>
-      <c r="T14" s="607"/>
+      <c r="T14" s="608"/>
     </row>
     <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -6371,8 +6362,8 @@
       <c r="L15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="595"/>
-      <c r="N15" s="598" t="s">
+      <c r="M15" s="596"/>
+      <c r="N15" s="599" t="s">
         <v>22</v>
       </c>
       <c r="O15" s="474" t="s">
@@ -6385,7 +6376,7 @@
       <c r="S15" s="24">
         <v>1</v>
       </c>
-      <c r="T15" s="607"/>
+      <c r="T15" s="608"/>
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="462" t="s">
@@ -6411,8 +6402,8 @@
       <c r="L16" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="596"/>
-      <c r="N16" s="599"/>
+      <c r="M16" s="597"/>
+      <c r="N16" s="600"/>
       <c r="P16" s="313">
         <v>1</v>
       </c>
@@ -6425,7 +6416,7 @@
       <c r="S16" s="112">
         <v>1</v>
       </c>
-      <c r="T16" s="607"/>
+      <c r="T16" s="608"/>
     </row>
     <row r="17" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
@@ -6449,8 +6440,8 @@
       <c r="L17" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="597"/>
-      <c r="N17" s="600"/>
+      <c r="M17" s="598"/>
+      <c r="N17" s="601"/>
       <c r="O17" s="474" t="s">
         <v>44</v>
       </c>
@@ -6463,11 +6454,11 @@
       <c r="S17" s="24">
         <v>1</v>
       </c>
-      <c r="T17" s="607"/>
+      <c r="T17" s="608"/>
     </row>
     <row r="18" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P18" s="313"/>
-      <c r="T18" s="607"/>
+      <c r="T18" s="608"/>
     </row>
     <row r="19" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -6491,12 +6482,12 @@
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="595"/>
+      <c r="M19" s="596"/>
       <c r="N19" s="390" t="s">
         <v>503</v>
       </c>
       <c r="P19" s="313"/>
-      <c r="T19" s="607"/>
+      <c r="T19" s="608"/>
     </row>
     <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="241" t="s">
@@ -6522,7 +6513,7 @@
       <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="596"/>
+      <c r="M20" s="597"/>
       <c r="N20" s="383" t="s">
         <v>26</v>
       </c>
@@ -6533,7 +6524,7 @@
       <c r="S20" s="24">
         <v>1</v>
       </c>
-      <c r="T20" s="607"/>
+      <c r="T20" s="608"/>
     </row>
     <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="241" t="s">
@@ -6559,7 +6550,7 @@
       <c r="L21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="596"/>
+      <c r="M21" s="597"/>
       <c r="N21" s="383" t="s">
         <v>18</v>
       </c>
@@ -6570,11 +6561,11 @@
       <c r="S21" s="24">
         <v>1</v>
       </c>
-      <c r="T21" s="607"/>
-      <c r="U21" s="593" t="s">
+      <c r="T21" s="608"/>
+      <c r="U21" s="594" t="s">
         <v>223</v>
       </c>
-      <c r="V21" s="594"/>
+      <c r="V21" s="595"/>
     </row>
     <row r="22" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="270" t="s">
@@ -6598,15 +6589,13 @@
       <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="596"/>
+      <c r="M22" s="597"/>
       <c r="N22" s="372" t="s">
         <v>26</v>
       </c>
       <c r="P22" s="313"/>
-      <c r="T22" s="607"/>
-      <c r="X22" s="19" t="s">
-        <v>622</v>
-      </c>
+      <c r="T22" s="608"/>
+      <c r="X22" s="19"/>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -6630,12 +6619,12 @@
       <c r="L23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="596"/>
+      <c r="M23" s="597"/>
       <c r="N23" s="61" t="s">
         <v>504</v>
       </c>
       <c r="P23" s="313"/>
-      <c r="T23" s="607"/>
+      <c r="T23" s="608"/>
       <c r="U23" s="2" t="s">
         <v>620</v>
       </c>
@@ -6668,7 +6657,7 @@
       <c r="L24" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="596"/>
+      <c r="M24" s="597"/>
       <c r="N24" s="61" t="s">
         <v>26</v>
       </c>
@@ -6677,7 +6666,7 @@
       </c>
       <c r="P24" s="513"/>
       <c r="S24" s="80"/>
-      <c r="T24" s="607"/>
+      <c r="T24" s="608"/>
       <c r="X24" s="19"/>
     </row>
     <row r="25" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6704,7 +6693,7 @@
       <c r="L25" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="596"/>
+      <c r="M25" s="597"/>
       <c r="N25" s="61" t="s">
         <v>26</v>
       </c>
@@ -6720,10 +6709,8 @@
       <c r="S25" s="21">
         <v>1</v>
       </c>
-      <c r="T25" s="607"/>
-      <c r="V25" s="24" t="s">
-        <v>624</v>
-      </c>
+      <c r="T25" s="608"/>
+      <c r="V25" s="24"/>
     </row>
     <row r="26" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -6747,15 +6734,13 @@
       <c r="L26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="596"/>
+      <c r="M26" s="597"/>
       <c r="N26" s="61" t="s">
         <v>505</v>
       </c>
       <c r="P26" s="313"/>
-      <c r="T26" s="607"/>
-      <c r="V26" s="24" t="s">
-        <v>623</v>
-      </c>
+      <c r="T26" s="608"/>
+      <c r="V26" s="24"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="256" t="s">
@@ -6777,7 +6762,7 @@
       <c r="J27" s="387"/>
       <c r="K27" s="388"/>
       <c r="L27" s="389"/>
-      <c r="M27" s="596"/>
+      <c r="M27" s="597"/>
       <c r="N27" s="61"/>
       <c r="P27" s="313"/>
       <c r="R27" s="34" t="s">
@@ -6786,7 +6771,7 @@
       <c r="S27" s="24">
         <v>1</v>
       </c>
-      <c r="T27" s="607"/>
+      <c r="T27" s="608"/>
       <c r="W27" s="2" t="s">
         <v>580</v>
       </c>
@@ -6815,7 +6800,7 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="597"/>
+      <c r="M28" s="598"/>
       <c r="N28" s="61" t="s">
         <v>505</v>
       </c>
@@ -6831,7 +6816,7 @@
       <c r="S28" s="21">
         <v>1</v>
       </c>
-      <c r="T28" s="608"/>
+      <c r="T28" s="609"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6919,7 +6904,7 @@
       <c r="H1" s="97" t="s">
         <v>343</v>
       </c>
-      <c r="I1" s="659" t="s">
+      <c r="I1" s="614" t="s">
         <v>369</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6955,7 +6940,7 @@
       <c r="X1" s="430" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="653" t="s">
+      <c r="Y1" s="658" t="s">
         <v>529</v>
       </c>
       <c r="Z1" s="406">
@@ -6980,7 +6965,7 @@
         <v>498</v>
       </c>
       <c r="AM1" s="402"/>
-      <c r="AN1" s="635"/>
+      <c r="AN1" s="641"/>
       <c r="AO1" s="338" t="s">
         <v>469</v>
       </c>
@@ -6989,23 +6974,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="617">
+      <c r="A2" s="667">
         <f ca="1">TODAY()</f>
         <v>45286</v>
       </c>
-      <c r="B2" s="619" t="s">
+      <c r="B2" s="669" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="615" t="s">
+      <c r="C2" s="646" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="621" t="s">
+      <c r="D2" s="671" t="s">
         <v>355</v>
       </c>
-      <c r="E2" s="669" t="s">
+      <c r="E2" s="610" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="640" t="s">
+      <c r="F2" s="620" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="393" t="s">
@@ -7014,31 +6999,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="660"/>
+      <c r="I2" s="615"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="671" t="s">
+      <c r="K2" s="612" t="s">
         <v>342</v>
       </c>
-      <c r="L2" s="672"/>
-      <c r="M2" s="640" t="s">
+      <c r="L2" s="613"/>
+      <c r="M2" s="620" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="644" t="s">
+      <c r="O2" s="650" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="615" t="s">
+      <c r="Q2" s="646" t="s">
         <v>143</v>
       </c>
-      <c r="R2" s="598"/>
-      <c r="S2" s="657" t="s">
+      <c r="R2" s="599"/>
+      <c r="S2" s="635" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7048,7 +7033,7 @@
       <c r="X2" s="431" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="654"/>
+      <c r="Y2" s="659"/>
       <c r="Z2" s="407">
         <v>1</v>
       </c>
@@ -7071,15 +7056,15 @@
         <v>463</v>
       </c>
       <c r="AM2" s="428"/>
-      <c r="AN2" s="636"/>
+      <c r="AN2" s="642"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="618"/>
-      <c r="B3" s="620"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="622"/>
-      <c r="E3" s="670"/>
-      <c r="F3" s="641"/>
+      <c r="A3" s="668"/>
+      <c r="B3" s="670"/>
+      <c r="C3" s="647"/>
+      <c r="D3" s="672"/>
+      <c r="E3" s="611"/>
+      <c r="F3" s="621"/>
       <c r="G3" s="394" t="s">
         <v>28</v>
       </c>
@@ -7098,17 +7083,17 @@
       <c r="L3" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="641"/>
+      <c r="M3" s="621"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="645"/>
+      <c r="O3" s="651"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="616"/>
-      <c r="R3" s="600"/>
-      <c r="S3" s="658"/>
+      <c r="Q3" s="647"/>
+      <c r="R3" s="601"/>
+      <c r="S3" s="637"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7116,7 +7101,7 @@
       <c r="X3" s="431" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="654"/>
+      <c r="Y3" s="659"/>
       <c r="Z3" s="408">
         <v>1</v>
       </c>
@@ -7125,7 +7110,7 @@
       <c r="AC3" s="100" t="s">
         <v>480</v>
       </c>
-      <c r="AD3" s="656" t="s">
+      <c r="AD3" s="632" t="s">
         <v>455</v>
       </c>
       <c r="AE3" s="257"/>
@@ -7137,16 +7122,16 @@
       <c r="AK3" s="257"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="428"/>
-      <c r="AN3" s="636"/>
+      <c r="AN3" s="642"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="238" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="633" t="s">
+      <c r="B4" s="683" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="615" t="s">
+      <c r="C4" s="646" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="347" t="s">
@@ -7155,7 +7140,7 @@
       <c r="E4" s="378">
         <v>2</v>
       </c>
-      <c r="F4" s="641"/>
+      <c r="F4" s="621"/>
       <c r="G4" s="381" t="s">
         <v>201</v>
       </c>
@@ -7172,11 +7157,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="204"/>
-      <c r="M4" s="641"/>
+      <c r="M4" s="621"/>
       <c r="N4" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="645"/>
+      <c r="O4" s="651"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7198,12 +7183,12 @@
       <c r="X4" s="431" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="654"/>
+      <c r="Y4" s="659"/>
       <c r="Z4" s="409"/>
       <c r="AA4" s="307"/>
       <c r="AB4" s="209"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="656"/>
+      <c r="AD4" s="632"/>
       <c r="AE4" s="257"/>
       <c r="AF4" s="257"/>
       <c r="AG4" s="16"/>
@@ -7213,37 +7198,37 @@
       <c r="AK4" s="257"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="428"/>
-      <c r="AN4" s="636"/>
+      <c r="AN4" s="642"/>
       <c r="AO4" s="338" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="659" t="s">
+      <c r="A5" s="614" t="s">
         <v>418</v>
       </c>
-      <c r="B5" s="634"/>
-      <c r="C5" s="616"/>
+      <c r="B5" s="684"/>
+      <c r="C5" s="647"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="379">
         <v>1</v>
       </c>
-      <c r="F5" s="641"/>
-      <c r="G5" s="625" t="s">
+      <c r="F5" s="621"/>
+      <c r="G5" s="675" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="625"/>
-      <c r="I5" s="625"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="626"/>
-      <c r="M5" s="641"/>
+      <c r="H5" s="675"/>
+      <c r="I5" s="675"/>
+      <c r="J5" s="675"/>
+      <c r="K5" s="675"/>
+      <c r="L5" s="676"/>
+      <c r="M5" s="621"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="645"/>
+      <c r="O5" s="651"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7251,7 +7236,7 @@
       <c r="X5" s="431" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="654"/>
+      <c r="Y5" s="659"/>
       <c r="Z5" s="409">
         <v>1</v>
       </c>
@@ -7274,24 +7259,24 @@
       <c r="AK5" s="257"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="428"/>
-      <c r="AN5" s="636"/>
+      <c r="AN5" s="642"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="660"/>
-      <c r="B6" s="631" t="s">
+      <c r="A6" s="615"/>
+      <c r="B6" s="681" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="661"/>
-      <c r="D6" s="662"/>
-      <c r="F6" s="641"/>
-      <c r="G6" s="627"/>
-      <c r="H6" s="627"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="627"/>
-      <c r="L6" s="628"/>
-      <c r="M6" s="641"/>
-      <c r="O6" s="645"/>
+      <c r="C6" s="629"/>
+      <c r="D6" s="630"/>
+      <c r="F6" s="621"/>
+      <c r="G6" s="677"/>
+      <c r="H6" s="677"/>
+      <c r="I6" s="677"/>
+      <c r="J6" s="677"/>
+      <c r="K6" s="677"/>
+      <c r="L6" s="678"/>
+      <c r="M6" s="621"/>
+      <c r="O6" s="651"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7301,7 +7286,7 @@
       <c r="X6" s="431" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="654"/>
+      <c r="Y6" s="659"/>
       <c r="Z6" s="407">
         <v>1</v>
       </c>
@@ -7315,16 +7300,16 @@
       <c r="AF6" s="257"/>
       <c r="AG6" s="257"/>
       <c r="AH6" s="257"/>
-      <c r="AI6" s="650"/>
+      <c r="AI6" s="631"/>
       <c r="AJ6" s="441" t="s">
         <v>458</v>
       </c>
-      <c r="AK6" s="650" t="s">
+      <c r="AK6" s="631" t="s">
         <v>251</v>
       </c>
       <c r="AL6" s="257"/>
       <c r="AM6" s="428"/>
-      <c r="AN6" s="636"/>
+      <c r="AN6" s="642"/>
       <c r="AO6" s="338" t="s">
         <v>470</v>
       </c>
@@ -7333,7 +7318,7 @@
       <c r="A7" s="232" t="s">
         <v>572</v>
       </c>
-      <c r="B7" s="632"/>
+      <c r="B7" s="682"/>
       <c r="C7" s="202" t="s">
         <v>374</v>
       </c>
@@ -7343,7 +7328,7 @@
       <c r="E7" s="265">
         <v>3</v>
       </c>
-      <c r="F7" s="641"/>
+      <c r="F7" s="621"/>
       <c r="G7" s="395">
         <v>0</v>
       </c>
@@ -7356,14 +7341,14 @@
       <c r="J7" s="30">
         <v>0</v>
       </c>
-      <c r="K7" s="598">
+      <c r="K7" s="599">
         <v>0</v>
       </c>
       <c r="L7" s="212">
         <v>0</v>
       </c>
-      <c r="M7" s="641"/>
-      <c r="O7" s="645"/>
+      <c r="M7" s="621"/>
+      <c r="O7" s="651"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7377,7 +7362,7 @@
       <c r="X7" s="431" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="654"/>
+      <c r="Y7" s="659"/>
       <c r="Z7" s="407">
         <v>1</v>
       </c>
@@ -7387,18 +7372,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="257"/>
       <c r="AF7" s="257"/>
-      <c r="AG7" s="656" t="s">
+      <c r="AG7" s="632" t="s">
         <v>454</v>
       </c>
       <c r="AH7" s="257"/>
-      <c r="AI7" s="650"/>
+      <c r="AI7" s="631"/>
       <c r="AJ7" s="257"/>
-      <c r="AK7" s="650"/>
+      <c r="AK7" s="631"/>
       <c r="AL7" s="80" t="s">
         <v>496</v>
       </c>
       <c r="AM7" s="428"/>
-      <c r="AN7" s="636"/>
+      <c r="AN7" s="642"/>
       <c r="AP7" s="76" t="s">
         <v>471</v>
       </c>
@@ -7415,27 +7400,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="641"/>
-      <c r="G8" s="626">
-        <v>0</v>
-      </c>
-      <c r="H8" s="623" t="s">
+      <c r="F8" s="621"/>
+      <c r="G8" s="676">
+        <v>0</v>
+      </c>
+      <c r="H8" s="673" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="598">
-        <v>0</v>
-      </c>
-      <c r="J8" s="623" t="s">
+      <c r="I8" s="599">
+        <v>0</v>
+      </c>
+      <c r="J8" s="673" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="629"/>
-      <c r="L8" s="663"/>
-      <c r="M8" s="642"/>
-      <c r="N8" s="666">
+      <c r="K8" s="679"/>
+      <c r="L8" s="633"/>
+      <c r="M8" s="648"/>
+      <c r="N8" s="638">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="645"/>
+      <c r="O8" s="651"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7445,7 +7430,7 @@
       <c r="X8" s="431" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="654"/>
+      <c r="Y8" s="659"/>
       <c r="Z8" s="409"/>
       <c r="AA8" s="307"/>
       <c r="AB8" s="209"/>
@@ -7453,14 +7438,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="257"/>
       <c r="AF8" s="257"/>
-      <c r="AG8" s="656"/>
+      <c r="AG8" s="632"/>
       <c r="AH8" s="257"/>
-      <c r="AI8" s="650"/>
+      <c r="AI8" s="631"/>
       <c r="AJ8" s="257"/>
       <c r="AK8" s="257"/>
       <c r="AL8" s="257"/>
       <c r="AM8" s="428"/>
-      <c r="AN8" s="636"/>
+      <c r="AN8" s="642"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="232" t="s">
@@ -7475,17 +7460,17 @@
       <c r="D9" s="348" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="641"/>
-      <c r="G9" s="628"/>
-      <c r="H9" s="624"/>
-      <c r="I9" s="600"/>
-      <c r="J9" s="624"/>
-      <c r="K9" s="630"/>
-      <c r="L9" s="664"/>
-      <c r="M9" s="643"/>
-      <c r="N9" s="667"/>
-      <c r="O9" s="646"/>
-      <c r="S9" s="657" t="s">
+      <c r="F9" s="621"/>
+      <c r="G9" s="678"/>
+      <c r="H9" s="674"/>
+      <c r="I9" s="601"/>
+      <c r="J9" s="674"/>
+      <c r="K9" s="680"/>
+      <c r="L9" s="634"/>
+      <c r="M9" s="649"/>
+      <c r="N9" s="639"/>
+      <c r="O9" s="652"/>
+      <c r="S9" s="635" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7497,7 +7482,7 @@
       <c r="X9" s="431" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="654"/>
+      <c r="Y9" s="659"/>
       <c r="Z9" s="410"/>
       <c r="AA9" s="307"/>
       <c r="AB9" s="209"/>
@@ -7507,16 +7492,16 @@
       </c>
       <c r="AE9" s="257"/>
       <c r="AF9" s="257"/>
-      <c r="AG9" s="656"/>
+      <c r="AG9" s="632"/>
       <c r="AH9" s="257"/>
-      <c r="AI9" s="650"/>
+      <c r="AI9" s="631"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="650" t="s">
+      <c r="AK9" s="631" t="s">
         <v>251</v>
       </c>
       <c r="AL9" s="257"/>
       <c r="AM9" s="428"/>
-      <c r="AN9" s="636"/>
+      <c r="AN9" s="642"/>
       <c r="AP9" s="2" t="s">
         <v>508</v>
       </c>
@@ -7533,20 +7518,20 @@
         <f>Boat!W8</f>
         <v>39</v>
       </c>
-      <c r="F10" s="641"/>
+      <c r="F10" s="621"/>
       <c r="N10" s="418" t="s">
         <v>396</v>
       </c>
-      <c r="O10" s="678" t="s">
+      <c r="O10" s="623" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="647" t="s">
+      <c r="P10" s="653" t="s">
         <v>400</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="665"/>
+      <c r="S10" s="636"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7558,7 +7543,7 @@
       <c r="X10" s="431" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="654"/>
+      <c r="Y10" s="659"/>
       <c r="Z10" s="409">
         <v>0</v>
       </c>
@@ -7576,16 +7561,16 @@
       <c r="AF10" s="238" t="s">
         <v>311</v>
       </c>
-      <c r="AG10" s="656"/>
+      <c r="AG10" s="632"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="650"/>
+      <c r="AI10" s="631"/>
       <c r="AJ10" s="257"/>
-      <c r="AK10" s="650"/>
+      <c r="AK10" s="631"/>
       <c r="AL10" s="257"/>
       <c r="AM10" s="442" t="s">
         <v>318</v>
       </c>
-      <c r="AN10" s="636"/>
+      <c r="AN10" s="642"/>
       <c r="AO10" s="204" t="s">
         <v>94</v>
       </c>
@@ -7594,7 +7579,7 @@
       <c r="A11" s="223" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="598" t="s">
+      <c r="B11" s="599" t="s">
         <v>283</v>
       </c>
       <c r="C11" s="457" t="s">
@@ -7603,18 +7588,18 @@
       <c r="D11" s="170" t="s">
         <v>355</v>
       </c>
-      <c r="F11" s="641"/>
+      <c r="F11" s="621"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="679"/>
-      <c r="P11" s="648"/>
+      <c r="O11" s="624"/>
+      <c r="P11" s="654"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="S11" s="665"/>
+      <c r="S11" s="636"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7624,7 +7609,7 @@
       <c r="X11" s="431" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="654"/>
+      <c r="Y11" s="659"/>
       <c r="Z11" s="409"/>
       <c r="AA11" s="307">
         <v>1</v>
@@ -7638,14 +7623,14 @@
       <c r="AF11" s="257" t="s">
         <v>476</v>
       </c>
-      <c r="AG11" s="656"/>
+      <c r="AG11" s="632"/>
       <c r="AH11" s="257"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="257"/>
       <c r="AK11" s="257"/>
       <c r="AL11" s="257"/>
       <c r="AM11" s="428"/>
-      <c r="AN11" s="636"/>
+      <c r="AN11" s="642"/>
       <c r="AP11" s="76" t="s">
         <v>484</v>
       </c>
@@ -7654,7 +7639,7 @@
       <c r="A12" s="227" t="s">
         <v>383</v>
       </c>
-      <c r="B12" s="600"/>
+      <c r="B12" s="601"/>
       <c r="C12" s="458" t="s">
         <v>384</v>
       </c>
@@ -7664,25 +7649,25 @@
       <c r="E12" s="224">
         <v>3</v>
       </c>
-      <c r="F12" s="641"/>
+      <c r="F12" s="621"/>
       <c r="G12" s="337" t="s">
         <v>400</v>
       </c>
-      <c r="H12" s="603" t="s">
+      <c r="H12" s="604" t="s">
         <v>429</v>
       </c>
-      <c r="I12" s="605"/>
-      <c r="J12" s="605"/>
-      <c r="K12" s="683"/>
+      <c r="I12" s="606"/>
+      <c r="J12" s="606"/>
+      <c r="K12" s="628"/>
       <c r="L12" s="203"/>
       <c r="M12" s="203"/>
       <c r="N12" s="203"/>
-      <c r="O12" s="679"/>
-      <c r="P12" s="648"/>
+      <c r="O12" s="624"/>
+      <c r="P12" s="654"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="658"/>
+      <c r="S12" s="637"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7692,7 +7677,7 @@
       <c r="X12" s="431" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="654"/>
+      <c r="Y12" s="659"/>
       <c r="Z12" s="407">
         <v>1</v>
       </c>
@@ -7703,16 +7688,16 @@
       <c r="AC12" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD12" s="668" t="s">
+      <c r="AD12" s="640" t="s">
         <v>240</v>
       </c>
       <c r="AE12" s="441" t="s">
         <v>239</v>
       </c>
-      <c r="AF12" s="656" t="s">
+      <c r="AF12" s="632" t="s">
         <v>228</v>
       </c>
-      <c r="AG12" s="656"/>
+      <c r="AG12" s="632"/>
       <c r="AH12" s="238" t="s">
         <v>259</v>
       </c>
@@ -7722,10 +7707,10 @@
       <c r="AJ12" s="257"/>
       <c r="AK12" s="257"/>
       <c r="AL12" s="257"/>
-      <c r="AM12" s="651" t="s">
+      <c r="AM12" s="656" t="s">
         <v>249</v>
       </c>
-      <c r="AN12" s="636"/>
+      <c r="AN12" s="642"/>
       <c r="AO12" s="338" t="s">
         <v>96</v>
       </c>
@@ -7737,17 +7722,17 @@
       <c r="E13" s="448">
         <v>-3</v>
       </c>
-      <c r="F13" s="641"/>
-      <c r="G13" s="605" t="s">
+      <c r="F13" s="621"/>
+      <c r="G13" s="606" t="s">
         <v>430</v>
       </c>
-      <c r="H13" s="605"/>
-      <c r="I13" s="605"/>
-      <c r="J13" s="683"/>
+      <c r="H13" s="606"/>
+      <c r="I13" s="606"/>
+      <c r="J13" s="628"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="679"/>
-      <c r="P13" s="649"/>
+      <c r="O13" s="624"/>
+      <c r="P13" s="655"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7757,7 +7742,7 @@
       <c r="X13" s="431" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="654"/>
+      <c r="Y13" s="659"/>
       <c r="Z13" s="407">
         <v>1</v>
       </c>
@@ -7768,8 +7753,8 @@
         <v>500</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="668"/>
-      <c r="AF13" s="656"/>
+      <c r="AD13" s="640"/>
+      <c r="AF13" s="632"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="238" t="s">
         <v>308</v>
@@ -7780,8 +7765,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="257"/>
       <c r="AL13" s="257"/>
-      <c r="AM13" s="651"/>
-      <c r="AN13" s="636"/>
+      <c r="AM13" s="656"/>
+      <c r="AN13" s="642"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="450"/>
@@ -7789,18 +7774,18 @@
       <c r="C14" s="459"/>
       <c r="D14" s="452"/>
       <c r="E14" s="453"/>
-      <c r="F14" s="641"/>
-      <c r="G14" s="605" t="s">
+      <c r="F14" s="621"/>
+      <c r="G14" s="606" t="s">
         <v>429</v>
       </c>
-      <c r="H14" s="605"/>
-      <c r="I14" s="605"/>
-      <c r="J14" s="683"/>
+      <c r="H14" s="606"/>
+      <c r="I14" s="606"/>
+      <c r="J14" s="628"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="679"/>
+      <c r="O14" s="624"/>
       <c r="Q14" s="61" t="s">
         <v>533</v>
       </c>
@@ -7814,34 +7799,34 @@
       <c r="X14" s="431" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="654"/>
+      <c r="Y14" s="659"/>
       <c r="Z14" s="407">
         <v>1</v>
       </c>
       <c r="AA14" s="307"/>
       <c r="AB14" s="209"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="668"/>
+      <c r="AD14" s="640"/>
       <c r="AE14" s="257"/>
-      <c r="AF14" s="656"/>
+      <c r="AF14" s="632"/>
       <c r="AG14" s="257"/>
       <c r="AH14" s="257"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="257"/>
       <c r="AK14" s="257"/>
       <c r="AL14" s="257"/>
-      <c r="AM14" s="651"/>
-      <c r="AN14" s="636"/>
+      <c r="AM14" s="656"/>
+      <c r="AN14" s="642"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="449" t="s">
         <v>506</v>
       </c>
-      <c r="C15" s="598" t="s">
+      <c r="C15" s="599" t="s">
         <v>373</v>
       </c>
-      <c r="F15" s="641"/>
-      <c r="O15" s="679"/>
+      <c r="F15" s="621"/>
+      <c r="O15" s="624"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7854,7 +7839,7 @@
       <c r="X15" s="431" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="654"/>
+      <c r="Y15" s="659"/>
       <c r="Z15" s="409">
         <v>1</v>
       </c>
@@ -7863,8 +7848,8 @@
       <c r="AC15" s="76" t="s">
         <v>479</v>
       </c>
-      <c r="AD15" s="668"/>
-      <c r="AF15" s="656"/>
+      <c r="AD15" s="640"/>
+      <c r="AF15" s="632"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="238" t="s">
         <v>448</v>
@@ -7877,8 +7862,8 @@
       </c>
       <c r="AK15" s="257"/>
       <c r="AL15" s="257"/>
-      <c r="AM15" s="651"/>
-      <c r="AN15" s="636"/>
+      <c r="AM15" s="656"/>
+      <c r="AN15" s="642"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7893,20 +7878,20 @@
       <c r="B16" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="C16" s="600"/>
+      <c r="C16" s="601"/>
       <c r="D16" s="61" t="s">
         <v>493</v>
       </c>
       <c r="E16" s="224">
         <v>1</v>
       </c>
-      <c r="F16" s="641"/>
+      <c r="F16" s="621"/>
       <c r="G16" s="337" t="s">
         <v>488</v>
       </c>
       <c r="I16" s="469"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="679"/>
+      <c r="O16" s="624"/>
       <c r="R16" s="435" t="s">
         <v>184</v>
       </c>
@@ -7917,7 +7902,7 @@
       <c r="X16" s="431" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="654"/>
+      <c r="Y16" s="659"/>
       <c r="Z16" s="407">
         <v>1</v>
       </c>
@@ -7938,18 +7923,18 @@
       <c r="AM16" s="428" t="s">
         <v>317</v>
       </c>
-      <c r="AN16" s="636"/>
+      <c r="AN16" s="642"/>
       <c r="AP16" s="76" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="641"/>
+      <c r="F17" s="621"/>
       <c r="I17" s="470"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="679"/>
+      <c r="O17" s="624"/>
       <c r="Q17" s="21" t="s">
         <v>531</v>
       </c>
@@ -7969,7 +7954,7 @@
       <c r="X17" s="431" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="654"/>
+      <c r="Y17" s="659"/>
       <c r="Z17" s="409"/>
       <c r="AA17" s="307"/>
       <c r="AB17" s="209"/>
@@ -7994,7 +7979,7 @@
       <c r="AK17" s="257"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="428"/>
-      <c r="AN17" s="636"/>
+      <c r="AN17" s="642"/>
       <c r="AO17" s="204" t="s">
         <v>497</v>
       </c>
@@ -8018,21 +8003,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="641"/>
+      <c r="F18" s="621"/>
       <c r="G18" s="337" t="s">
         <v>528</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="679"/>
+      <c r="O18" s="624"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="673" t="s">
+      <c r="R18" s="616" t="s">
         <v>536</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="612" t="s">
+      <c r="U18" s="664" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8042,7 +8027,7 @@
       <c r="X18" s="431" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="654"/>
+      <c r="Y18" s="659"/>
       <c r="Z18" s="409">
         <v>1</v>
       </c>
@@ -8053,38 +8038,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="257"/>
-      <c r="AF18" s="650" t="s">
+      <c r="AF18" s="631" t="s">
         <v>475</v>
       </c>
       <c r="AG18" s="257"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="652" t="s">
+      <c r="AJ18" s="657" t="s">
         <v>315</v>
       </c>
       <c r="AK18" s="257"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="428"/>
-      <c r="AN18" s="636"/>
+      <c r="AN18" s="642"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="641"/>
+      <c r="F19" s="621"/>
       <c r="I19" s="219"/>
-      <c r="O19" s="679"/>
-      <c r="R19" s="674"/>
+      <c r="O19" s="624"/>
+      <c r="R19" s="617"/>
       <c r="S19" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="U19" s="613"/>
+      <c r="U19" s="665"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="431" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="654"/>
+      <c r="Y19" s="659"/>
       <c r="Z19" s="407">
         <v>1</v>
       </c>
@@ -8093,17 +8078,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="257"/>
-      <c r="AF19" s="650"/>
+      <c r="AF19" s="631"/>
       <c r="AG19" s="257"/>
       <c r="AH19" s="257"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="652"/>
+      <c r="AJ19" s="657"/>
       <c r="AK19" s="460" t="s">
         <v>251</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="428"/>
-      <c r="AN19" s="636"/>
+      <c r="AN19" s="642"/>
       <c r="AP19" s="76" t="s">
         <v>468</v>
       </c>
@@ -8124,24 +8109,24 @@
       <c r="E20" s="437">
         <v>-1</v>
       </c>
-      <c r="F20" s="641"/>
+      <c r="F20" s="621"/>
       <c r="G20" s="337" t="s">
         <v>491</v>
       </c>
       <c r="I20" s="219"/>
-      <c r="O20" s="679"/>
-      <c r="Q20" s="681" t="s">
+      <c r="O20" s="624"/>
+      <c r="Q20" s="626" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="614"/>
+      <c r="U20" s="666"/>
       <c r="W20" s="405"/>
       <c r="X20" s="432" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="654"/>
+      <c r="Y20" s="659"/>
       <c r="Z20" s="411">
         <v>1</v>
       </c>
@@ -8166,7 +8151,7 @@
       <c r="AM20" s="381" t="s">
         <v>249</v>
       </c>
-      <c r="AN20" s="636"/>
+      <c r="AN20" s="642"/>
       <c r="AO20" s="338" t="s">
         <v>460</v>
       </c>
@@ -8187,20 +8172,20 @@
       <c r="E21" s="265">
         <v>0</v>
       </c>
-      <c r="F21" s="641"/>
+      <c r="F21" s="621"/>
       <c r="I21" s="219"/>
-      <c r="O21" s="679"/>
-      <c r="Q21" s="682"/>
+      <c r="O21" s="624"/>
+      <c r="Q21" s="627"/>
       <c r="T21" s="422"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="609"/>
+      <c r="V21" s="661"/>
       <c r="W21" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="429" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="654"/>
+      <c r="Y21" s="659"/>
       <c r="Z21" s="445">
         <v>3</v>
       </c>
@@ -8231,15 +8216,15 @@
       <c r="AM21" s="428" t="s">
         <v>545</v>
       </c>
-      <c r="AN21" s="636"/>
+      <c r="AN21" s="642"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="641"/>
+      <c r="F22" s="621"/>
       <c r="G22" s="337" t="s">
         <v>489</v>
       </c>
       <c r="I22" s="219"/>
-      <c r="O22" s="679"/>
+      <c r="O22" s="624"/>
       <c r="R22" s="434" t="s">
         <v>44</v>
       </c>
@@ -8247,14 +8232,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="610"/>
+      <c r="V22" s="662"/>
       <c r="W22" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="429" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="654"/>
+      <c r="Y22" s="659"/>
       <c r="Z22" s="415"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="415"/>
@@ -8265,7 +8250,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="650" t="s">
+      <c r="AJ22" s="631" t="s">
         <v>472</v>
       </c>
       <c r="AK22" s="257"/>
@@ -8273,7 +8258,7 @@
         <v>478</v>
       </c>
       <c r="AM22" s="300"/>
-      <c r="AN22" s="636"/>
+      <c r="AN22" s="642"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="231" t="s">
@@ -8291,22 +8276,22 @@
       <c r="E23" s="225">
         <v>1</v>
       </c>
-      <c r="F23" s="641"/>
+      <c r="F23" s="621"/>
       <c r="I23" s="219"/>
-      <c r="O23" s="679"/>
-      <c r="Q23" s="681" t="s">
+      <c r="O23" s="624"/>
+      <c r="Q23" s="626" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="610"/>
+      <c r="V23" s="662"/>
       <c r="W23" s="148"/>
       <c r="X23" s="429" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="654"/>
+      <c r="Y23" s="659"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="415"/>
@@ -8317,13 +8302,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="650"/>
+      <c r="AJ23" s="631"/>
       <c r="AK23" s="257"/>
       <c r="AL23" s="80" t="s">
         <v>507</v>
       </c>
       <c r="AM23" s="300"/>
-      <c r="AN23" s="636"/>
+      <c r="AN23" s="642"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="440" t="s">
@@ -8341,23 +8326,23 @@
       <c r="E24" s="436">
         <v>1</v>
       </c>
-      <c r="F24" s="641"/>
+      <c r="F24" s="621"/>
       <c r="G24" s="61" t="s">
         <v>490</v>
       </c>
       <c r="I24" s="219"/>
-      <c r="O24" s="679"/>
-      <c r="Q24" s="682"/>
+      <c r="O24" s="624"/>
+      <c r="Q24" s="627"/>
       <c r="T24" s="17"/>
       <c r="U24" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="610"/>
+      <c r="V24" s="662"/>
       <c r="W24" s="148"/>
       <c r="X24" s="429" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="654"/>
+      <c r="Y24" s="659"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="415"/>
@@ -8376,12 +8361,12 @@
         <v>463</v>
       </c>
       <c r="AM24" s="300"/>
-      <c r="AN24" s="636"/>
+      <c r="AN24" s="642"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="641"/>
+      <c r="F25" s="621"/>
       <c r="I25" s="219"/>
-      <c r="O25" s="679"/>
+      <c r="O25" s="624"/>
       <c r="P25" s="204" t="s">
         <v>280</v>
       </c>
@@ -8394,12 +8379,12 @@
       <c r="U25" s="400" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="611"/>
+      <c r="V25" s="663"/>
       <c r="W25" s="148"/>
       <c r="X25" s="429" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="654"/>
+      <c r="Y25" s="659"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="415"/>
@@ -8416,7 +8401,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="300"/>
-      <c r="AN25" s="636"/>
+      <c r="AN25" s="642"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="231" t="s">
@@ -8434,17 +8419,17 @@
       <c r="E26" s="380">
         <v>1</v>
       </c>
-      <c r="F26" s="641"/>
+      <c r="F26" s="621"/>
       <c r="G26" s="337" t="s">
         <v>487</v>
       </c>
       <c r="I26" s="219"/>
-      <c r="O26" s="679"/>
-      <c r="P26" s="638" t="s">
+      <c r="O26" s="624"/>
+      <c r="P26" s="644" t="s">
         <v>526</v>
       </c>
-      <c r="Q26" s="639"/>
-      <c r="R26" s="675" t="s">
+      <c r="Q26" s="645"/>
+      <c r="R26" s="618" t="s">
         <v>535</v>
       </c>
       <c r="T26" s="178"/>
@@ -8456,7 +8441,7 @@
       <c r="X26" s="429" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="654"/>
+      <c r="Y26" s="659"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="415"/>
@@ -8483,7 +8468,7 @@
       <c r="AM26" s="442" t="s">
         <v>456</v>
       </c>
-      <c r="AN26" s="636"/>
+      <c r="AN26" s="642"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8495,13 +8480,13 @@
       <c r="E27" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="677"/>
+      <c r="F27" s="622"/>
       <c r="G27" s="61" t="s">
         <v>544</v>
       </c>
       <c r="I27" s="220"/>
-      <c r="O27" s="680"/>
-      <c r="R27" s="676"/>
+      <c r="O27" s="625"/>
+      <c r="R27" s="619"/>
       <c r="S27" s="421" t="s">
         <v>54</v>
       </c>
@@ -8514,7 +8499,7 @@
       <c r="X27" s="429" t="s">
         <v>530</v>
       </c>
-      <c r="Y27" s="655"/>
+      <c r="Y27" s="660"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="416"/>
@@ -8531,32 +8516,26 @@
       <c r="AM27" s="381" t="s">
         <v>319</v>
       </c>
-      <c r="AN27" s="637"/>
+      <c r="AN27" s="643"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -8573,22 +8552,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8622,15 +8607,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="603" t="s">
+      <c r="B1" s="604" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="683"/>
+      <c r="C1" s="628"/>
       <c r="D1" s="204"/>
-      <c r="J1" s="603" t="s">
+      <c r="J1" s="604" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="683"/>
+      <c r="K1" s="628"/>
       <c r="L1" s="195" t="s">
         <v>330</v>
       </c>
@@ -8668,13 +8653,13 @@
         <v>34</v>
       </c>
       <c r="L2" s="196"/>
-      <c r="M2" s="684"/>
+      <c r="M2" s="685"/>
       <c r="N2" s="153">
         <v>2</v>
       </c>
       <c r="O2" s="154"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="687" t="s">
+      <c r="Q2" s="688" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="19">
@@ -8697,13 +8682,13 @@
       <c r="K3" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="M3" s="685"/>
+      <c r="M3" s="686"/>
       <c r="N3" s="17">
         <v>1</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="688"/>
+      <c r="Q3" s="689"/>
       <c r="R3" s="219"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8722,13 +8707,13 @@
       <c r="K4" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="M4" s="685"/>
+      <c r="M4" s="686"/>
       <c r="N4" s="17"/>
       <c r="O4" s="15">
         <v>1</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="688"/>
+      <c r="Q4" s="689"/>
       <c r="R4" s="219"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8748,13 +8733,13 @@
         <v>13</v>
       </c>
       <c r="L5" s="196"/>
-      <c r="M5" s="685"/>
+      <c r="M5" s="686"/>
       <c r="N5" s="17">
         <v>1</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="688"/>
+      <c r="Q5" s="689"/>
       <c r="R5" s="19">
         <v>-1</v>
       </c>
@@ -8775,13 +8760,13 @@
       <c r="K6" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="M6" s="685"/>
+      <c r="M6" s="686"/>
       <c r="N6" s="17">
         <v>1</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="688"/>
+      <c r="Q6" s="689"/>
       <c r="R6" s="219"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8801,13 +8786,13 @@
         <v>327</v>
       </c>
       <c r="L7" s="198"/>
-      <c r="M7" s="685"/>
+      <c r="M7" s="686"/>
       <c r="N7" s="17">
         <v>1</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="688"/>
+      <c r="Q7" s="689"/>
       <c r="R7" s="19">
         <v>-1</v>
       </c>
@@ -8828,13 +8813,13 @@
       <c r="K8" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="M8" s="685"/>
+      <c r="M8" s="686"/>
       <c r="N8" s="17">
         <v>1</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="688"/>
+      <c r="Q8" s="689"/>
       <c r="R8" s="219"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8854,13 +8839,13 @@
         <v>329</v>
       </c>
       <c r="L9" s="181"/>
-      <c r="M9" s="686"/>
+      <c r="M9" s="687"/>
       <c r="N9" s="161"/>
       <c r="O9" s="18"/>
       <c r="P9" s="13">
         <v>1</v>
       </c>
-      <c r="Q9" s="689"/>
+      <c r="Q9" s="690"/>
       <c r="R9" s="220"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -8965,7 +8950,7 @@
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9033,7 +9018,7 @@
       <c r="P1" s="398" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" s="714" t="s">
+      <c r="Q1" s="702" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9057,7 +9042,7 @@
       <c r="AA1" s="517" t="s">
         <v>437</v>
       </c>
-      <c r="AB1" s="708" t="s">
+      <c r="AB1" s="696" t="s">
         <v>594</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9079,32 +9064,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="693">
+      <c r="A2" s="707">
         <f ca="1">TODAY()</f>
         <v>45286</v>
       </c>
-      <c r="B2" s="695" t="s">
+      <c r="B2" s="709" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="615" t="s">
+      <c r="C2" s="646" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="697" t="s">
+      <c r="D2" s="711" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="699" t="s">
+      <c r="E2" s="713" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="191" t="s">
         <v>218</v>
       </c>
-      <c r="G2" s="659" t="s">
+      <c r="G2" s="614" t="s">
         <v>372</v>
       </c>
       <c r="H2" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I2" s="705" t="s">
+      <c r="I2" s="693" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="396" t="s">
@@ -9128,14 +9113,14 @@
       <c r="P2" s="399">
         <v>40</v>
       </c>
-      <c r="Q2" s="715"/>
+      <c r="Q2" s="703"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" s="21">
         <f>S7+S20</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2" s="172">
         <f>SUM(T4:T16)</f>
@@ -9153,31 +9138,27 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="709"/>
+      <c r="AB2" s="697"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="AI2" s="469">
-        <v>1</v>
-      </c>
+      <c r="AI2" s="469"/>
       <c r="AJ2" s="553"/>
       <c r="AK2" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="AL2" s="469">
-        <v>1</v>
-      </c>
+      <c r="AL2" s="469"/>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="694"/>
-      <c r="B3" s="696"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="698"/>
-      <c r="E3" s="700"/>
-      <c r="G3" s="660"/>
+      <c r="A3" s="708"/>
+      <c r="B3" s="710"/>
+      <c r="C3" s="647"/>
+      <c r="D3" s="712"/>
+      <c r="E3" s="714"/>
+      <c r="G3" s="615"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="706"/>
+      <c r="I3" s="694"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9186,13 +9167,13 @@
       </c>
       <c r="Q3" s="471">
         <f>SUM(X23:X31)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="470"/>
       <c r="W3" s="6"/>
       <c r="X3" s="470"/>
-      <c r="AB3" s="709"/>
+      <c r="AB3" s="697"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>589</v>
@@ -9205,26 +9186,22 @@
       <c r="AH3" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="AI3" s="470">
-        <v>1</v>
-      </c>
+      <c r="AI3" s="470"/>
       <c r="AJ3" s="553"/>
       <c r="AK3" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AL3" s="24">
-        <v>1</v>
-      </c>
+      <c r="AL3" s="24"/>
     </row>
     <row r="4" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="236" t="s">
         <v>380</v>
       </c>
       <c r="B4" s="243"/>
-      <c r="C4" s="701" t="s">
+      <c r="C4" s="715" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="706"/>
+      <c r="I4" s="694"/>
       <c r="R4" s="471" t="s">
         <v>589</v>
       </c>
@@ -9236,7 +9213,7 @@
       <c r="V4" s="470"/>
       <c r="W4" s="6"/>
       <c r="X4" s="470"/>
-      <c r="AB4" s="709"/>
+      <c r="AB4" s="697"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9249,16 +9226,12 @@
       <c r="AH4" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AI4" s="470">
-        <v>1</v>
-      </c>
+      <c r="AI4" s="470"/>
       <c r="AJ4" s="553"/>
       <c r="AK4" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="AL4" s="24">
-        <v>1</v>
-      </c>
+      <c r="AL4" s="24"/>
     </row>
     <row r="5" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="221" t="s">
@@ -9267,7 +9240,7 @@
       <c r="B5" s="100" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="702"/>
+      <c r="C5" s="716"/>
       <c r="D5" s="222" t="s">
         <v>102</v>
       </c>
@@ -9277,13 +9250,13 @@
       <c r="F5" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="G5" s="598" t="s">
+      <c r="G5" s="599" t="s">
         <v>271</v>
       </c>
       <c r="H5" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="706"/>
+      <c r="I5" s="694"/>
       <c r="J5" s="397" t="s">
         <v>268</v>
       </c>
@@ -9310,7 +9283,7 @@
       <c r="V5" s="468"/>
       <c r="W5" s="6"/>
       <c r="X5" s="468"/>
-      <c r="AB5" s="709"/>
+      <c r="AB5" s="697"/>
       <c r="AC5" s="2" t="s">
         <v>592</v>
       </c>
@@ -9320,51 +9293,47 @@
       <c r="AH5" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="AI5" s="468">
-        <v>1</v>
-      </c>
+      <c r="AI5" s="468"/>
       <c r="AJ5" s="553"/>
       <c r="AK5" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="AL5" s="468">
-        <v>1</v>
-      </c>
+      <c r="AL5" s="468"/>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="690" t="s">
+      <c r="A6" s="704" t="s">
         <v>285</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="661"/>
-      <c r="D6" s="662"/>
+      <c r="C6" s="629"/>
+      <c r="D6" s="630"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="599"/>
-      <c r="I6" s="706"/>
+      <c r="G6" s="600"/>
+      <c r="I6" s="694"/>
       <c r="P6" s="61" t="s">
         <v>592</v>
       </c>
       <c r="R6" s="64">
         <f>R7-SUM(X2:X10)+R11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S6" s="64">
         <f>S7+S11-SUM(V2:V10)</f>
         <v>3</v>
       </c>
-      <c r="AB6" s="709"/>
+      <c r="AB6" s="697"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF6" s="64">
         <f>AF7-SUM(AI2:AI10)+AF11</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH6" s="6"/>
       <c r="AI6" s="525"/>
@@ -9372,7 +9341,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="691"/>
+      <c r="A7" s="705"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9382,8 +9351,8 @@
       <c r="D7" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="G7" s="599"/>
-      <c r="I7" s="706"/>
+      <c r="G7" s="600"/>
+      <c r="I7" s="694"/>
       <c r="M7" s="16" t="s">
         <v>347</v>
       </c>
@@ -9401,7 +9370,7 @@
       </c>
       <c r="R7" s="24">
         <f>3-R11</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S7" s="24">
         <f>3-S11</f>
@@ -9412,10 +9381,8 @@
       <c r="W7" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="X7" s="469">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="709"/>
+      <c r="X7" s="469"/>
+      <c r="AB7" s="697"/>
       <c r="AC7" s="99" t="s">
         <v>593</v>
       </c>
@@ -9424,28 +9391,24 @@
       </c>
       <c r="AE7" s="24">
         <f>8-AE11</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="295">
         <f>8-AF11</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AI7" s="469">
-        <v>2</v>
-      </c>
+      <c r="AI7" s="469"/>
       <c r="AJ7" s="553"/>
       <c r="AK7" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="AL7" s="24">
-        <v>2</v>
-      </c>
+      <c r="AL7" s="24"/>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="692"/>
+      <c r="A8" s="706"/>
       <c r="B8" s="212" t="s">
         <v>28</v>
       </c>
@@ -9453,32 +9416,26 @@
       <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="599"/>
-      <c r="I8" s="706"/>
+      <c r="G8" s="600"/>
+      <c r="I8" s="694"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6"/>
       <c r="V8" s="24"/>
       <c r="W8" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="X8" s="470">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="709"/>
+      <c r="X8" s="470"/>
+      <c r="AB8" s="697"/>
       <c r="AC8" s="515"/>
       <c r="AH8" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="AI8" s="470">
-        <v>1</v>
-      </c>
+      <c r="AI8" s="470"/>
       <c r="AJ8" s="553"/>
       <c r="AK8" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="AL8" s="469">
-        <v>1</v>
-      </c>
+      <c r="AL8" s="469"/>
     </row>
     <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="231" t="s">
@@ -9493,9 +9450,9 @@
       <c r="D9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="599"/>
+      <c r="G9" s="600"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="706"/>
+      <c r="I9" s="694"/>
       <c r="M9" s="19" t="s">
         <v>525</v>
       </c>
@@ -9505,10 +9462,8 @@
       <c r="W9" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="X9" s="470">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="709"/>
+      <c r="X9" s="470"/>
+      <c r="AB9" s="697"/>
       <c r="AC9" s="515"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9531,8 +9486,8 @@
         <f>Boat!W8</f>
         <v>39</v>
       </c>
-      <c r="G10" s="599"/>
-      <c r="I10" s="706"/>
+      <c r="G10" s="600"/>
+      <c r="I10" s="694"/>
       <c r="J10" s="24" t="s">
         <v>372</v>
       </c>
@@ -9547,29 +9502,25 @@
       <c r="V10" s="470"/>
       <c r="W10" s="6"/>
       <c r="X10" s="470"/>
-      <c r="AB10" s="709"/>
+      <c r="AB10" s="697"/>
       <c r="AC10" s="515"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
       <c r="AH10" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="AI10" s="470">
-        <v>1</v>
-      </c>
+      <c r="AI10" s="470"/>
       <c r="AJ10" s="554"/>
       <c r="AK10" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="AL10" s="468">
-        <v>1</v>
-      </c>
+      <c r="AL10" s="468"/>
     </row>
     <row r="11" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="598" t="s">
+      <c r="B11" s="599" t="s">
         <v>382</v>
       </c>
       <c r="C11" s="171" t="s">
@@ -9578,8 +9529,8 @@
       <c r="D11" s="217" t="s">
         <v>265</v>
       </c>
-      <c r="G11" s="599"/>
-      <c r="I11" s="706"/>
+      <c r="G11" s="600"/>
+      <c r="I11" s="694"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9600,18 +9551,18 @@
         <v>44</v>
       </c>
       <c r="R11" s="24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11" s="24">
         <v>3</v>
       </c>
-      <c r="U11" s="711" t="s">
+      <c r="U11" s="699" t="s">
         <v>558</v>
       </c>
-      <c r="V11" s="712"/>
-      <c r="W11" s="712"/>
-      <c r="X11" s="713"/>
-      <c r="AB11" s="710"/>
+      <c r="V11" s="700"/>
+      <c r="W11" s="700"/>
+      <c r="X11" s="701"/>
+      <c r="AB11" s="698"/>
       <c r="AC11" s="99" t="s">
         <v>595</v>
       </c>
@@ -9619,30 +9570,30 @@
         <v>44</v>
       </c>
       <c r="AE11" s="24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF11" s="24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG11" s="414"/>
-      <c r="AH11" s="711" t="s">
+      <c r="AH11" s="699" t="s">
         <v>603</v>
       </c>
-      <c r="AI11" s="712"/>
-      <c r="AJ11" s="712"/>
-      <c r="AK11" s="712"/>
-      <c r="AL11" s="713"/>
+      <c r="AI11" s="700"/>
+      <c r="AJ11" s="700"/>
+      <c r="AK11" s="700"/>
+      <c r="AL11" s="701"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="227" t="s">
         <v>383</v>
       </c>
-      <c r="B12" s="600"/>
+      <c r="B12" s="601"/>
       <c r="E12" s="229">
         <v>3</v>
       </c>
-      <c r="G12" s="599"/>
-      <c r="I12" s="706"/>
+      <c r="G12" s="600"/>
+      <c r="I12" s="694"/>
       <c r="J12" s="24" t="s">
         <v>516</v>
       </c>
@@ -9670,12 +9621,12 @@
       <c r="B13" s="216" t="s">
         <v>323</v>
       </c>
-      <c r="C13" s="598" t="s">
+      <c r="C13" s="599" t="s">
         <v>194</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="G13" s="599"/>
-      <c r="I13" s="706"/>
+      <c r="G13" s="600"/>
+      <c r="I13" s="694"/>
       <c r="J13" s="108" t="s">
         <v>548</v>
       </c>
@@ -9705,7 +9656,7 @@
       <c r="B14" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="600"/>
+      <c r="C14" s="601"/>
       <c r="D14" s="204" t="s">
         <v>153</v>
       </c>
@@ -9715,11 +9666,11 @@
       <c r="F14" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="G14" s="600"/>
+      <c r="G14" s="601"/>
       <c r="H14" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="706"/>
+      <c r="I14" s="694"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9730,7 +9681,7 @@
       <c r="X14"/>
       <c r="Z14" s="68">
         <f>SUM(X23:X31)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9746,7 +9697,7 @@
       <c r="H15" s="271">
         <v>0</v>
       </c>
-      <c r="I15" s="706"/>
+      <c r="I15" s="694"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9777,7 +9728,7 @@
       <c r="D16" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="I16" s="706"/>
+      <c r="I16" s="694"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9813,7 +9764,7 @@
       <c r="G17" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I17" s="706"/>
+      <c r="I17" s="694"/>
       <c r="L17" s="2" t="s">
         <v>426</v>
       </c>
@@ -9827,35 +9778,33 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="706"/>
+      <c r="I18" s="694"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="703" t="s">
+      <c r="O18" s="691" t="s">
         <v>517</v>
       </c>
-      <c r="P18" s="704"/>
+      <c r="P18" s="692"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
       <c r="R18" s="24">
         <f>5-R26</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S18" s="24">
         <f>5-S26</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="19"/>
       <c r="V18" s="24"/>
       <c r="W18" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="X18" s="24">
-        <v>1</v>
-      </c>
+      <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="706"/>
+      <c r="I19" s="694"/>
       <c r="M19" s="21" t="s">
         <v>425</v>
       </c>
@@ -9864,9 +9813,7 @@
       <c r="W19" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="X19" s="24">
-        <v>2</v>
-      </c>
+      <c r="X19" s="24"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="231" t="s">
@@ -9887,7 +9834,7 @@
       <c r="G20" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I20" s="706"/>
+      <c r="I20" s="694"/>
       <c r="K20" s="19" t="s">
         <v>422</v>
       </c>
@@ -9902,36 +9849,30 @@
       </c>
       <c r="R20" s="24">
         <f>R18-SUM(X16:X21)+R26</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S20" s="24">
         <f>S18-SUM(V16:V21)+S26</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U20" s="220" t="s">
         <v>87</v>
       </c>
-      <c r="V20" s="468">
-        <v>1</v>
-      </c>
+      <c r="V20" s="468"/>
       <c r="W20" s="6"/>
       <c r="X20" s="468"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="706"/>
+      <c r="I21" s="694"/>
       <c r="M21" s="216" t="s">
         <v>411</v>
       </c>
       <c r="U21" s="468"/>
-      <c r="V21" s="468">
-        <v>0</v>
-      </c>
+      <c r="V21" s="468"/>
       <c r="W21" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="X21" s="468">
-        <v>1</v>
-      </c>
+      <c r="X21" s="468"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="231" t="s">
@@ -9952,7 +9893,7 @@
       <c r="G22" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I22" s="706"/>
+      <c r="I22" s="694"/>
       <c r="P22" s="99" t="s">
         <v>591</v>
       </c>
@@ -9967,10 +9908,10 @@
       <c r="E23" s="283" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="706"/>
+      <c r="I23" s="694"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="U23" s="342"/>
       <c r="V23" s="183">
@@ -9984,16 +9925,16 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="706"/>
+      <c r="I24" s="694"/>
       <c r="U24" s="35"/>
       <c r="V24" s="509">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W24" s="54" t="s">
         <v>73</v>
       </c>
       <c r="X24" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10012,7 +9953,7 @@
       <c r="H25" s="191" t="s">
         <v>266</v>
       </c>
-      <c r="I25" s="706"/>
+      <c r="I25" s="694"/>
       <c r="J25" s="397" t="s">
         <v>269</v>
       </c>
@@ -10057,7 +9998,7 @@
       <c r="H26" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="706"/>
+      <c r="I26" s="694"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10072,10 +10013,10 @@
         <v>44</v>
       </c>
       <c r="R26" s="24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S26" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T26" s="61" t="s">
         <v>556</v>
@@ -10092,7 +10033,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="706"/>
+      <c r="I27" s="694"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10103,13 +10044,13 @@
       <c r="S27" s="112"/>
       <c r="U27" s="35"/>
       <c r="V27" s="509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="54" t="s">
         <v>232</v>
       </c>
       <c r="X27" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10119,19 +10060,19 @@
       <c r="E28" s="215">
         <v>2</v>
       </c>
-      <c r="I28" s="706"/>
+      <c r="I28" s="694"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
       <c r="U28" s="35"/>
       <c r="V28" s="509">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W28" s="54" t="s">
         <v>87</v>
       </c>
       <c r="X28" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10141,7 +10082,7 @@
       <c r="H29" s="191" t="s">
         <v>267</v>
       </c>
-      <c r="I29" s="707"/>
+      <c r="I29" s="695"/>
       <c r="J29" s="324"/>
       <c r="L29" s="96" t="s">
         <v>273</v>
@@ -10188,24 +10129,17 @@
     <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U31" s="480"/>
       <c r="V31" s="506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="54" t="s">
         <v>468</v>
       </c>
       <c r="X31" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10217,6 +10151,13 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10227,8 +10168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10328,14 +10269,14 @@
         <f ca="1">TODAY()</f>
         <v>45286</v>
       </c>
-      <c r="T1" s="742"/>
+      <c r="T1" s="736"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="726" t="s">
+      <c r="X1" s="720" t="s">
         <v>441</v>
       </c>
-      <c r="Y1" s="727"/>
+      <c r="Y1" s="721"/>
       <c r="Z1" s="306">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10351,27 +10292,27 @@
       <c r="AD1" s="302" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="728" t="s">
+      <c r="AE1" s="722" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="729"/>
-      <c r="AG1" s="730"/>
-      <c r="AH1" s="731" t="s">
+      <c r="AF1" s="723"/>
+      <c r="AG1" s="724"/>
+      <c r="AH1" s="725" t="s">
         <v>293</v>
       </c>
-      <c r="AI1" s="732"/>
-      <c r="AJ1" s="733"/>
-      <c r="AK1" s="659" t="s">
+      <c r="AI1" s="726"/>
+      <c r="AJ1" s="727"/>
+      <c r="AK1" s="614" t="s">
         <v>616</v>
       </c>
       <c r="AL1" s="551" t="s">
         <v>617</v>
       </c>
-      <c r="AM1" s="723" t="s">
+      <c r="AM1" s="717" t="s">
         <v>444</v>
       </c>
-      <c r="AN1" s="724"/>
-      <c r="AO1" s="725"/>
+      <c r="AN1" s="718"/>
+      <c r="AO1" s="719"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10384,29 +10325,29 @@
       </c>
       <c r="J2" s="318">
         <f>K2+L2</f>
-        <v>29</v>
-      </c>
-      <c r="K2" s="721">
+        <v>39</v>
+      </c>
+      <c r="K2" s="744">
         <f>SUM(K4:K37)</f>
         <v>6</v>
       </c>
-      <c r="L2" s="719">
+      <c r="L2" s="742">
         <f>SUM(L4:L37)</f>
-        <v>23</v>
-      </c>
-      <c r="M2" s="734">
+        <v>33</v>
+      </c>
+      <c r="M2" s="728">
         <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="736">
+      <c r="N2" s="730">
         <f>SUM(N4:N29)</f>
         <v>9</v>
       </c>
-      <c r="O2" s="738">
+      <c r="O2" s="732">
         <f>SUM(O4:O29)</f>
         <v>9</v>
       </c>
-      <c r="P2" s="666">
+      <c r="P2" s="638">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-3</v>
       </c>
@@ -10419,14 +10360,14 @@
       <c r="S2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="T2" s="743"/>
+      <c r="T2" s="737"/>
       <c r="U2" s="537" t="s">
         <v>262</v>
       </c>
       <c r="V2" s="482" t="s">
         <v>219</v>
       </c>
-      <c r="W2" s="740" t="s">
+      <c r="W2" s="734" t="s">
         <v>234</v>
       </c>
       <c r="X2" s="483" t="s">
@@ -10468,7 +10409,7 @@
       <c r="AJ2" s="150" t="s">
         <v>288</v>
       </c>
-      <c r="AK2" s="660"/>
+      <c r="AK2" s="615"/>
       <c r="AL2" s="592" t="s">
         <v>288</v>
       </c>
@@ -10496,12 +10437,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="722"/>
-      <c r="L3" s="720"/>
-      <c r="M3" s="735"/>
-      <c r="N3" s="737"/>
-      <c r="O3" s="739"/>
-      <c r="P3" s="667"/>
+      <c r="K3" s="745"/>
+      <c r="L3" s="743"/>
+      <c r="M3" s="729"/>
+      <c r="N3" s="731"/>
+      <c r="O3" s="733"/>
+      <c r="P3" s="639"/>
       <c r="Q3" s="172">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10509,7 +10450,7 @@
       <c r="S3" s="159" t="s">
         <v>244</v>
       </c>
-      <c r="T3" s="744"/>
+      <c r="T3" s="738"/>
       <c r="U3" s="538">
         <f>SUM(U4:U29)</f>
         <v>12</v>
@@ -10518,7 +10459,7 @@
         <f>SUM(V4:V29)</f>
         <v>39</v>
       </c>
-      <c r="W3" s="741"/>
+      <c r="W3" s="735"/>
       <c r="X3" s="485">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>8</v>
@@ -10624,7 +10565,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="716">
+      <c r="P4" s="739">
         <v>1</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10710,7 +10651,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="717"/>
+      <c r="P5" s="740"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>340</v>
@@ -10804,7 +10745,7 @@
         <f>AC6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="717"/>
+      <c r="P6" s="740"/>
       <c r="Q6" s="19" t="s">
         <v>335</v>
       </c>
@@ -10907,7 +10848,7 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="717"/>
+      <c r="P7" s="740"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>335</v>
@@ -11012,7 +10953,9 @@
       <c r="K8" s="576">
         <v>1</v>
       </c>
-      <c r="L8" s="582"/>
+      <c r="L8" s="582">
+        <v>10</v>
+      </c>
       <c r="M8" s="107">
         <v>0</v>
       </c>
@@ -11023,7 +10966,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="717"/>
+      <c r="P8" s="740"/>
       <c r="Q8" s="21" t="s">
         <v>233</v>
       </c>
@@ -11114,7 +11057,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="717"/>
+      <c r="P9" s="740"/>
       <c r="Q9" s="21" t="s">
         <v>335</v>
       </c>
@@ -11219,7 +11162,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="717"/>
+      <c r="P10" s="740"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>340</v>
@@ -11309,7 +11252,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="717"/>
+      <c r="P11" s="740"/>
       <c r="Q11" s="21" t="s">
         <v>335</v>
       </c>
@@ -11374,14 +11317,14 @@
       <c r="AR11" s="508"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="626" t="s">
+      <c r="A12" s="676" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="681" t="s">
+      <c r="E12" s="626" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="262"/>
@@ -11406,7 +11349,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P12" s="717"/>
+      <c r="P12" s="740"/>
       <c r="Q12" s="21" t="s">
         <v>335</v>
       </c>
@@ -11483,14 +11426,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="628"/>
+      <c r="A13" s="678"/>
       <c r="B13" s="584">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="682"/>
+      <c r="E13" s="627"/>
       <c r="F13" s="172">
         <v>0</v>
       </c>
@@ -11514,7 +11457,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="717"/>
+      <c r="P13" s="740"/>
       <c r="Q13" s="21" t="s">
         <v>335</v>
       </c>
@@ -11596,7 +11539,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="717"/>
+      <c r="P14" s="740"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="200" t="s">
         <v>339</v>
@@ -11697,7 +11640,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="717"/>
+      <c r="P15" s="740"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="200" t="s">
         <v>339</v>
@@ -11789,7 +11732,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="717"/>
+      <c r="P16" s="740"/>
       <c r="Q16" s="21" t="s">
         <v>335</v>
       </c>
@@ -11890,7 +11833,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="717"/>
+      <c r="P17" s="740"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>341</v>
@@ -11990,7 +11933,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="717"/>
+      <c r="P18" s="740"/>
       <c r="Q18" s="21" t="s">
         <v>335</v>
       </c>
@@ -12080,7 +12023,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="717"/>
+      <c r="P19" s="740"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>334</v>
@@ -12188,11 +12131,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="718"/>
-      <c r="Q20" s="603" t="s">
+      <c r="P20" s="741"/>
+      <c r="Q20" s="604" t="s">
         <v>335</v>
       </c>
-      <c r="R20" s="683"/>
+      <c r="R20" s="628"/>
       <c r="S20" s="534" t="s">
         <v>85</v>
       </c>
@@ -12452,7 +12395,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="633" t="s">
+      <c r="E23" s="683" t="s">
         <v>289</v>
       </c>
       <c r="F23" s="180"/>
@@ -12557,7 +12500,7 @@
       <c r="C24" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E24" s="634"/>
+      <c r="E24" s="684"/>
       <c r="F24" s="172"/>
       <c r="H24" s="42"/>
       <c r="J24" s="571" t="s">
@@ -12579,10 +12522,10 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="603" t="s">
+      <c r="Q24" s="604" t="s">
         <v>335</v>
       </c>
-      <c r="R24" s="683"/>
+      <c r="R24" s="628"/>
       <c r="S24" s="534" t="s">
         <v>249</v>
       </c>
@@ -12861,7 +12804,7 @@
       <c r="AR26" s="508"/>
     </row>
     <row r="27" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="791"/>
+      <c r="B27" s="593"/>
       <c r="E27" s="31" t="s">
         <v>290</v>
       </c>
@@ -13238,8 +13181,8 @@
       <c r="AR31" s="508"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="650"/>
-      <c r="B32" s="650"/>
+      <c r="A32" s="631"/>
+      <c r="B32" s="631"/>
       <c r="J32" s="572"/>
       <c r="K32" s="587"/>
       <c r="L32" s="581">
@@ -13711,7 +13654,7 @@
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D37" s="382">
         <v>1</v>
@@ -13816,6 +13759,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13827,15 +13779,6 @@
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13900,10 +13843,10 @@
         <f ca="1">TODAY()</f>
         <v>45286</v>
       </c>
-      <c r="V1" s="603" t="s">
+      <c r="V1" s="604" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="683"/>
+      <c r="W1" s="628"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13922,7 +13865,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="759" t="s">
+      <c r="AD1" s="753" t="s">
         <v>211</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13939,10 +13882,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="790" t="s">
+      <c r="F2" s="752" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="747" t="s">
+      <c r="G2" s="780" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13970,10 +13913,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="726" t="s">
+      <c r="V2" s="720" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="727"/>
+      <c r="W2" s="721"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -13992,7 +13935,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="760"/>
+      <c r="AD2" s="754"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -14011,8 +13954,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="630"/>
-      <c r="G3" s="748"/>
+      <c r="F3" s="680"/>
+      <c r="G3" s="781"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -14023,13 +13966,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="757" t="s">
+      <c r="O3" s="790" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="778" t="s">
+      <c r="P3" s="772" t="s">
         <v>217</v>
       </c>
-      <c r="Q3" s="779"/>
+      <c r="Q3" s="773"/>
       <c r="S3" s="57" t="s">
         <v>218</v>
       </c>
@@ -14039,15 +13982,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="760"/>
+      <c r="AD3" s="754"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="748"/>
+      <c r="G4" s="781"/>
       <c r="H4" s="6"/>
-      <c r="L4" s="687" t="s">
+      <c r="L4" s="688" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="758"/>
+      <c r="O4" s="791"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14057,12 +14000,12 @@
       <c r="X4" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="Y4" s="603" t="s">
+      <c r="Y4" s="604" t="s">
         <v>194</v>
       </c>
-      <c r="Z4" s="605"/>
-      <c r="AA4" s="683"/>
-      <c r="AD4" s="760"/>
+      <c r="Z4" s="606"/>
+      <c r="AA4" s="628"/>
+      <c r="AD4" s="754"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14077,21 +14020,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="748"/>
+      <c r="G5" s="781"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="765" t="s">
+      <c r="K5" s="759" t="s">
         <v>215</v>
       </c>
-      <c r="L5" s="780"/>
+      <c r="L5" s="774"/>
       <c r="M5" s="2" t="s">
         <v>213</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="O5" s="758"/>
+      <c r="O5" s="791"/>
       <c r="P5" s="108" t="s">
         <v>214</v>
       </c>
@@ -14107,11 +14050,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="768" t="s">
+      <c r="Y5" s="762" t="s">
         <v>282</v>
       </c>
-      <c r="Z5" s="769"/>
-      <c r="AD5" s="760"/>
+      <c r="Z5" s="763"/>
+      <c r="AD5" s="754"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14121,16 +14064,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="748"/>
+      <c r="G6" s="781"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="766"/>
-      <c r="L6" s="780"/>
-      <c r="O6" s="758"/>
+      <c r="K6" s="760"/>
+      <c r="L6" s="774"/>
+      <c r="O6" s="791"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14140,23 +14083,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="760"/>
+      <c r="AD6" s="754"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="748"/>
+      <c r="G7" s="781"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="766"/>
-      <c r="L7" s="780"/>
+      <c r="K7" s="760"/>
+      <c r="L7" s="774"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="758"/>
+      <c r="O7" s="791"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="760"/>
+      <c r="AD7" s="754"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14169,7 +14112,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="748"/>
+      <c r="G8" s="781"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14179,41 +14122,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="766"/>
-      <c r="L8" s="780"/>
-      <c r="O8" s="758"/>
+      <c r="K8" s="760"/>
+      <c r="L8" s="774"/>
+      <c r="O8" s="791"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="762" t="s">
+      <c r="S8" s="756" t="s">
         <v>210</v>
       </c>
-      <c r="T8" s="763"/>
-      <c r="U8" s="763"/>
-      <c r="V8" s="763"/>
-      <c r="W8" s="763"/>
-      <c r="X8" s="763"/>
-      <c r="Y8" s="763"/>
-      <c r="Z8" s="763"/>
-      <c r="AA8" s="763"/>
-      <c r="AB8" s="763"/>
-      <c r="AC8" s="764"/>
-      <c r="AD8" s="760"/>
+      <c r="T8" s="757"/>
+      <c r="U8" s="757"/>
+      <c r="V8" s="757"/>
+      <c r="W8" s="757"/>
+      <c r="X8" s="757"/>
+      <c r="Y8" s="757"/>
+      <c r="Z8" s="757"/>
+      <c r="AA8" s="757"/>
+      <c r="AB8" s="757"/>
+      <c r="AC8" s="758"/>
+      <c r="AD8" s="754"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="784"/>
-      <c r="G9" s="748"/>
+      <c r="C9" s="746"/>
+      <c r="G9" s="781"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="766"/>
-      <c r="L9" s="751" t="s">
+      <c r="K9" s="760"/>
+      <c r="L9" s="784" t="s">
         <v>216</v>
       </c>
-      <c r="M9" s="752"/>
-      <c r="N9" s="753"/>
-      <c r="O9" s="758"/>
+      <c r="M9" s="785"/>
+      <c r="N9" s="786"/>
+      <c r="O9" s="791"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="760"/>
+      <c r="AD9" s="754"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="785"/>
+      <c r="C10" s="747"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14221,7 +14164,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="748"/>
+      <c r="G10" s="781"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14229,33 +14172,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="766"/>
-      <c r="M10" s="787" t="s">
+      <c r="K10" s="760"/>
+      <c r="M10" s="749" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="788"/>
-      <c r="O10" s="788"/>
-      <c r="P10" s="788"/>
-      <c r="Q10" s="788"/>
-      <c r="R10" s="788"/>
-      <c r="S10" s="788"/>
-      <c r="T10" s="788"/>
-      <c r="U10" s="788"/>
-      <c r="V10" s="788"/>
-      <c r="W10" s="788"/>
-      <c r="X10" s="788"/>
-      <c r="Y10" s="788"/>
-      <c r="Z10" s="788"/>
-      <c r="AA10" s="788"/>
-      <c r="AB10" s="788"/>
-      <c r="AC10" s="789"/>
-      <c r="AD10" s="760"/>
+      <c r="N10" s="750"/>
+      <c r="O10" s="750"/>
+      <c r="P10" s="750"/>
+      <c r="Q10" s="750"/>
+      <c r="R10" s="750"/>
+      <c r="S10" s="750"/>
+      <c r="T10" s="750"/>
+      <c r="U10" s="750"/>
+      <c r="V10" s="750"/>
+      <c r="W10" s="750"/>
+      <c r="X10" s="750"/>
+      <c r="Y10" s="750"/>
+      <c r="Z10" s="750"/>
+      <c r="AA10" s="750"/>
+      <c r="AB10" s="750"/>
+      <c r="AC10" s="751"/>
+      <c r="AD10" s="754"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="786"/>
-      <c r="G11" s="748"/>
+      <c r="C11" s="748"/>
+      <c r="G11" s="781"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="766"/>
+      <c r="K11" s="760"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14263,17 +14206,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="776" t="s">
+      <c r="Z11" s="770" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="777"/>
+      <c r="AA11" s="771"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="760"/>
+      <c r="AD11" s="754"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14286,7 +14229,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="748"/>
+      <c r="G12" s="781"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14294,8 +14237,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="766"/>
-      <c r="L12" s="781" t="s">
+      <c r="K12" s="760"/>
+      <c r="L12" s="775" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14310,7 +14253,7 @@
       <c r="Q12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="598" t="s">
+      <c r="S12" s="599" t="s">
         <v>106</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -14326,26 +14269,26 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="770" t="s">
+      <c r="AA12" s="764" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="771"/>
+      <c r="AB12" s="765"/>
       <c r="AC12" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="AD12" s="760"/>
+      <c r="AD12" s="754"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="784"/>
-      <c r="G13" s="748"/>
-      <c r="K13" s="766"/>
-      <c r="L13" s="782"/>
+      <c r="C13" s="746"/>
+      <c r="G13" s="781"/>
+      <c r="K13" s="760"/>
+      <c r="L13" s="776"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="750" t="s">
+      <c r="Q13" s="783" t="s">
         <v>208</v>
       </c>
-      <c r="R13" s="639"/>
-      <c r="S13" s="599"/>
+      <c r="R13" s="645"/>
+      <c r="S13" s="600"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
         <v>131</v>
@@ -14353,17 +14296,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="772"/>
-      <c r="AB13" s="773"/>
-      <c r="AD13" s="760"/>
+      <c r="AA13" s="766"/>
+      <c r="AB13" s="767"/>
+      <c r="AD13" s="754"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C14" s="786"/>
+      <c r="C14" s="748"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="748"/>
+      <c r="G14" s="781"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14371,8 +14314,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="766"/>
-      <c r="L14" s="782"/>
+      <c r="K14" s="760"/>
+      <c r="L14" s="776"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14382,7 +14325,7 @@
       <c r="R14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="599"/>
+      <c r="S14" s="600"/>
       <c r="T14" s="77" t="s">
         <v>129</v>
       </c>
@@ -14393,9 +14336,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="772"/>
-      <c r="AB14" s="773"/>
-      <c r="AD14" s="760"/>
+      <c r="AA14" s="766"/>
+      <c r="AB14" s="767"/>
+      <c r="AD14" s="754"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14410,20 +14353,20 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="748"/>
+      <c r="G15" s="781"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="766"/>
-      <c r="L15" s="783"/>
-      <c r="Q15" s="750" t="s">
+      <c r="K15" s="760"/>
+      <c r="L15" s="777"/>
+      <c r="Q15" s="783" t="s">
         <v>209</v>
       </c>
-      <c r="R15" s="639"/>
-      <c r="S15" s="599"/>
+      <c r="R15" s="645"/>
+      <c r="S15" s="600"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
         <v>44</v>
@@ -14431,14 +14374,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="772"/>
-      <c r="AB15" s="773"/>
-      <c r="AD15" s="760"/>
+      <c r="AA15" s="766"/>
+      <c r="AB15" s="767"/>
+      <c r="AD15" s="754"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="748"/>
-      <c r="K16" s="766"/>
+      <c r="G16" s="781"/>
+      <c r="K16" s="760"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14446,7 +14389,7 @@
       <c r="R16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="599"/>
+      <c r="S16" s="600"/>
       <c r="T16" s="76" t="s">
         <v>128</v>
       </c>
@@ -14457,34 +14400,34 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="772"/>
-      <c r="AB16" s="773"/>
-      <c r="AD16" s="760"/>
+      <c r="AA16" s="766"/>
+      <c r="AB16" s="767"/>
+      <c r="AD16" s="754"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="745" t="s">
+      <c r="F17" s="778" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="748"/>
+      <c r="G17" s="781"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="766"/>
-      <c r="S17" s="599"/>
+      <c r="K17" s="760"/>
+      <c r="S17" s="600"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="772"/>
-      <c r="AB17" s="773"/>
-      <c r="AD17" s="760"/>
+      <c r="AA17" s="766"/>
+      <c r="AB17" s="767"/>
+      <c r="AD17" s="754"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14494,58 +14437,61 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="746"/>
-      <c r="G18" s="748"/>
+      <c r="F18" s="779"/>
+      <c r="G18" s="781"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="766"/>
+      <c r="K18" s="760"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="S18" s="599"/>
+      <c r="S18" s="600"/>
       <c r="U18" s="76" t="s">
         <v>132</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="774"/>
-      <c r="AB18" s="775"/>
-      <c r="AD18" s="760"/>
+      <c r="AA18" s="768"/>
+      <c r="AB18" s="769"/>
+      <c r="AD18" s="754"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="749"/>
-      <c r="K19" s="767"/>
+      <c r="G19" s="782"/>
+      <c r="K19" s="761"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="754" t="s">
+      <c r="R19" s="787" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="755"/>
-      <c r="T19" s="756"/>
+      <c r="S19" s="788"/>
+      <c r="T19" s="789"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="761"/>
+      <c r="AD19" s="755"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14557,14 +14503,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.2.0.xlsx
+++ b/System_2.2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B232C8B-D143-4524-9A89-1665802FBA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B209558C-FB2B-4B09-9D4D-5D94D6EAEF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="623">
   <si>
     <t>Zone</t>
   </si>
@@ -1905,6 +1905,9 @@
   </si>
   <si>
     <t>Rbangla</t>
+  </si>
+  <si>
+    <t>10F in Capacity</t>
   </si>
 </sst>
 </file>
@@ -5030,6 +5033,186 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5042,12 +5225,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5059,12 +5236,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -5087,190 +5258,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5312,43 +5354,25 @@
     <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5417,46 +5441,46 @@
     <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5534,46 +5558,25 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5872,7 +5875,7 @@
   <dimension ref="B1:X28"/>
   <sheetViews>
     <sheetView topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6595,7 +6598,9 @@
       </c>
       <c r="P22" s="313"/>
       <c r="T22" s="608"/>
-      <c r="X22" s="19"/>
+      <c r="X22" s="19" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -6904,7 +6909,7 @@
       <c r="H1" s="97" t="s">
         <v>343</v>
       </c>
-      <c r="I1" s="614" t="s">
+      <c r="I1" s="660" t="s">
         <v>369</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6940,7 +6945,7 @@
       <c r="X1" s="430" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="658" t="s">
+      <c r="Y1" s="654" t="s">
         <v>529</v>
       </c>
       <c r="Z1" s="406">
@@ -6965,7 +6970,7 @@
         <v>498</v>
       </c>
       <c r="AM1" s="402"/>
-      <c r="AN1" s="641"/>
+      <c r="AN1" s="636"/>
       <c r="AO1" s="338" t="s">
         <v>469</v>
       </c>
@@ -6974,23 +6979,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="667">
+      <c r="A2" s="618">
         <f ca="1">TODAY()</f>
         <v>45286</v>
       </c>
-      <c r="B2" s="669" t="s">
+      <c r="B2" s="620" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="646" t="s">
+      <c r="C2" s="616" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="671" t="s">
+      <c r="D2" s="622" t="s">
         <v>355</v>
       </c>
-      <c r="E2" s="610" t="s">
+      <c r="E2" s="670" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="620" t="s">
+      <c r="F2" s="641" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="393" t="s">
@@ -6999,31 +7004,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="615"/>
+      <c r="I2" s="661"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="612" t="s">
+      <c r="K2" s="672" t="s">
         <v>342</v>
       </c>
-      <c r="L2" s="613"/>
-      <c r="M2" s="620" t="s">
+      <c r="L2" s="673"/>
+      <c r="M2" s="641" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="650" t="s">
+      <c r="O2" s="645" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="646" t="s">
+      <c r="Q2" s="616" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="599"/>
-      <c r="S2" s="635" t="s">
+      <c r="S2" s="658" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7033,7 +7038,7 @@
       <c r="X2" s="431" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="659"/>
+      <c r="Y2" s="655"/>
       <c r="Z2" s="407">
         <v>1</v>
       </c>
@@ -7056,15 +7061,15 @@
         <v>463</v>
       </c>
       <c r="AM2" s="428"/>
-      <c r="AN2" s="642"/>
+      <c r="AN2" s="637"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="668"/>
-      <c r="B3" s="670"/>
-      <c r="C3" s="647"/>
-      <c r="D3" s="672"/>
-      <c r="E3" s="611"/>
-      <c r="F3" s="621"/>
+      <c r="A3" s="619"/>
+      <c r="B3" s="621"/>
+      <c r="C3" s="617"/>
+      <c r="D3" s="623"/>
+      <c r="E3" s="671"/>
+      <c r="F3" s="642"/>
       <c r="G3" s="394" t="s">
         <v>28</v>
       </c>
@@ -7083,17 +7088,17 @@
       <c r="L3" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="621"/>
+      <c r="M3" s="642"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="651"/>
+      <c r="O3" s="646"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="647"/>
+      <c r="Q3" s="617"/>
       <c r="R3" s="601"/>
-      <c r="S3" s="637"/>
+      <c r="S3" s="659"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7101,7 +7106,7 @@
       <c r="X3" s="431" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="659"/>
+      <c r="Y3" s="655"/>
       <c r="Z3" s="408">
         <v>1</v>
       </c>
@@ -7110,7 +7115,7 @@
       <c r="AC3" s="100" t="s">
         <v>480</v>
       </c>
-      <c r="AD3" s="632" t="s">
+      <c r="AD3" s="657" t="s">
         <v>455</v>
       </c>
       <c r="AE3" s="257"/>
@@ -7122,16 +7127,16 @@
       <c r="AK3" s="257"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="428"/>
-      <c r="AN3" s="642"/>
+      <c r="AN3" s="637"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="238" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="683" t="s">
+      <c r="B4" s="634" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="646" t="s">
+      <c r="C4" s="616" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="347" t="s">
@@ -7140,7 +7145,7 @@
       <c r="E4" s="378">
         <v>2</v>
       </c>
-      <c r="F4" s="621"/>
+      <c r="F4" s="642"/>
       <c r="G4" s="381" t="s">
         <v>201</v>
       </c>
@@ -7157,11 +7162,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="204"/>
-      <c r="M4" s="621"/>
+      <c r="M4" s="642"/>
       <c r="N4" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="651"/>
+      <c r="O4" s="646"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7183,12 +7188,12 @@
       <c r="X4" s="431" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="659"/>
+      <c r="Y4" s="655"/>
       <c r="Z4" s="409"/>
       <c r="AA4" s="307"/>
       <c r="AB4" s="209"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="632"/>
+      <c r="AD4" s="657"/>
       <c r="AE4" s="257"/>
       <c r="AF4" s="257"/>
       <c r="AG4" s="16"/>
@@ -7198,37 +7203,37 @@
       <c r="AK4" s="257"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="428"/>
-      <c r="AN4" s="642"/>
+      <c r="AN4" s="637"/>
       <c r="AO4" s="338" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="614" t="s">
+      <c r="A5" s="660" t="s">
         <v>418</v>
       </c>
-      <c r="B5" s="684"/>
-      <c r="C5" s="647"/>
+      <c r="B5" s="635"/>
+      <c r="C5" s="617"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="379">
         <v>1</v>
       </c>
-      <c r="F5" s="621"/>
-      <c r="G5" s="675" t="s">
+      <c r="F5" s="642"/>
+      <c r="G5" s="626" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="675"/>
-      <c r="I5" s="675"/>
-      <c r="J5" s="675"/>
-      <c r="K5" s="675"/>
-      <c r="L5" s="676"/>
-      <c r="M5" s="621"/>
+      <c r="H5" s="626"/>
+      <c r="I5" s="626"/>
+      <c r="J5" s="626"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="627"/>
+      <c r="M5" s="642"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="651"/>
+      <c r="O5" s="646"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7236,7 +7241,7 @@
       <c r="X5" s="431" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="659"/>
+      <c r="Y5" s="655"/>
       <c r="Z5" s="409">
         <v>1</v>
       </c>
@@ -7259,24 +7264,24 @@
       <c r="AK5" s="257"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="428"/>
-      <c r="AN5" s="642"/>
+      <c r="AN5" s="637"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="615"/>
-      <c r="B6" s="681" t="s">
+      <c r="A6" s="661"/>
+      <c r="B6" s="632" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="630"/>
-      <c r="F6" s="621"/>
-      <c r="G6" s="677"/>
-      <c r="H6" s="677"/>
-      <c r="I6" s="677"/>
-      <c r="J6" s="677"/>
-      <c r="K6" s="677"/>
-      <c r="L6" s="678"/>
-      <c r="M6" s="621"/>
-      <c r="O6" s="651"/>
+      <c r="C6" s="662"/>
+      <c r="D6" s="663"/>
+      <c r="F6" s="642"/>
+      <c r="G6" s="628"/>
+      <c r="H6" s="628"/>
+      <c r="I6" s="628"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="629"/>
+      <c r="M6" s="642"/>
+      <c r="O6" s="646"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7286,7 +7291,7 @@
       <c r="X6" s="431" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="659"/>
+      <c r="Y6" s="655"/>
       <c r="Z6" s="407">
         <v>1</v>
       </c>
@@ -7300,16 +7305,16 @@
       <c r="AF6" s="257"/>
       <c r="AG6" s="257"/>
       <c r="AH6" s="257"/>
-      <c r="AI6" s="631"/>
+      <c r="AI6" s="651"/>
       <c r="AJ6" s="441" t="s">
         <v>458</v>
       </c>
-      <c r="AK6" s="631" t="s">
+      <c r="AK6" s="651" t="s">
         <v>251</v>
       </c>
       <c r="AL6" s="257"/>
       <c r="AM6" s="428"/>
-      <c r="AN6" s="642"/>
+      <c r="AN6" s="637"/>
       <c r="AO6" s="338" t="s">
         <v>470</v>
       </c>
@@ -7318,7 +7323,7 @@
       <c r="A7" s="232" t="s">
         <v>572</v>
       </c>
-      <c r="B7" s="682"/>
+      <c r="B7" s="633"/>
       <c r="C7" s="202" t="s">
         <v>374</v>
       </c>
@@ -7328,7 +7333,7 @@
       <c r="E7" s="265">
         <v>3</v>
       </c>
-      <c r="F7" s="621"/>
+      <c r="F7" s="642"/>
       <c r="G7" s="395">
         <v>0</v>
       </c>
@@ -7347,8 +7352,8 @@
       <c r="L7" s="212">
         <v>0</v>
       </c>
-      <c r="M7" s="621"/>
-      <c r="O7" s="651"/>
+      <c r="M7" s="642"/>
+      <c r="O7" s="646"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7362,7 +7367,7 @@
       <c r="X7" s="431" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="659"/>
+      <c r="Y7" s="655"/>
       <c r="Z7" s="407">
         <v>1</v>
       </c>
@@ -7372,18 +7377,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="257"/>
       <c r="AF7" s="257"/>
-      <c r="AG7" s="632" t="s">
+      <c r="AG7" s="657" t="s">
         <v>454</v>
       </c>
       <c r="AH7" s="257"/>
-      <c r="AI7" s="631"/>
+      <c r="AI7" s="651"/>
       <c r="AJ7" s="257"/>
-      <c r="AK7" s="631"/>
+      <c r="AK7" s="651"/>
       <c r="AL7" s="80" t="s">
         <v>496</v>
       </c>
       <c r="AM7" s="428"/>
-      <c r="AN7" s="642"/>
+      <c r="AN7" s="637"/>
       <c r="AP7" s="76" t="s">
         <v>471</v>
       </c>
@@ -7400,27 +7405,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="621"/>
-      <c r="G8" s="676">
-        <v>0</v>
-      </c>
-      <c r="H8" s="673" t="s">
+      <c r="F8" s="642"/>
+      <c r="G8" s="627">
+        <v>0</v>
+      </c>
+      <c r="H8" s="624" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="599">
         <v>0</v>
       </c>
-      <c r="J8" s="673" t="s">
+      <c r="J8" s="624" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="679"/>
-      <c r="L8" s="633"/>
-      <c r="M8" s="648"/>
-      <c r="N8" s="638">
+      <c r="K8" s="630"/>
+      <c r="L8" s="664"/>
+      <c r="M8" s="643"/>
+      <c r="N8" s="667">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="651"/>
+      <c r="O8" s="646"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7430,7 +7435,7 @@
       <c r="X8" s="431" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="659"/>
+      <c r="Y8" s="655"/>
       <c r="Z8" s="409"/>
       <c r="AA8" s="307"/>
       <c r="AB8" s="209"/>
@@ -7438,14 +7443,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="257"/>
       <c r="AF8" s="257"/>
-      <c r="AG8" s="632"/>
+      <c r="AG8" s="657"/>
       <c r="AH8" s="257"/>
-      <c r="AI8" s="631"/>
+      <c r="AI8" s="651"/>
       <c r="AJ8" s="257"/>
       <c r="AK8" s="257"/>
       <c r="AL8" s="257"/>
       <c r="AM8" s="428"/>
-      <c r="AN8" s="642"/>
+      <c r="AN8" s="637"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="232" t="s">
@@ -7460,17 +7465,17 @@
       <c r="D9" s="348" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="621"/>
-      <c r="G9" s="678"/>
-      <c r="H9" s="674"/>
+      <c r="F9" s="642"/>
+      <c r="G9" s="629"/>
+      <c r="H9" s="625"/>
       <c r="I9" s="601"/>
-      <c r="J9" s="674"/>
-      <c r="K9" s="680"/>
-      <c r="L9" s="634"/>
-      <c r="M9" s="649"/>
-      <c r="N9" s="639"/>
-      <c r="O9" s="652"/>
-      <c r="S9" s="635" t="s">
+      <c r="J9" s="625"/>
+      <c r="K9" s="631"/>
+      <c r="L9" s="665"/>
+      <c r="M9" s="644"/>
+      <c r="N9" s="668"/>
+      <c r="O9" s="647"/>
+      <c r="S9" s="658" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7482,7 +7487,7 @@
       <c r="X9" s="431" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="659"/>
+      <c r="Y9" s="655"/>
       <c r="Z9" s="410"/>
       <c r="AA9" s="307"/>
       <c r="AB9" s="209"/>
@@ -7492,16 +7497,16 @@
       </c>
       <c r="AE9" s="257"/>
       <c r="AF9" s="257"/>
-      <c r="AG9" s="632"/>
+      <c r="AG9" s="657"/>
       <c r="AH9" s="257"/>
-      <c r="AI9" s="631"/>
+      <c r="AI9" s="651"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="631" t="s">
+      <c r="AK9" s="651" t="s">
         <v>251</v>
       </c>
       <c r="AL9" s="257"/>
       <c r="AM9" s="428"/>
-      <c r="AN9" s="642"/>
+      <c r="AN9" s="637"/>
       <c r="AP9" s="2" t="s">
         <v>508</v>
       </c>
@@ -7518,20 +7523,20 @@
         <f>Boat!W8</f>
         <v>39</v>
       </c>
-      <c r="F10" s="621"/>
+      <c r="F10" s="642"/>
       <c r="N10" s="418" t="s">
         <v>396</v>
       </c>
-      <c r="O10" s="623" t="s">
+      <c r="O10" s="679" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="653" t="s">
+      <c r="P10" s="648" t="s">
         <v>400</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="636"/>
+      <c r="S10" s="666"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7543,7 +7548,7 @@
       <c r="X10" s="431" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="659"/>
+      <c r="Y10" s="655"/>
       <c r="Z10" s="409">
         <v>0</v>
       </c>
@@ -7561,16 +7566,16 @@
       <c r="AF10" s="238" t="s">
         <v>311</v>
       </c>
-      <c r="AG10" s="632"/>
+      <c r="AG10" s="657"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="631"/>
+      <c r="AI10" s="651"/>
       <c r="AJ10" s="257"/>
-      <c r="AK10" s="631"/>
+      <c r="AK10" s="651"/>
       <c r="AL10" s="257"/>
       <c r="AM10" s="442" t="s">
         <v>318</v>
       </c>
-      <c r="AN10" s="642"/>
+      <c r="AN10" s="637"/>
       <c r="AO10" s="204" t="s">
         <v>94</v>
       </c>
@@ -7588,18 +7593,18 @@
       <c r="D11" s="170" t="s">
         <v>355</v>
       </c>
-      <c r="F11" s="621"/>
+      <c r="F11" s="642"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="624"/>
-      <c r="P11" s="654"/>
+      <c r="O11" s="680"/>
+      <c r="P11" s="649"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="S11" s="636"/>
+      <c r="S11" s="666"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7609,7 +7614,7 @@
       <c r="X11" s="431" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="659"/>
+      <c r="Y11" s="655"/>
       <c r="Z11" s="409"/>
       <c r="AA11" s="307">
         <v>1</v>
@@ -7623,14 +7628,14 @@
       <c r="AF11" s="257" t="s">
         <v>476</v>
       </c>
-      <c r="AG11" s="632"/>
+      <c r="AG11" s="657"/>
       <c r="AH11" s="257"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="257"/>
       <c r="AK11" s="257"/>
       <c r="AL11" s="257"/>
       <c r="AM11" s="428"/>
-      <c r="AN11" s="642"/>
+      <c r="AN11" s="637"/>
       <c r="AP11" s="76" t="s">
         <v>484</v>
       </c>
@@ -7649,7 +7654,7 @@
       <c r="E12" s="224">
         <v>3</v>
       </c>
-      <c r="F12" s="621"/>
+      <c r="F12" s="642"/>
       <c r="G12" s="337" t="s">
         <v>400</v>
       </c>
@@ -7658,16 +7663,16 @@
       </c>
       <c r="I12" s="606"/>
       <c r="J12" s="606"/>
-      <c r="K12" s="628"/>
+      <c r="K12" s="684"/>
       <c r="L12" s="203"/>
       <c r="M12" s="203"/>
       <c r="N12" s="203"/>
-      <c r="O12" s="624"/>
-      <c r="P12" s="654"/>
+      <c r="O12" s="680"/>
+      <c r="P12" s="649"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="637"/>
+      <c r="S12" s="659"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7677,7 +7682,7 @@
       <c r="X12" s="431" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="659"/>
+      <c r="Y12" s="655"/>
       <c r="Z12" s="407">
         <v>1</v>
       </c>
@@ -7688,16 +7693,16 @@
       <c r="AC12" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD12" s="640" t="s">
+      <c r="AD12" s="669" t="s">
         <v>240</v>
       </c>
       <c r="AE12" s="441" t="s">
         <v>239</v>
       </c>
-      <c r="AF12" s="632" t="s">
+      <c r="AF12" s="657" t="s">
         <v>228</v>
       </c>
-      <c r="AG12" s="632"/>
+      <c r="AG12" s="657"/>
       <c r="AH12" s="238" t="s">
         <v>259</v>
       </c>
@@ -7707,10 +7712,10 @@
       <c r="AJ12" s="257"/>
       <c r="AK12" s="257"/>
       <c r="AL12" s="257"/>
-      <c r="AM12" s="656" t="s">
+      <c r="AM12" s="652" t="s">
         <v>249</v>
       </c>
-      <c r="AN12" s="642"/>
+      <c r="AN12" s="637"/>
       <c r="AO12" s="338" t="s">
         <v>96</v>
       </c>
@@ -7722,17 +7727,17 @@
       <c r="E13" s="448">
         <v>-3</v>
       </c>
-      <c r="F13" s="621"/>
+      <c r="F13" s="642"/>
       <c r="G13" s="606" t="s">
         <v>430</v>
       </c>
       <c r="H13" s="606"/>
       <c r="I13" s="606"/>
-      <c r="J13" s="628"/>
+      <c r="J13" s="684"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="624"/>
-      <c r="P13" s="655"/>
+      <c r="O13" s="680"/>
+      <c r="P13" s="650"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7742,7 +7747,7 @@
       <c r="X13" s="431" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="659"/>
+      <c r="Y13" s="655"/>
       <c r="Z13" s="407">
         <v>1</v>
       </c>
@@ -7753,8 +7758,8 @@
         <v>500</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="640"/>
-      <c r="AF13" s="632"/>
+      <c r="AD13" s="669"/>
+      <c r="AF13" s="657"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="238" t="s">
         <v>308</v>
@@ -7765,8 +7770,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="257"/>
       <c r="AL13" s="257"/>
-      <c r="AM13" s="656"/>
-      <c r="AN13" s="642"/>
+      <c r="AM13" s="652"/>
+      <c r="AN13" s="637"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="450"/>
@@ -7774,18 +7779,18 @@
       <c r="C14" s="459"/>
       <c r="D14" s="452"/>
       <c r="E14" s="453"/>
-      <c r="F14" s="621"/>
+      <c r="F14" s="642"/>
       <c r="G14" s="606" t="s">
         <v>429</v>
       </c>
       <c r="H14" s="606"/>
       <c r="I14" s="606"/>
-      <c r="J14" s="628"/>
+      <c r="J14" s="684"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="624"/>
+      <c r="O14" s="680"/>
       <c r="Q14" s="61" t="s">
         <v>533</v>
       </c>
@@ -7799,24 +7804,24 @@
       <c r="X14" s="431" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="659"/>
+      <c r="Y14" s="655"/>
       <c r="Z14" s="407">
         <v>1</v>
       </c>
       <c r="AA14" s="307"/>
       <c r="AB14" s="209"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="640"/>
+      <c r="AD14" s="669"/>
       <c r="AE14" s="257"/>
-      <c r="AF14" s="632"/>
+      <c r="AF14" s="657"/>
       <c r="AG14" s="257"/>
       <c r="AH14" s="257"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="257"/>
       <c r="AK14" s="257"/>
       <c r="AL14" s="257"/>
-      <c r="AM14" s="656"/>
-      <c r="AN14" s="642"/>
+      <c r="AM14" s="652"/>
+      <c r="AN14" s="637"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="449" t="s">
@@ -7825,8 +7830,8 @@
       <c r="C15" s="599" t="s">
         <v>373</v>
       </c>
-      <c r="F15" s="621"/>
-      <c r="O15" s="624"/>
+      <c r="F15" s="642"/>
+      <c r="O15" s="680"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7839,7 +7844,7 @@
       <c r="X15" s="431" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="659"/>
+      <c r="Y15" s="655"/>
       <c r="Z15" s="409">
         <v>1</v>
       </c>
@@ -7848,8 +7853,8 @@
       <c r="AC15" s="76" t="s">
         <v>479</v>
       </c>
-      <c r="AD15" s="640"/>
-      <c r="AF15" s="632"/>
+      <c r="AD15" s="669"/>
+      <c r="AF15" s="657"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="238" t="s">
         <v>448</v>
@@ -7862,8 +7867,8 @@
       </c>
       <c r="AK15" s="257"/>
       <c r="AL15" s="257"/>
-      <c r="AM15" s="656"/>
-      <c r="AN15" s="642"/>
+      <c r="AM15" s="652"/>
+      <c r="AN15" s="637"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7885,13 +7890,13 @@
       <c r="E16" s="224">
         <v>1</v>
       </c>
-      <c r="F16" s="621"/>
+      <c r="F16" s="642"/>
       <c r="G16" s="337" t="s">
         <v>488</v>
       </c>
       <c r="I16" s="469"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="624"/>
+      <c r="O16" s="680"/>
       <c r="R16" s="435" t="s">
         <v>184</v>
       </c>
@@ -7902,7 +7907,7 @@
       <c r="X16" s="431" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="659"/>
+      <c r="Y16" s="655"/>
       <c r="Z16" s="407">
         <v>1</v>
       </c>
@@ -7923,18 +7928,18 @@
       <c r="AM16" s="428" t="s">
         <v>317</v>
       </c>
-      <c r="AN16" s="642"/>
+      <c r="AN16" s="637"/>
       <c r="AP16" s="76" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="621"/>
+      <c r="F17" s="642"/>
       <c r="I17" s="470"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="624"/>
+      <c r="O17" s="680"/>
       <c r="Q17" s="21" t="s">
         <v>531</v>
       </c>
@@ -7954,7 +7959,7 @@
       <c r="X17" s="431" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="659"/>
+      <c r="Y17" s="655"/>
       <c r="Z17" s="409"/>
       <c r="AA17" s="307"/>
       <c r="AB17" s="209"/>
@@ -7979,7 +7984,7 @@
       <c r="AK17" s="257"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="428"/>
-      <c r="AN17" s="642"/>
+      <c r="AN17" s="637"/>
       <c r="AO17" s="204" t="s">
         <v>497</v>
       </c>
@@ -8003,21 +8008,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="621"/>
+      <c r="F18" s="642"/>
       <c r="G18" s="337" t="s">
         <v>528</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="624"/>
+      <c r="O18" s="680"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="616" t="s">
+      <c r="R18" s="674" t="s">
         <v>536</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="664" t="s">
+      <c r="U18" s="613" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8027,7 +8032,7 @@
       <c r="X18" s="431" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="659"/>
+      <c r="Y18" s="655"/>
       <c r="Z18" s="409">
         <v>1</v>
       </c>
@@ -8038,38 +8043,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="257"/>
-      <c r="AF18" s="631" t="s">
+      <c r="AF18" s="651" t="s">
         <v>475</v>
       </c>
       <c r="AG18" s="257"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="657" t="s">
+      <c r="AJ18" s="653" t="s">
         <v>315</v>
       </c>
       <c r="AK18" s="257"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="428"/>
-      <c r="AN18" s="642"/>
+      <c r="AN18" s="637"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="621"/>
+      <c r="F19" s="642"/>
       <c r="I19" s="219"/>
-      <c r="O19" s="624"/>
-      <c r="R19" s="617"/>
+      <c r="O19" s="680"/>
+      <c r="R19" s="675"/>
       <c r="S19" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="U19" s="665"/>
+      <c r="U19" s="614"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="431" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="659"/>
+      <c r="Y19" s="655"/>
       <c r="Z19" s="407">
         <v>1</v>
       </c>
@@ -8078,17 +8083,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="257"/>
-      <c r="AF19" s="631"/>
+      <c r="AF19" s="651"/>
       <c r="AG19" s="257"/>
       <c r="AH19" s="257"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="657"/>
+      <c r="AJ19" s="653"/>
       <c r="AK19" s="460" t="s">
         <v>251</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="428"/>
-      <c r="AN19" s="642"/>
+      <c r="AN19" s="637"/>
       <c r="AP19" s="76" t="s">
         <v>468</v>
       </c>
@@ -8109,24 +8114,24 @@
       <c r="E20" s="437">
         <v>-1</v>
       </c>
-      <c r="F20" s="621"/>
+      <c r="F20" s="642"/>
       <c r="G20" s="337" t="s">
         <v>491</v>
       </c>
       <c r="I20" s="219"/>
-      <c r="O20" s="624"/>
-      <c r="Q20" s="626" t="s">
+      <c r="O20" s="680"/>
+      <c r="Q20" s="682" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="666"/>
+      <c r="U20" s="615"/>
       <c r="W20" s="405"/>
       <c r="X20" s="432" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="659"/>
+      <c r="Y20" s="655"/>
       <c r="Z20" s="411">
         <v>1</v>
       </c>
@@ -8151,7 +8156,7 @@
       <c r="AM20" s="381" t="s">
         <v>249</v>
       </c>
-      <c r="AN20" s="642"/>
+      <c r="AN20" s="637"/>
       <c r="AO20" s="338" t="s">
         <v>460</v>
       </c>
@@ -8172,20 +8177,20 @@
       <c r="E21" s="265">
         <v>0</v>
       </c>
-      <c r="F21" s="621"/>
+      <c r="F21" s="642"/>
       <c r="I21" s="219"/>
-      <c r="O21" s="624"/>
-      <c r="Q21" s="627"/>
+      <c r="O21" s="680"/>
+      <c r="Q21" s="683"/>
       <c r="T21" s="422"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="661"/>
+      <c r="V21" s="610"/>
       <c r="W21" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="429" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="659"/>
+      <c r="Y21" s="655"/>
       <c r="Z21" s="445">
         <v>3</v>
       </c>
@@ -8216,15 +8221,15 @@
       <c r="AM21" s="428" t="s">
         <v>545</v>
       </c>
-      <c r="AN21" s="642"/>
+      <c r="AN21" s="637"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="621"/>
+      <c r="F22" s="642"/>
       <c r="G22" s="337" t="s">
         <v>489</v>
       </c>
       <c r="I22" s="219"/>
-      <c r="O22" s="624"/>
+      <c r="O22" s="680"/>
       <c r="R22" s="434" t="s">
         <v>44</v>
       </c>
@@ -8232,14 +8237,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="662"/>
+      <c r="V22" s="611"/>
       <c r="W22" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="429" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="659"/>
+      <c r="Y22" s="655"/>
       <c r="Z22" s="415"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="415"/>
@@ -8250,7 +8255,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="631" t="s">
+      <c r="AJ22" s="651" t="s">
         <v>472</v>
       </c>
       <c r="AK22" s="257"/>
@@ -8258,7 +8263,7 @@
         <v>478</v>
       </c>
       <c r="AM22" s="300"/>
-      <c r="AN22" s="642"/>
+      <c r="AN22" s="637"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="231" t="s">
@@ -8276,22 +8281,22 @@
       <c r="E23" s="225">
         <v>1</v>
       </c>
-      <c r="F23" s="621"/>
+      <c r="F23" s="642"/>
       <c r="I23" s="219"/>
-      <c r="O23" s="624"/>
-      <c r="Q23" s="626" t="s">
+      <c r="O23" s="680"/>
+      <c r="Q23" s="682" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="662"/>
+      <c r="V23" s="611"/>
       <c r="W23" s="148"/>
       <c r="X23" s="429" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="659"/>
+      <c r="Y23" s="655"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="415"/>
@@ -8302,13 +8307,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="631"/>
+      <c r="AJ23" s="651"/>
       <c r="AK23" s="257"/>
       <c r="AL23" s="80" t="s">
         <v>507</v>
       </c>
       <c r="AM23" s="300"/>
-      <c r="AN23" s="642"/>
+      <c r="AN23" s="637"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="440" t="s">
@@ -8326,23 +8331,23 @@
       <c r="E24" s="436">
         <v>1</v>
       </c>
-      <c r="F24" s="621"/>
+      <c r="F24" s="642"/>
       <c r="G24" s="61" t="s">
         <v>490</v>
       </c>
       <c r="I24" s="219"/>
-      <c r="O24" s="624"/>
-      <c r="Q24" s="627"/>
+      <c r="O24" s="680"/>
+      <c r="Q24" s="683"/>
       <c r="T24" s="17"/>
       <c r="U24" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="662"/>
+      <c r="V24" s="611"/>
       <c r="W24" s="148"/>
       <c r="X24" s="429" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="659"/>
+      <c r="Y24" s="655"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="415"/>
@@ -8361,12 +8366,12 @@
         <v>463</v>
       </c>
       <c r="AM24" s="300"/>
-      <c r="AN24" s="642"/>
+      <c r="AN24" s="637"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="621"/>
+      <c r="F25" s="642"/>
       <c r="I25" s="219"/>
-      <c r="O25" s="624"/>
+      <c r="O25" s="680"/>
       <c r="P25" s="204" t="s">
         <v>280</v>
       </c>
@@ -8379,12 +8384,12 @@
       <c r="U25" s="400" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="663"/>
+      <c r="V25" s="612"/>
       <c r="W25" s="148"/>
       <c r="X25" s="429" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="659"/>
+      <c r="Y25" s="655"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="415"/>
@@ -8401,7 +8406,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="300"/>
-      <c r="AN25" s="642"/>
+      <c r="AN25" s="637"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="231" t="s">
@@ -8419,17 +8424,17 @@
       <c r="E26" s="380">
         <v>1</v>
       </c>
-      <c r="F26" s="621"/>
+      <c r="F26" s="642"/>
       <c r="G26" s="337" t="s">
         <v>487</v>
       </c>
       <c r="I26" s="219"/>
-      <c r="O26" s="624"/>
-      <c r="P26" s="644" t="s">
+      <c r="O26" s="680"/>
+      <c r="P26" s="639" t="s">
         <v>526</v>
       </c>
-      <c r="Q26" s="645"/>
-      <c r="R26" s="618" t="s">
+      <c r="Q26" s="640"/>
+      <c r="R26" s="676" t="s">
         <v>535</v>
       </c>
       <c r="T26" s="178"/>
@@ -8441,7 +8446,7 @@
       <c r="X26" s="429" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="659"/>
+      <c r="Y26" s="655"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="415"/>
@@ -8468,7 +8473,7 @@
       <c r="AM26" s="442" t="s">
         <v>456</v>
       </c>
-      <c r="AN26" s="642"/>
+      <c r="AN26" s="637"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8480,13 +8485,13 @@
       <c r="E27" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="622"/>
+      <c r="F27" s="678"/>
       <c r="G27" s="61" t="s">
         <v>544</v>
       </c>
       <c r="I27" s="220"/>
-      <c r="O27" s="625"/>
-      <c r="R27" s="619"/>
+      <c r="O27" s="681"/>
+      <c r="R27" s="677"/>
       <c r="S27" s="421" t="s">
         <v>54</v>
       </c>
@@ -8499,7 +8504,7 @@
       <c r="X27" s="429" t="s">
         <v>530</v>
       </c>
-      <c r="Y27" s="660"/>
+      <c r="Y27" s="656"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="416"/>
@@ -8516,10 +8521,48 @@
       <c r="AM27" s="381" t="s">
         <v>319</v>
       </c>
-      <c r="AN27" s="643"/>
+      <c r="AN27" s="638"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -8536,44 +8579,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8610,12 +8615,12 @@
       <c r="B1" s="604" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="628"/>
+      <c r="C1" s="684"/>
       <c r="D1" s="204"/>
       <c r="J1" s="604" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="628"/>
+      <c r="K1" s="684"/>
       <c r="L1" s="195" t="s">
         <v>330</v>
       </c>
@@ -9018,7 +9023,7 @@
       <c r="P1" s="398" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" s="702" t="s">
+      <c r="Q1" s="715" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9042,7 +9047,7 @@
       <c r="AA1" s="517" t="s">
         <v>437</v>
       </c>
-      <c r="AB1" s="696" t="s">
+      <c r="AB1" s="709" t="s">
         <v>594</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9064,32 +9069,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="707">
+      <c r="A2" s="694">
         <f ca="1">TODAY()</f>
         <v>45286</v>
       </c>
-      <c r="B2" s="709" t="s">
+      <c r="B2" s="696" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="646" t="s">
+      <c r="C2" s="616" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="711" t="s">
+      <c r="D2" s="698" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="713" t="s">
+      <c r="E2" s="700" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="191" t="s">
         <v>218</v>
       </c>
-      <c r="G2" s="614" t="s">
+      <c r="G2" s="660" t="s">
         <v>372</v>
       </c>
       <c r="H2" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I2" s="693" t="s">
+      <c r="I2" s="706" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="396" t="s">
@@ -9113,7 +9118,7 @@
       <c r="P2" s="399">
         <v>40</v>
       </c>
-      <c r="Q2" s="703"/>
+      <c r="Q2" s="716"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>5</v>
@@ -9138,7 +9143,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="697"/>
+      <c r="AB2" s="710"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>344</v>
@@ -9151,14 +9156,14 @@
       <c r="AL2" s="469"/>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="708"/>
-      <c r="B3" s="710"/>
-      <c r="C3" s="647"/>
-      <c r="D3" s="712"/>
-      <c r="E3" s="714"/>
-      <c r="G3" s="615"/>
+      <c r="A3" s="695"/>
+      <c r="B3" s="697"/>
+      <c r="C3" s="617"/>
+      <c r="D3" s="699"/>
+      <c r="E3" s="701"/>
+      <c r="G3" s="661"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="694"/>
+      <c r="I3" s="707"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9173,7 +9178,7 @@
       <c r="V3" s="470"/>
       <c r="W3" s="6"/>
       <c r="X3" s="470"/>
-      <c r="AB3" s="697"/>
+      <c r="AB3" s="710"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>589</v>
@@ -9198,10 +9203,10 @@
         <v>380</v>
       </c>
       <c r="B4" s="243"/>
-      <c r="C4" s="715" t="s">
+      <c r="C4" s="702" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="694"/>
+      <c r="I4" s="707"/>
       <c r="R4" s="471" t="s">
         <v>589</v>
       </c>
@@ -9213,7 +9218,7 @@
       <c r="V4" s="470"/>
       <c r="W4" s="6"/>
       <c r="X4" s="470"/>
-      <c r="AB4" s="697"/>
+      <c r="AB4" s="710"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9240,7 +9245,7 @@
       <c r="B5" s="100" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="716"/>
+      <c r="C5" s="703"/>
       <c r="D5" s="222" t="s">
         <v>102</v>
       </c>
@@ -9256,7 +9261,7 @@
       <c r="H5" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="694"/>
+      <c r="I5" s="707"/>
       <c r="J5" s="397" t="s">
         <v>268</v>
       </c>
@@ -9283,7 +9288,7 @@
       <c r="V5" s="468"/>
       <c r="W5" s="6"/>
       <c r="X5" s="468"/>
-      <c r="AB5" s="697"/>
+      <c r="AB5" s="710"/>
       <c r="AC5" s="2" t="s">
         <v>592</v>
       </c>
@@ -9301,19 +9306,19 @@
       <c r="AL5" s="468"/>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="704" t="s">
+      <c r="A6" s="691" t="s">
         <v>285</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="629"/>
-      <c r="D6" s="630"/>
+      <c r="C6" s="662"/>
+      <c r="D6" s="663"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="600"/>
-      <c r="I6" s="694"/>
+      <c r="I6" s="707"/>
       <c r="P6" s="61" t="s">
         <v>592</v>
       </c>
@@ -9325,7 +9330,7 @@
         <f>S7+S11-SUM(V2:V10)</f>
         <v>3</v>
       </c>
-      <c r="AB6" s="697"/>
+      <c r="AB6" s="710"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
@@ -9341,7 +9346,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="705"/>
+      <c r="A7" s="692"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9352,7 +9357,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="600"/>
-      <c r="I7" s="694"/>
+      <c r="I7" s="707"/>
       <c r="M7" s="16" t="s">
         <v>347</v>
       </c>
@@ -9382,7 +9387,7 @@
         <v>249</v>
       </c>
       <c r="X7" s="469"/>
-      <c r="AB7" s="697"/>
+      <c r="AB7" s="710"/>
       <c r="AC7" s="99" t="s">
         <v>593</v>
       </c>
@@ -9408,7 +9413,7 @@
       <c r="AL7" s="24"/>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="706"/>
+      <c r="A8" s="693"/>
       <c r="B8" s="212" t="s">
         <v>28</v>
       </c>
@@ -9417,7 +9422,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="600"/>
-      <c r="I8" s="694"/>
+      <c r="I8" s="707"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6"/>
       <c r="V8" s="24"/>
@@ -9425,7 +9430,7 @@
         <v>613</v>
       </c>
       <c r="X8" s="470"/>
-      <c r="AB8" s="697"/>
+      <c r="AB8" s="710"/>
       <c r="AC8" s="515"/>
       <c r="AH8" s="6" t="s">
         <v>612</v>
@@ -9452,7 +9457,7 @@
       </c>
       <c r="G9" s="600"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="694"/>
+      <c r="I9" s="707"/>
       <c r="M9" s="19" t="s">
         <v>525</v>
       </c>
@@ -9463,7 +9468,7 @@
         <v>604</v>
       </c>
       <c r="X9" s="470"/>
-      <c r="AB9" s="697"/>
+      <c r="AB9" s="710"/>
       <c r="AC9" s="515"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9487,7 +9492,7 @@
         <v>39</v>
       </c>
       <c r="G10" s="600"/>
-      <c r="I10" s="694"/>
+      <c r="I10" s="707"/>
       <c r="J10" s="24" t="s">
         <v>372</v>
       </c>
@@ -9502,7 +9507,7 @@
       <c r="V10" s="470"/>
       <c r="W10" s="6"/>
       <c r="X10" s="470"/>
-      <c r="AB10" s="697"/>
+      <c r="AB10" s="710"/>
       <c r="AC10" s="515"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9530,7 +9535,7 @@
         <v>265</v>
       </c>
       <c r="G11" s="600"/>
-      <c r="I11" s="694"/>
+      <c r="I11" s="707"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9556,13 +9561,13 @@
       <c r="S11" s="24">
         <v>3</v>
       </c>
-      <c r="U11" s="699" t="s">
+      <c r="U11" s="712" t="s">
         <v>558</v>
       </c>
-      <c r="V11" s="700"/>
-      <c r="W11" s="700"/>
-      <c r="X11" s="701"/>
-      <c r="AB11" s="698"/>
+      <c r="V11" s="713"/>
+      <c r="W11" s="713"/>
+      <c r="X11" s="714"/>
+      <c r="AB11" s="711"/>
       <c r="AC11" s="99" t="s">
         <v>595</v>
       </c>
@@ -9576,13 +9581,13 @@
         <v>8</v>
       </c>
       <c r="AG11" s="414"/>
-      <c r="AH11" s="699" t="s">
+      <c r="AH11" s="712" t="s">
         <v>603</v>
       </c>
-      <c r="AI11" s="700"/>
-      <c r="AJ11" s="700"/>
-      <c r="AK11" s="700"/>
-      <c r="AL11" s="701"/>
+      <c r="AI11" s="713"/>
+      <c r="AJ11" s="713"/>
+      <c r="AK11" s="713"/>
+      <c r="AL11" s="714"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="227" t="s">
@@ -9593,7 +9598,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="600"/>
-      <c r="I12" s="694"/>
+      <c r="I12" s="707"/>
       <c r="J12" s="24" t="s">
         <v>516</v>
       </c>
@@ -9626,7 +9631,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="600"/>
-      <c r="I13" s="694"/>
+      <c r="I13" s="707"/>
       <c r="J13" s="108" t="s">
         <v>548</v>
       </c>
@@ -9670,7 +9675,7 @@
       <c r="H14" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="694"/>
+      <c r="I14" s="707"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9697,7 +9702,7 @@
       <c r="H15" s="271">
         <v>0</v>
       </c>
-      <c r="I15" s="694"/>
+      <c r="I15" s="707"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9728,7 +9733,7 @@
       <c r="D16" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="I16" s="694"/>
+      <c r="I16" s="707"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9764,7 +9769,7 @@
       <c r="G17" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I17" s="694"/>
+      <c r="I17" s="707"/>
       <c r="L17" s="2" t="s">
         <v>426</v>
       </c>
@@ -9778,13 +9783,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="694"/>
+      <c r="I18" s="707"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="691" t="s">
+      <c r="O18" s="704" t="s">
         <v>517</v>
       </c>
-      <c r="P18" s="692"/>
+      <c r="P18" s="705"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9804,7 +9809,7 @@
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="694"/>
+      <c r="I19" s="707"/>
       <c r="M19" s="21" t="s">
         <v>425</v>
       </c>
@@ -9834,7 +9839,7 @@
       <c r="G20" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I20" s="694"/>
+      <c r="I20" s="707"/>
       <c r="K20" s="19" t="s">
         <v>422</v>
       </c>
@@ -9863,7 +9868,7 @@
       <c r="X20" s="468"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="694"/>
+      <c r="I21" s="707"/>
       <c r="M21" s="216" t="s">
         <v>411</v>
       </c>
@@ -9893,7 +9898,7 @@
       <c r="G22" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I22" s="694"/>
+      <c r="I22" s="707"/>
       <c r="P22" s="99" t="s">
         <v>591</v>
       </c>
@@ -9908,7 +9913,7 @@
       <c r="E23" s="283" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="694"/>
+      <c r="I23" s="707"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>11</v>
@@ -9925,7 +9930,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="694"/>
+      <c r="I24" s="707"/>
       <c r="U24" s="35"/>
       <c r="V24" s="509">
         <v>2</v>
@@ -9953,7 +9958,7 @@
       <c r="H25" s="191" t="s">
         <v>266</v>
       </c>
-      <c r="I25" s="694"/>
+      <c r="I25" s="707"/>
       <c r="J25" s="397" t="s">
         <v>269</v>
       </c>
@@ -9998,7 +10003,7 @@
       <c r="H26" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="694"/>
+      <c r="I26" s="707"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10033,7 +10038,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="694"/>
+      <c r="I27" s="707"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10060,7 +10065,7 @@
       <c r="E28" s="215">
         <v>2</v>
       </c>
-      <c r="I28" s="694"/>
+      <c r="I28" s="707"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10082,7 +10087,7 @@
       <c r="H29" s="191" t="s">
         <v>267</v>
       </c>
-      <c r="I29" s="695"/>
+      <c r="I29" s="708"/>
       <c r="J29" s="324"/>
       <c r="L29" s="96" t="s">
         <v>273</v>
@@ -10140,6 +10145,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10151,13 +10163,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10168,8 +10173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="Q18" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10269,14 +10274,14 @@
         <f ca="1">TODAY()</f>
         <v>45286</v>
       </c>
-      <c r="T1" s="736"/>
+      <c r="T1" s="743"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="720" t="s">
+      <c r="X1" s="727" t="s">
         <v>441</v>
       </c>
-      <c r="Y1" s="721"/>
+      <c r="Y1" s="728"/>
       <c r="Z1" s="306">
         <f>68-(W8+Y3+X3+U3)</f>
         <v>0</v>
@@ -10292,27 +10297,27 @@
       <c r="AD1" s="302" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="722" t="s">
+      <c r="AE1" s="729" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="723"/>
-      <c r="AG1" s="724"/>
-      <c r="AH1" s="725" t="s">
+      <c r="AF1" s="730"/>
+      <c r="AG1" s="731"/>
+      <c r="AH1" s="732" t="s">
         <v>293</v>
       </c>
-      <c r="AI1" s="726"/>
-      <c r="AJ1" s="727"/>
-      <c r="AK1" s="614" t="s">
+      <c r="AI1" s="733"/>
+      <c r="AJ1" s="734"/>
+      <c r="AK1" s="660" t="s">
         <v>616</v>
       </c>
       <c r="AL1" s="551" t="s">
         <v>617</v>
       </c>
-      <c r="AM1" s="717" t="s">
+      <c r="AM1" s="724" t="s">
         <v>444</v>
       </c>
-      <c r="AN1" s="718"/>
-      <c r="AO1" s="719"/>
+      <c r="AN1" s="725"/>
+      <c r="AO1" s="726"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10325,29 +10330,29 @@
       </c>
       <c r="J2" s="318">
         <f>K2+L2</f>
-        <v>39</v>
-      </c>
-      <c r="K2" s="744">
+        <v>29</v>
+      </c>
+      <c r="K2" s="722">
         <f>SUM(K4:K37)</f>
         <v>6</v>
       </c>
-      <c r="L2" s="742">
+      <c r="L2" s="720">
         <f>SUM(L4:L37)</f>
-        <v>33</v>
-      </c>
-      <c r="M2" s="728">
+        <v>23</v>
+      </c>
+      <c r="M2" s="735">
         <f>SUM(M5:M30)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="730">
+      <c r="N2" s="737">
         <f>SUM(N4:N29)</f>
         <v>9</v>
       </c>
-      <c r="O2" s="732">
+      <c r="O2" s="739">
         <f>SUM(O4:O29)</f>
         <v>9</v>
       </c>
-      <c r="P2" s="638">
+      <c r="P2" s="667">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-3</v>
       </c>
@@ -10360,14 +10365,14 @@
       <c r="S2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="T2" s="737"/>
+      <c r="T2" s="744"/>
       <c r="U2" s="537" t="s">
         <v>262</v>
       </c>
       <c r="V2" s="482" t="s">
         <v>219</v>
       </c>
-      <c r="W2" s="734" t="s">
+      <c r="W2" s="741" t="s">
         <v>234</v>
       </c>
       <c r="X2" s="483" t="s">
@@ -10409,7 +10414,7 @@
       <c r="AJ2" s="150" t="s">
         <v>288</v>
       </c>
-      <c r="AK2" s="615"/>
+      <c r="AK2" s="661"/>
       <c r="AL2" s="592" t="s">
         <v>288</v>
       </c>
@@ -10437,12 +10442,12 @@
         <f>V3+X3+Y3+U3</f>
         <v>68</v>
       </c>
-      <c r="K3" s="745"/>
-      <c r="L3" s="743"/>
-      <c r="M3" s="729"/>
-      <c r="N3" s="731"/>
-      <c r="O3" s="733"/>
-      <c r="P3" s="639"/>
+      <c r="K3" s="723"/>
+      <c r="L3" s="721"/>
+      <c r="M3" s="736"/>
+      <c r="N3" s="738"/>
+      <c r="O3" s="740"/>
+      <c r="P3" s="668"/>
       <c r="Q3" s="172">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10450,7 +10455,7 @@
       <c r="S3" s="159" t="s">
         <v>244</v>
       </c>
-      <c r="T3" s="738"/>
+      <c r="T3" s="745"/>
       <c r="U3" s="538">
         <f>SUM(U4:U29)</f>
         <v>12</v>
@@ -10459,7 +10464,7 @@
         <f>SUM(V4:V29)</f>
         <v>39</v>
       </c>
-      <c r="W3" s="735"/>
+      <c r="W3" s="742"/>
       <c r="X3" s="485">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>8</v>
@@ -10565,7 +10570,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="739">
+      <c r="P4" s="717">
         <v>1</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10651,7 +10656,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="740"/>
+      <c r="P5" s="718"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>340</v>
@@ -10745,7 +10750,7 @@
         <f>AC6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="740"/>
+      <c r="P6" s="718"/>
       <c r="Q6" s="19" t="s">
         <v>335</v>
       </c>
@@ -10848,7 +10853,7 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="740"/>
+      <c r="P7" s="718"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>335</v>
@@ -10953,9 +10958,7 @@
       <c r="K8" s="576">
         <v>1</v>
       </c>
-      <c r="L8" s="582">
-        <v>10</v>
-      </c>
+      <c r="L8" s="582"/>
       <c r="M8" s="107">
         <v>0</v>
       </c>
@@ -10966,7 +10969,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="740"/>
+      <c r="P8" s="718"/>
       <c r="Q8" s="21" t="s">
         <v>233</v>
       </c>
@@ -11057,7 +11060,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="740"/>
+      <c r="P9" s="718"/>
       <c r="Q9" s="21" t="s">
         <v>335</v>
       </c>
@@ -11162,7 +11165,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="740"/>
+      <c r="P10" s="718"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>340</v>
@@ -11252,7 +11255,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="740"/>
+      <c r="P11" s="718"/>
       <c r="Q11" s="21" t="s">
         <v>335</v>
       </c>
@@ -11317,14 +11320,14 @@
       <c r="AR11" s="508"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="676" t="s">
+      <c r="A12" s="627" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="626" t="s">
+      <c r="E12" s="682" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="262"/>
@@ -11349,7 +11352,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P12" s="740"/>
+      <c r="P12" s="718"/>
       <c r="Q12" s="21" t="s">
         <v>335</v>
       </c>
@@ -11426,14 +11429,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="678"/>
+      <c r="A13" s="629"/>
       <c r="B13" s="584">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="627"/>
+      <c r="E13" s="683"/>
       <c r="F13" s="172">
         <v>0</v>
       </c>
@@ -11457,7 +11460,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="740"/>
+      <c r="P13" s="718"/>
       <c r="Q13" s="21" t="s">
         <v>335</v>
       </c>
@@ -11539,7 +11542,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="740"/>
+      <c r="P14" s="718"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="200" t="s">
         <v>339</v>
@@ -11640,7 +11643,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="740"/>
+      <c r="P15" s="718"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="200" t="s">
         <v>339</v>
@@ -11732,7 +11735,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="740"/>
+      <c r="P16" s="718"/>
       <c r="Q16" s="21" t="s">
         <v>335</v>
       </c>
@@ -11833,7 +11836,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="740"/>
+      <c r="P17" s="718"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>341</v>
@@ -11933,7 +11936,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="740"/>
+      <c r="P18" s="718"/>
       <c r="Q18" s="21" t="s">
         <v>335</v>
       </c>
@@ -12023,7 +12026,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="740"/>
+      <c r="P19" s="718"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>334</v>
@@ -12131,11 +12134,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="741"/>
+      <c r="P20" s="719"/>
       <c r="Q20" s="604" t="s">
         <v>335</v>
       </c>
-      <c r="R20" s="628"/>
+      <c r="R20" s="684"/>
       <c r="S20" s="534" t="s">
         <v>85</v>
       </c>
@@ -12395,7 +12398,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="683" t="s">
+      <c r="E23" s="634" t="s">
         <v>289</v>
       </c>
       <c r="F23" s="180"/>
@@ -12500,7 +12503,7 @@
       <c r="C24" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E24" s="684"/>
+      <c r="E24" s="635"/>
       <c r="F24" s="172"/>
       <c r="H24" s="42"/>
       <c r="J24" s="571" t="s">
@@ -12525,7 +12528,7 @@
       <c r="Q24" s="604" t="s">
         <v>335</v>
       </c>
-      <c r="R24" s="628"/>
+      <c r="R24" s="684"/>
       <c r="S24" s="534" t="s">
         <v>249</v>
       </c>
@@ -13181,8 +13184,8 @@
       <c r="AR31" s="508"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="631"/>
-      <c r="B32" s="631"/>
+      <c r="A32" s="651"/>
+      <c r="B32" s="651"/>
       <c r="J32" s="572"/>
       <c r="K32" s="587"/>
       <c r="L32" s="581">
@@ -13654,7 +13657,7 @@
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D37" s="382">
         <v>1</v>
@@ -13759,15 +13762,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13779,6 +13773,15 @@
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13846,7 +13849,7 @@
       <c r="V1" s="604" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="628"/>
+      <c r="W1" s="684"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13865,7 +13868,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="753" t="s">
+      <c r="AD1" s="760" t="s">
         <v>211</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13882,10 +13885,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="752" t="s">
+      <c r="F2" s="791" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="780" t="s">
+      <c r="G2" s="748" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13913,10 +13916,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="720" t="s">
+      <c r="V2" s="727" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="721"/>
+      <c r="W2" s="728"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -13935,7 +13938,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="754"/>
+      <c r="AD2" s="761"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -13954,8 +13957,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="680"/>
-      <c r="G3" s="781"/>
+      <c r="F3" s="631"/>
+      <c r="G3" s="749"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -13966,13 +13969,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="790" t="s">
+      <c r="O3" s="758" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="772" t="s">
+      <c r="P3" s="779" t="s">
         <v>217</v>
       </c>
-      <c r="Q3" s="773"/>
+      <c r="Q3" s="780"/>
       <c r="S3" s="57" t="s">
         <v>218</v>
       </c>
@@ -13982,15 +13985,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="754"/>
+      <c r="AD3" s="761"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="781"/>
+      <c r="G4" s="749"/>
       <c r="H4" s="6"/>
       <c r="L4" s="688" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="791"/>
+      <c r="O4" s="759"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14004,8 +14007,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="606"/>
-      <c r="AA4" s="628"/>
-      <c r="AD4" s="754"/>
+      <c r="AA4" s="684"/>
+      <c r="AD4" s="761"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14020,21 +14023,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="781"/>
+      <c r="G5" s="749"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="759" t="s">
+      <c r="K5" s="766" t="s">
         <v>215</v>
       </c>
-      <c r="L5" s="774"/>
+      <c r="L5" s="781"/>
       <c r="M5" s="2" t="s">
         <v>213</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="O5" s="791"/>
+      <c r="O5" s="759"/>
       <c r="P5" s="108" t="s">
         <v>214</v>
       </c>
@@ -14050,11 +14053,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="762" t="s">
+      <c r="Y5" s="769" t="s">
         <v>282</v>
       </c>
-      <c r="Z5" s="763"/>
-      <c r="AD5" s="754"/>
+      <c r="Z5" s="770"/>
+      <c r="AD5" s="761"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14064,16 +14067,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="781"/>
+      <c r="G6" s="749"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="760"/>
-      <c r="L6" s="774"/>
-      <c r="O6" s="791"/>
+      <c r="K6" s="767"/>
+      <c r="L6" s="781"/>
+      <c r="O6" s="759"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14083,23 +14086,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="754"/>
+      <c r="AD6" s="761"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="781"/>
+      <c r="G7" s="749"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="760"/>
-      <c r="L7" s="774"/>
+      <c r="K7" s="767"/>
+      <c r="L7" s="781"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="791"/>
+      <c r="O7" s="759"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="754"/>
+      <c r="AD7" s="761"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14112,7 +14115,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="781"/>
+      <c r="G8" s="749"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14122,41 +14125,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="760"/>
-      <c r="L8" s="774"/>
-      <c r="O8" s="791"/>
+      <c r="K8" s="767"/>
+      <c r="L8" s="781"/>
+      <c r="O8" s="759"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="756" t="s">
+      <c r="S8" s="763" t="s">
         <v>210</v>
       </c>
-      <c r="T8" s="757"/>
-      <c r="U8" s="757"/>
-      <c r="V8" s="757"/>
-      <c r="W8" s="757"/>
-      <c r="X8" s="757"/>
-      <c r="Y8" s="757"/>
-      <c r="Z8" s="757"/>
-      <c r="AA8" s="757"/>
-      <c r="AB8" s="757"/>
-      <c r="AC8" s="758"/>
-      <c r="AD8" s="754"/>
+      <c r="T8" s="764"/>
+      <c r="U8" s="764"/>
+      <c r="V8" s="764"/>
+      <c r="W8" s="764"/>
+      <c r="X8" s="764"/>
+      <c r="Y8" s="764"/>
+      <c r="Z8" s="764"/>
+      <c r="AA8" s="764"/>
+      <c r="AB8" s="764"/>
+      <c r="AC8" s="765"/>
+      <c r="AD8" s="761"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="746"/>
-      <c r="G9" s="781"/>
+      <c r="C9" s="785"/>
+      <c r="G9" s="749"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="760"/>
-      <c r="L9" s="784" t="s">
+      <c r="K9" s="767"/>
+      <c r="L9" s="752" t="s">
         <v>216</v>
       </c>
-      <c r="M9" s="785"/>
-      <c r="N9" s="786"/>
-      <c r="O9" s="791"/>
+      <c r="M9" s="753"/>
+      <c r="N9" s="754"/>
+      <c r="O9" s="759"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="754"/>
+      <c r="AD9" s="761"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="747"/>
+      <c r="C10" s="786"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14164,7 +14167,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="781"/>
+      <c r="G10" s="749"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14172,33 +14175,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="760"/>
-      <c r="M10" s="749" t="s">
+      <c r="K10" s="767"/>
+      <c r="M10" s="788" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="750"/>
-      <c r="O10" s="750"/>
-      <c r="P10" s="750"/>
-      <c r="Q10" s="750"/>
-      <c r="R10" s="750"/>
-      <c r="S10" s="750"/>
-      <c r="T10" s="750"/>
-      <c r="U10" s="750"/>
-      <c r="V10" s="750"/>
-      <c r="W10" s="750"/>
-      <c r="X10" s="750"/>
-      <c r="Y10" s="750"/>
-      <c r="Z10" s="750"/>
-      <c r="AA10" s="750"/>
-      <c r="AB10" s="750"/>
-      <c r="AC10" s="751"/>
-      <c r="AD10" s="754"/>
+      <c r="N10" s="789"/>
+      <c r="O10" s="789"/>
+      <c r="P10" s="789"/>
+      <c r="Q10" s="789"/>
+      <c r="R10" s="789"/>
+      <c r="S10" s="789"/>
+      <c r="T10" s="789"/>
+      <c r="U10" s="789"/>
+      <c r="V10" s="789"/>
+      <c r="W10" s="789"/>
+      <c r="X10" s="789"/>
+      <c r="Y10" s="789"/>
+      <c r="Z10" s="789"/>
+      <c r="AA10" s="789"/>
+      <c r="AB10" s="789"/>
+      <c r="AC10" s="790"/>
+      <c r="AD10" s="761"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="748"/>
-      <c r="G11" s="781"/>
+      <c r="C11" s="787"/>
+      <c r="G11" s="749"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="760"/>
+      <c r="K11" s="767"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14206,17 +14209,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="770" t="s">
+      <c r="Z11" s="777" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="771"/>
+      <c r="AA11" s="778"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="754"/>
+      <c r="AD11" s="761"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14229,7 +14232,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="781"/>
+      <c r="G12" s="749"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14237,8 +14240,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="760"/>
-      <c r="L12" s="775" t="s">
+      <c r="K12" s="767"/>
+      <c r="L12" s="782" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14269,25 +14272,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="764" t="s">
+      <c r="AA12" s="771" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="765"/>
+      <c r="AB12" s="772"/>
       <c r="AC12" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="AD12" s="754"/>
+      <c r="AD12" s="761"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="746"/>
-      <c r="G13" s="781"/>
-      <c r="K13" s="760"/>
-      <c r="L13" s="776"/>
+      <c r="C13" s="785"/>
+      <c r="G13" s="749"/>
+      <c r="K13" s="767"/>
+      <c r="L13" s="783"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="783" t="s">
+      <c r="Q13" s="751" t="s">
         <v>208</v>
       </c>
-      <c r="R13" s="645"/>
+      <c r="R13" s="640"/>
       <c r="S13" s="600"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14296,17 +14299,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="766"/>
-      <c r="AB13" s="767"/>
-      <c r="AD13" s="754"/>
+      <c r="AA13" s="773"/>
+      <c r="AB13" s="774"/>
+      <c r="AD13" s="761"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C14" s="748"/>
+      <c r="C14" s="787"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="781"/>
+      <c r="G14" s="749"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14314,8 +14317,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="760"/>
-      <c r="L14" s="776"/>
+      <c r="K14" s="767"/>
+      <c r="L14" s="783"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14336,9 +14339,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="766"/>
-      <c r="AB14" s="767"/>
-      <c r="AD14" s="754"/>
+      <c r="AA14" s="773"/>
+      <c r="AB14" s="774"/>
+      <c r="AD14" s="761"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14353,19 +14356,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="781"/>
+      <c r="G15" s="749"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="760"/>
-      <c r="L15" s="777"/>
-      <c r="Q15" s="783" t="s">
+      <c r="K15" s="767"/>
+      <c r="L15" s="784"/>
+      <c r="Q15" s="751" t="s">
         <v>209</v>
       </c>
-      <c r="R15" s="645"/>
+      <c r="R15" s="640"/>
       <c r="S15" s="600"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14374,14 +14377,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="766"/>
-      <c r="AB15" s="767"/>
-      <c r="AD15" s="754"/>
+      <c r="AA15" s="773"/>
+      <c r="AB15" s="774"/>
+      <c r="AD15" s="761"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="781"/>
-      <c r="K16" s="760"/>
+      <c r="G16" s="749"/>
+      <c r="K16" s="767"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14400,24 +14403,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="766"/>
-      <c r="AB16" s="767"/>
-      <c r="AD16" s="754"/>
+      <c r="AA16" s="773"/>
+      <c r="AB16" s="774"/>
+      <c r="AD16" s="761"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="778" t="s">
+      <c r="F17" s="746" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="781"/>
+      <c r="G17" s="749"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="760"/>
+      <c r="K17" s="767"/>
       <c r="S17" s="600"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14425,9 +14428,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="766"/>
-      <c r="AB17" s="767"/>
-      <c r="AD17" s="754"/>
+      <c r="AA17" s="773"/>
+      <c r="AB17" s="774"/>
+      <c r="AD17" s="761"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14437,15 +14440,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="779"/>
-      <c r="G18" s="781"/>
+      <c r="F18" s="747"/>
+      <c r="G18" s="749"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="760"/>
+      <c r="K18" s="767"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14456,42 +14459,39 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="768"/>
-      <c r="AB18" s="769"/>
-      <c r="AD18" s="754"/>
+      <c r="AA18" s="775"/>
+      <c r="AB18" s="776"/>
+      <c r="AD18" s="761"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="782"/>
-      <c r="K19" s="761"/>
+      <c r="G19" s="750"/>
+      <c r="K19" s="768"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="787" t="s">
+      <c r="R19" s="755" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="788"/>
-      <c r="T19" s="789"/>
+      <c r="S19" s="756"/>
+      <c r="T19" s="757"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="755"/>
+      <c r="AD19" s="762"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14503,11 +14503,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.2.0.xlsx
+++ b/System_2.2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B209558C-FB2B-4B09-9D4D-5D94D6EAEF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDD1A39-8BD3-47C1-A315-5CF2B80377D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5033,6 +5033,159 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5051,12 +5204,6 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5111,169 +5258,61 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5315,43 +5354,70 @@
     <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5375,112 +5441,25 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5558,25 +5537,46 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6909,7 +6909,7 @@
       <c r="H1" s="97" t="s">
         <v>343</v>
       </c>
-      <c r="I1" s="660" t="s">
+      <c r="I1" s="614" t="s">
         <v>369</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6945,7 +6945,7 @@
       <c r="X1" s="430" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="654" t="s">
+      <c r="Y1" s="658" t="s">
         <v>529</v>
       </c>
       <c r="Z1" s="406">
@@ -6970,7 +6970,7 @@
         <v>498</v>
       </c>
       <c r="AM1" s="402"/>
-      <c r="AN1" s="636"/>
+      <c r="AN1" s="641"/>
       <c r="AO1" s="338" t="s">
         <v>469</v>
       </c>
@@ -6979,23 +6979,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="618">
+      <c r="A2" s="667">
         <f ca="1">TODAY()</f>
-        <v>45286</v>
-      </c>
-      <c r="B2" s="620" t="s">
+        <v>45287</v>
+      </c>
+      <c r="B2" s="669" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="616" t="s">
+      <c r="C2" s="646" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="622" t="s">
+      <c r="D2" s="671" t="s">
         <v>355</v>
       </c>
-      <c r="E2" s="670" t="s">
+      <c r="E2" s="610" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="641" t="s">
+      <c r="F2" s="620" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="393" t="s">
@@ -7004,31 +7004,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="661"/>
+      <c r="I2" s="615"/>
       <c r="J2" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="672" t="s">
+      <c r="K2" s="612" t="s">
         <v>342</v>
       </c>
-      <c r="L2" s="673"/>
-      <c r="M2" s="641" t="s">
+      <c r="L2" s="613"/>
+      <c r="M2" s="620" t="s">
         <v>102</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="645" t="s">
+      <c r="O2" s="650" t="s">
         <v>102</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="616" t="s">
+      <c r="Q2" s="646" t="s">
         <v>143</v>
       </c>
       <c r="R2" s="599"/>
-      <c r="S2" s="658" t="s">
+      <c r="S2" s="635" t="s">
         <v>148</v>
       </c>
       <c r="T2" s="89"/>
@@ -7038,7 +7038,7 @@
       <c r="X2" s="431" t="s">
         <v>156</v>
       </c>
-      <c r="Y2" s="655"/>
+      <c r="Y2" s="659"/>
       <c r="Z2" s="407">
         <v>1</v>
       </c>
@@ -7061,15 +7061,15 @@
         <v>463</v>
       </c>
       <c r="AM2" s="428"/>
-      <c r="AN2" s="637"/>
+      <c r="AN2" s="642"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="619"/>
-      <c r="B3" s="621"/>
-      <c r="C3" s="617"/>
-      <c r="D3" s="623"/>
-      <c r="E3" s="671"/>
-      <c r="F3" s="642"/>
+      <c r="A3" s="668"/>
+      <c r="B3" s="670"/>
+      <c r="C3" s="647"/>
+      <c r="D3" s="672"/>
+      <c r="E3" s="611"/>
+      <c r="F3" s="621"/>
       <c r="G3" s="394" t="s">
         <v>28</v>
       </c>
@@ -7088,17 +7088,17 @@
       <c r="L3" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="642"/>
+      <c r="M3" s="621"/>
       <c r="N3" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="646"/>
+      <c r="O3" s="651"/>
       <c r="P3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="617"/>
+      <c r="Q3" s="647"/>
       <c r="R3" s="601"/>
-      <c r="S3" s="659"/>
+      <c r="S3" s="637"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7106,7 +7106,7 @@
       <c r="X3" s="431" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="655"/>
+      <c r="Y3" s="659"/>
       <c r="Z3" s="408">
         <v>1</v>
       </c>
@@ -7115,7 +7115,7 @@
       <c r="AC3" s="100" t="s">
         <v>480</v>
       </c>
-      <c r="AD3" s="657" t="s">
+      <c r="AD3" s="632" t="s">
         <v>455</v>
       </c>
       <c r="AE3" s="257"/>
@@ -7127,16 +7127,16 @@
       <c r="AK3" s="257"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="428"/>
-      <c r="AN3" s="637"/>
+      <c r="AN3" s="642"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="238" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="634" t="s">
+      <c r="B4" s="683" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="616" t="s">
+      <c r="C4" s="646" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="347" t="s">
@@ -7145,7 +7145,7 @@
       <c r="E4" s="378">
         <v>2</v>
       </c>
-      <c r="F4" s="642"/>
+      <c r="F4" s="621"/>
       <c r="G4" s="381" t="s">
         <v>201</v>
       </c>
@@ -7162,11 +7162,11 @@
         <v>150</v>
       </c>
       <c r="L4" s="204"/>
-      <c r="M4" s="642"/>
+      <c r="M4" s="621"/>
       <c r="N4" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="646"/>
+      <c r="O4" s="651"/>
       <c r="P4" s="2" t="s">
         <v>191</v>
       </c>
@@ -7188,12 +7188,12 @@
       <c r="X4" s="431" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="655"/>
+      <c r="Y4" s="659"/>
       <c r="Z4" s="409"/>
       <c r="AA4" s="307"/>
       <c r="AB4" s="209"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="657"/>
+      <c r="AD4" s="632"/>
       <c r="AE4" s="257"/>
       <c r="AF4" s="257"/>
       <c r="AG4" s="16"/>
@@ -7203,37 +7203,37 @@
       <c r="AK4" s="257"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="428"/>
-      <c r="AN4" s="637"/>
+      <c r="AN4" s="642"/>
       <c r="AO4" s="338" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="660" t="s">
+      <c r="A5" s="614" t="s">
         <v>418</v>
       </c>
-      <c r="B5" s="635"/>
-      <c r="C5" s="617"/>
+      <c r="B5" s="684"/>
+      <c r="C5" s="647"/>
       <c r="D5" s="61" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="379">
         <v>1</v>
       </c>
-      <c r="F5" s="642"/>
-      <c r="G5" s="626" t="s">
+      <c r="F5" s="621"/>
+      <c r="G5" s="675" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="626"/>
-      <c r="I5" s="626"/>
-      <c r="J5" s="626"/>
-      <c r="K5" s="626"/>
-      <c r="L5" s="627"/>
-      <c r="M5" s="642"/>
+      <c r="H5" s="675"/>
+      <c r="I5" s="675"/>
+      <c r="J5" s="675"/>
+      <c r="K5" s="675"/>
+      <c r="L5" s="676"/>
+      <c r="M5" s="621"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="646"/>
+      <c r="O5" s="651"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7241,7 +7241,7 @@
       <c r="X5" s="431" t="s">
         <v>159</v>
       </c>
-      <c r="Y5" s="655"/>
+      <c r="Y5" s="659"/>
       <c r="Z5" s="409">
         <v>1</v>
       </c>
@@ -7264,24 +7264,24 @@
       <c r="AK5" s="257"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="428"/>
-      <c r="AN5" s="637"/>
+      <c r="AN5" s="642"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="661"/>
-      <c r="B6" s="632" t="s">
+      <c r="A6" s="615"/>
+      <c r="B6" s="681" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="662"/>
-      <c r="D6" s="663"/>
-      <c r="F6" s="642"/>
-      <c r="G6" s="628"/>
-      <c r="H6" s="628"/>
-      <c r="I6" s="628"/>
-      <c r="J6" s="628"/>
-      <c r="K6" s="628"/>
-      <c r="L6" s="629"/>
-      <c r="M6" s="642"/>
-      <c r="O6" s="646"/>
+      <c r="C6" s="629"/>
+      <c r="D6" s="630"/>
+      <c r="F6" s="621"/>
+      <c r="G6" s="677"/>
+      <c r="H6" s="677"/>
+      <c r="I6" s="677"/>
+      <c r="J6" s="677"/>
+      <c r="K6" s="677"/>
+      <c r="L6" s="678"/>
+      <c r="M6" s="621"/>
+      <c r="O6" s="651"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7291,7 +7291,7 @@
       <c r="X6" s="431" t="s">
         <v>160</v>
       </c>
-      <c r="Y6" s="655"/>
+      <c r="Y6" s="659"/>
       <c r="Z6" s="407">
         <v>1</v>
       </c>
@@ -7305,16 +7305,16 @@
       <c r="AF6" s="257"/>
       <c r="AG6" s="257"/>
       <c r="AH6" s="257"/>
-      <c r="AI6" s="651"/>
+      <c r="AI6" s="631"/>
       <c r="AJ6" s="441" t="s">
         <v>458</v>
       </c>
-      <c r="AK6" s="651" t="s">
+      <c r="AK6" s="631" t="s">
         <v>251</v>
       </c>
       <c r="AL6" s="257"/>
       <c r="AM6" s="428"/>
-      <c r="AN6" s="637"/>
+      <c r="AN6" s="642"/>
       <c r="AO6" s="338" t="s">
         <v>470</v>
       </c>
@@ -7323,7 +7323,7 @@
       <c r="A7" s="232" t="s">
         <v>572</v>
       </c>
-      <c r="B7" s="633"/>
+      <c r="B7" s="682"/>
       <c r="C7" s="202" t="s">
         <v>374</v>
       </c>
@@ -7333,7 +7333,7 @@
       <c r="E7" s="265">
         <v>3</v>
       </c>
-      <c r="F7" s="642"/>
+      <c r="F7" s="621"/>
       <c r="G7" s="395">
         <v>0</v>
       </c>
@@ -7352,8 +7352,8 @@
       <c r="L7" s="212">
         <v>0</v>
       </c>
-      <c r="M7" s="642"/>
-      <c r="O7" s="646"/>
+      <c r="M7" s="621"/>
+      <c r="O7" s="651"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7367,7 +7367,7 @@
       <c r="X7" s="431" t="s">
         <v>161</v>
       </c>
-      <c r="Y7" s="655"/>
+      <c r="Y7" s="659"/>
       <c r="Z7" s="407">
         <v>1</v>
       </c>
@@ -7377,18 +7377,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="257"/>
       <c r="AF7" s="257"/>
-      <c r="AG7" s="657" t="s">
+      <c r="AG7" s="632" t="s">
         <v>454</v>
       </c>
       <c r="AH7" s="257"/>
-      <c r="AI7" s="651"/>
+      <c r="AI7" s="631"/>
       <c r="AJ7" s="257"/>
-      <c r="AK7" s="651"/>
+      <c r="AK7" s="631"/>
       <c r="AL7" s="80" t="s">
         <v>496</v>
       </c>
       <c r="AM7" s="428"/>
-      <c r="AN7" s="637"/>
+      <c r="AN7" s="642"/>
       <c r="AP7" s="76" t="s">
         <v>471</v>
       </c>
@@ -7405,27 +7405,27 @@
         <f>SUM(G7:N9)</f>
         <v>15</v>
       </c>
-      <c r="F8" s="642"/>
-      <c r="G8" s="627">
-        <v>0</v>
-      </c>
-      <c r="H8" s="624" t="s">
+      <c r="F8" s="621"/>
+      <c r="G8" s="676">
+        <v>0</v>
+      </c>
+      <c r="H8" s="673" t="s">
         <v>104</v>
       </c>
       <c r="I8" s="599">
         <v>0</v>
       </c>
-      <c r="J8" s="624" t="s">
+      <c r="J8" s="673" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="630"/>
-      <c r="L8" s="664"/>
-      <c r="M8" s="643"/>
-      <c r="N8" s="667">
+      <c r="K8" s="679"/>
+      <c r="L8" s="633"/>
+      <c r="M8" s="648"/>
+      <c r="N8" s="638">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="646"/>
+      <c r="O8" s="651"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7435,7 +7435,7 @@
       <c r="X8" s="431" t="s">
         <v>162</v>
       </c>
-      <c r="Y8" s="655"/>
+      <c r="Y8" s="659"/>
       <c r="Z8" s="409"/>
       <c r="AA8" s="307"/>
       <c r="AB8" s="209"/>
@@ -7443,14 +7443,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="257"/>
       <c r="AF8" s="257"/>
-      <c r="AG8" s="657"/>
+      <c r="AG8" s="632"/>
       <c r="AH8" s="257"/>
-      <c r="AI8" s="651"/>
+      <c r="AI8" s="631"/>
       <c r="AJ8" s="257"/>
       <c r="AK8" s="257"/>
       <c r="AL8" s="257"/>
       <c r="AM8" s="428"/>
-      <c r="AN8" s="637"/>
+      <c r="AN8" s="642"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="232" t="s">
@@ -7465,17 +7465,17 @@
       <c r="D9" s="348" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="642"/>
-      <c r="G9" s="629"/>
-      <c r="H9" s="625"/>
+      <c r="F9" s="621"/>
+      <c r="G9" s="678"/>
+      <c r="H9" s="674"/>
       <c r="I9" s="601"/>
-      <c r="J9" s="625"/>
-      <c r="K9" s="631"/>
-      <c r="L9" s="665"/>
-      <c r="M9" s="644"/>
-      <c r="N9" s="668"/>
-      <c r="O9" s="647"/>
-      <c r="S9" s="658" t="s">
+      <c r="J9" s="674"/>
+      <c r="K9" s="680"/>
+      <c r="L9" s="634"/>
+      <c r="M9" s="649"/>
+      <c r="N9" s="639"/>
+      <c r="O9" s="652"/>
+      <c r="S9" s="635" t="s">
         <v>61</v>
       </c>
       <c r="T9" s="89"/>
@@ -7487,7 +7487,7 @@
       <c r="X9" s="431" t="s">
         <v>163</v>
       </c>
-      <c r="Y9" s="655"/>
+      <c r="Y9" s="659"/>
       <c r="Z9" s="410"/>
       <c r="AA9" s="307"/>
       <c r="AB9" s="209"/>
@@ -7497,16 +7497,16 @@
       </c>
       <c r="AE9" s="257"/>
       <c r="AF9" s="257"/>
-      <c r="AG9" s="657"/>
+      <c r="AG9" s="632"/>
       <c r="AH9" s="257"/>
-      <c r="AI9" s="651"/>
+      <c r="AI9" s="631"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="651" t="s">
+      <c r="AK9" s="631" t="s">
         <v>251</v>
       </c>
       <c r="AL9" s="257"/>
       <c r="AM9" s="428"/>
-      <c r="AN9" s="637"/>
+      <c r="AN9" s="642"/>
       <c r="AP9" s="2" t="s">
         <v>508</v>
       </c>
@@ -7523,20 +7523,20 @@
         <f>Boat!W8</f>
         <v>39</v>
       </c>
-      <c r="F10" s="642"/>
+      <c r="F10" s="621"/>
       <c r="N10" s="418" t="s">
         <v>396</v>
       </c>
-      <c r="O10" s="679" t="s">
+      <c r="O10" s="623" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="648" t="s">
+      <c r="P10" s="653" t="s">
         <v>400</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="666"/>
+      <c r="S10" s="636"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>176</v>
@@ -7548,7 +7548,7 @@
       <c r="X10" s="431" t="s">
         <v>164</v>
       </c>
-      <c r="Y10" s="655"/>
+      <c r="Y10" s="659"/>
       <c r="Z10" s="409">
         <v>0</v>
       </c>
@@ -7566,16 +7566,16 @@
       <c r="AF10" s="238" t="s">
         <v>311</v>
       </c>
-      <c r="AG10" s="657"/>
+      <c r="AG10" s="632"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="651"/>
+      <c r="AI10" s="631"/>
       <c r="AJ10" s="257"/>
-      <c r="AK10" s="651"/>
+      <c r="AK10" s="631"/>
       <c r="AL10" s="257"/>
       <c r="AM10" s="442" t="s">
         <v>318</v>
       </c>
-      <c r="AN10" s="637"/>
+      <c r="AN10" s="642"/>
       <c r="AO10" s="204" t="s">
         <v>94</v>
       </c>
@@ -7593,18 +7593,18 @@
       <c r="D11" s="170" t="s">
         <v>355</v>
       </c>
-      <c r="F11" s="642"/>
+      <c r="F11" s="621"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="680"/>
-      <c r="P11" s="649"/>
+      <c r="O11" s="624"/>
+      <c r="P11" s="654"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="S11" s="666"/>
+      <c r="S11" s="636"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7614,7 +7614,7 @@
       <c r="X11" s="431" t="s">
         <v>165</v>
       </c>
-      <c r="Y11" s="655"/>
+      <c r="Y11" s="659"/>
       <c r="Z11" s="409"/>
       <c r="AA11" s="307">
         <v>1</v>
@@ -7628,14 +7628,14 @@
       <c r="AF11" s="257" t="s">
         <v>476</v>
       </c>
-      <c r="AG11" s="657"/>
+      <c r="AG11" s="632"/>
       <c r="AH11" s="257"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="257"/>
       <c r="AK11" s="257"/>
       <c r="AL11" s="257"/>
       <c r="AM11" s="428"/>
-      <c r="AN11" s="637"/>
+      <c r="AN11" s="642"/>
       <c r="AP11" s="76" t="s">
         <v>484</v>
       </c>
@@ -7654,7 +7654,7 @@
       <c r="E12" s="224">
         <v>3</v>
       </c>
-      <c r="F12" s="642"/>
+      <c r="F12" s="621"/>
       <c r="G12" s="337" t="s">
         <v>400</v>
       </c>
@@ -7663,16 +7663,16 @@
       </c>
       <c r="I12" s="606"/>
       <c r="J12" s="606"/>
-      <c r="K12" s="684"/>
+      <c r="K12" s="628"/>
       <c r="L12" s="203"/>
       <c r="M12" s="203"/>
       <c r="N12" s="203"/>
-      <c r="O12" s="680"/>
-      <c r="P12" s="649"/>
+      <c r="O12" s="624"/>
+      <c r="P12" s="654"/>
       <c r="R12" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="S12" s="659"/>
+      <c r="S12" s="637"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7682,7 +7682,7 @@
       <c r="X12" s="431" t="s">
         <v>166</v>
       </c>
-      <c r="Y12" s="655"/>
+      <c r="Y12" s="659"/>
       <c r="Z12" s="407">
         <v>1</v>
       </c>
@@ -7693,16 +7693,16 @@
       <c r="AC12" s="100" t="s">
         <v>481</v>
       </c>
-      <c r="AD12" s="669" t="s">
+      <c r="AD12" s="640" t="s">
         <v>240</v>
       </c>
       <c r="AE12" s="441" t="s">
         <v>239</v>
       </c>
-      <c r="AF12" s="657" t="s">
+      <c r="AF12" s="632" t="s">
         <v>228</v>
       </c>
-      <c r="AG12" s="657"/>
+      <c r="AG12" s="632"/>
       <c r="AH12" s="238" t="s">
         <v>259</v>
       </c>
@@ -7712,10 +7712,10 @@
       <c r="AJ12" s="257"/>
       <c r="AK12" s="257"/>
       <c r="AL12" s="257"/>
-      <c r="AM12" s="652" t="s">
+      <c r="AM12" s="656" t="s">
         <v>249</v>
       </c>
-      <c r="AN12" s="637"/>
+      <c r="AN12" s="642"/>
       <c r="AO12" s="338" t="s">
         <v>96</v>
       </c>
@@ -7727,17 +7727,17 @@
       <c r="E13" s="448">
         <v>-3</v>
       </c>
-      <c r="F13" s="642"/>
+      <c r="F13" s="621"/>
       <c r="G13" s="606" t="s">
         <v>430</v>
       </c>
       <c r="H13" s="606"/>
       <c r="I13" s="606"/>
-      <c r="J13" s="684"/>
+      <c r="J13" s="628"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="680"/>
-      <c r="P13" s="650"/>
+      <c r="O13" s="624"/>
+      <c r="P13" s="655"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -7747,7 +7747,7 @@
       <c r="X13" s="431" t="s">
         <v>167</v>
       </c>
-      <c r="Y13" s="655"/>
+      <c r="Y13" s="659"/>
       <c r="Z13" s="407">
         <v>1</v>
       </c>
@@ -7758,8 +7758,8 @@
         <v>500</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="669"/>
-      <c r="AF13" s="657"/>
+      <c r="AD13" s="640"/>
+      <c r="AF13" s="632"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="238" t="s">
         <v>308</v>
@@ -7770,8 +7770,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="257"/>
       <c r="AL13" s="257"/>
-      <c r="AM13" s="652"/>
-      <c r="AN13" s="637"/>
+      <c r="AM13" s="656"/>
+      <c r="AN13" s="642"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="450"/>
@@ -7779,18 +7779,18 @@
       <c r="C14" s="459"/>
       <c r="D14" s="452"/>
       <c r="E14" s="453"/>
-      <c r="F14" s="642"/>
+      <c r="F14" s="621"/>
       <c r="G14" s="606" t="s">
         <v>429</v>
       </c>
       <c r="H14" s="606"/>
       <c r="I14" s="606"/>
-      <c r="J14" s="684"/>
+      <c r="J14" s="628"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="680"/>
+      <c r="O14" s="624"/>
       <c r="Q14" s="61" t="s">
         <v>533</v>
       </c>
@@ -7804,24 +7804,24 @@
       <c r="X14" s="431" t="s">
         <v>168</v>
       </c>
-      <c r="Y14" s="655"/>
+      <c r="Y14" s="659"/>
       <c r="Z14" s="407">
         <v>1</v>
       </c>
       <c r="AA14" s="307"/>
       <c r="AB14" s="209"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="669"/>
+      <c r="AD14" s="640"/>
       <c r="AE14" s="257"/>
-      <c r="AF14" s="657"/>
+      <c r="AF14" s="632"/>
       <c r="AG14" s="257"/>
       <c r="AH14" s="257"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="257"/>
       <c r="AK14" s="257"/>
       <c r="AL14" s="257"/>
-      <c r="AM14" s="652"/>
-      <c r="AN14" s="637"/>
+      <c r="AM14" s="656"/>
+      <c r="AN14" s="642"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="449" t="s">
@@ -7830,8 +7830,8 @@
       <c r="C15" s="599" t="s">
         <v>373</v>
       </c>
-      <c r="F15" s="642"/>
-      <c r="O15" s="680"/>
+      <c r="F15" s="621"/>
+      <c r="O15" s="624"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -7844,7 +7844,7 @@
       <c r="X15" s="431" t="s">
         <v>169</v>
       </c>
-      <c r="Y15" s="655"/>
+      <c r="Y15" s="659"/>
       <c r="Z15" s="409">
         <v>1</v>
       </c>
@@ -7853,8 +7853,8 @@
       <c r="AC15" s="76" t="s">
         <v>479</v>
       </c>
-      <c r="AD15" s="669"/>
-      <c r="AF15" s="657"/>
+      <c r="AD15" s="640"/>
+      <c r="AF15" s="632"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="238" t="s">
         <v>448</v>
@@ -7867,8 +7867,8 @@
       </c>
       <c r="AK15" s="257"/>
       <c r="AL15" s="257"/>
-      <c r="AM15" s="652"/>
-      <c r="AN15" s="637"/>
+      <c r="AM15" s="656"/>
+      <c r="AN15" s="642"/>
       <c r="AP15" s="76" t="s">
         <v>73</v>
       </c>
@@ -7890,13 +7890,13 @@
       <c r="E16" s="224">
         <v>1</v>
       </c>
-      <c r="F16" s="642"/>
+      <c r="F16" s="621"/>
       <c r="G16" s="337" t="s">
         <v>488</v>
       </c>
       <c r="I16" s="469"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="680"/>
+      <c r="O16" s="624"/>
       <c r="R16" s="435" t="s">
         <v>184</v>
       </c>
@@ -7907,7 +7907,7 @@
       <c r="X16" s="431" t="s">
         <v>170</v>
       </c>
-      <c r="Y16" s="655"/>
+      <c r="Y16" s="659"/>
       <c r="Z16" s="407">
         <v>1</v>
       </c>
@@ -7928,18 +7928,18 @@
       <c r="AM16" s="428" t="s">
         <v>317</v>
       </c>
-      <c r="AN16" s="637"/>
+      <c r="AN16" s="642"/>
       <c r="AP16" s="76" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="642"/>
+      <c r="F17" s="621"/>
       <c r="I17" s="470"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="680"/>
+      <c r="O17" s="624"/>
       <c r="Q17" s="21" t="s">
         <v>531</v>
       </c>
@@ -7959,7 +7959,7 @@
       <c r="X17" s="431" t="s">
         <v>171</v>
       </c>
-      <c r="Y17" s="655"/>
+      <c r="Y17" s="659"/>
       <c r="Z17" s="409"/>
       <c r="AA17" s="307"/>
       <c r="AB17" s="209"/>
@@ -7984,7 +7984,7 @@
       <c r="AK17" s="257"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="428"/>
-      <c r="AN17" s="637"/>
+      <c r="AN17" s="642"/>
       <c r="AO17" s="204" t="s">
         <v>497</v>
       </c>
@@ -8008,21 +8008,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="642"/>
+      <c r="F18" s="621"/>
       <c r="G18" s="337" t="s">
         <v>528</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="680"/>
+      <c r="O18" s="624"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="674" t="s">
+      <c r="R18" s="616" t="s">
         <v>536</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="613" t="s">
+      <c r="U18" s="664" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8032,7 +8032,7 @@
       <c r="X18" s="431" t="s">
         <v>172</v>
       </c>
-      <c r="Y18" s="655"/>
+      <c r="Y18" s="659"/>
       <c r="Z18" s="409">
         <v>1</v>
       </c>
@@ -8043,38 +8043,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="257"/>
-      <c r="AF18" s="651" t="s">
+      <c r="AF18" s="631" t="s">
         <v>475</v>
       </c>
       <c r="AG18" s="257"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="653" t="s">
+      <c r="AJ18" s="657" t="s">
         <v>315</v>
       </c>
       <c r="AK18" s="257"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="428"/>
-      <c r="AN18" s="637"/>
+      <c r="AN18" s="642"/>
       <c r="AP18" s="76" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="642"/>
+      <c r="F19" s="621"/>
       <c r="I19" s="219"/>
-      <c r="O19" s="680"/>
-      <c r="R19" s="675"/>
+      <c r="O19" s="624"/>
+      <c r="R19" s="617"/>
       <c r="S19" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="U19" s="614"/>
+      <c r="U19" s="665"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="431" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="655"/>
+      <c r="Y19" s="659"/>
       <c r="Z19" s="407">
         <v>1</v>
       </c>
@@ -8083,17 +8083,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="257"/>
-      <c r="AF19" s="651"/>
+      <c r="AF19" s="631"/>
       <c r="AG19" s="257"/>
       <c r="AH19" s="257"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="653"/>
+      <c r="AJ19" s="657"/>
       <c r="AK19" s="460" t="s">
         <v>251</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="428"/>
-      <c r="AN19" s="637"/>
+      <c r="AN19" s="642"/>
       <c r="AP19" s="76" t="s">
         <v>468</v>
       </c>
@@ -8114,24 +8114,24 @@
       <c r="E20" s="437">
         <v>-1</v>
       </c>
-      <c r="F20" s="642"/>
+      <c r="F20" s="621"/>
       <c r="G20" s="337" t="s">
         <v>491</v>
       </c>
       <c r="I20" s="219"/>
-      <c r="O20" s="680"/>
-      <c r="Q20" s="682" t="s">
+      <c r="O20" s="624"/>
+      <c r="Q20" s="626" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="404" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="615"/>
+      <c r="U20" s="666"/>
       <c r="W20" s="405"/>
       <c r="X20" s="432" t="s">
         <v>174</v>
       </c>
-      <c r="Y20" s="655"/>
+      <c r="Y20" s="659"/>
       <c r="Z20" s="411">
         <v>1</v>
       </c>
@@ -8156,7 +8156,7 @@
       <c r="AM20" s="381" t="s">
         <v>249</v>
       </c>
-      <c r="AN20" s="637"/>
+      <c r="AN20" s="642"/>
       <c r="AO20" s="338" t="s">
         <v>460</v>
       </c>
@@ -8177,20 +8177,20 @@
       <c r="E21" s="265">
         <v>0</v>
       </c>
-      <c r="F21" s="642"/>
+      <c r="F21" s="621"/>
       <c r="I21" s="219"/>
-      <c r="O21" s="680"/>
-      <c r="Q21" s="683"/>
+      <c r="O21" s="624"/>
+      <c r="Q21" s="627"/>
       <c r="T21" s="422"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="610"/>
+      <c r="V21" s="661"/>
       <c r="W21" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X21" s="429" t="s">
         <v>186</v>
       </c>
-      <c r="Y21" s="655"/>
+      <c r="Y21" s="659"/>
       <c r="Z21" s="445">
         <v>3</v>
       </c>
@@ -8221,15 +8221,15 @@
       <c r="AM21" s="428" t="s">
         <v>545</v>
       </c>
-      <c r="AN21" s="637"/>
+      <c r="AN21" s="642"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="642"/>
+      <c r="F22" s="621"/>
       <c r="G22" s="337" t="s">
         <v>489</v>
       </c>
       <c r="I22" s="219"/>
-      <c r="O22" s="680"/>
+      <c r="O22" s="624"/>
       <c r="R22" s="434" t="s">
         <v>44</v>
       </c>
@@ -8237,14 +8237,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="611"/>
+      <c r="V22" s="662"/>
       <c r="W22" s="426" t="s">
         <v>175</v>
       </c>
       <c r="X22" s="429" t="s">
         <v>187</v>
       </c>
-      <c r="Y22" s="655"/>
+      <c r="Y22" s="659"/>
       <c r="Z22" s="415"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="415"/>
@@ -8255,7 +8255,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="651" t="s">
+      <c r="AJ22" s="631" t="s">
         <v>472</v>
       </c>
       <c r="AK22" s="257"/>
@@ -8263,7 +8263,7 @@
         <v>478</v>
       </c>
       <c r="AM22" s="300"/>
-      <c r="AN22" s="637"/>
+      <c r="AN22" s="642"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="231" t="s">
@@ -8281,22 +8281,22 @@
       <c r="E23" s="225">
         <v>1</v>
       </c>
-      <c r="F23" s="642"/>
+      <c r="F23" s="621"/>
       <c r="I23" s="219"/>
-      <c r="O23" s="680"/>
-      <c r="Q23" s="682" t="s">
+      <c r="O23" s="624"/>
+      <c r="Q23" s="626" t="s">
         <v>144</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="611"/>
+      <c r="V23" s="662"/>
       <c r="W23" s="148"/>
       <c r="X23" s="429" t="s">
         <v>188</v>
       </c>
-      <c r="Y23" s="655"/>
+      <c r="Y23" s="659"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="415"/>
@@ -8307,13 +8307,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="651"/>
+      <c r="AJ23" s="631"/>
       <c r="AK23" s="257"/>
       <c r="AL23" s="80" t="s">
         <v>507</v>
       </c>
       <c r="AM23" s="300"/>
-      <c r="AN23" s="637"/>
+      <c r="AN23" s="642"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="440" t="s">
@@ -8331,23 +8331,23 @@
       <c r="E24" s="436">
         <v>1</v>
       </c>
-      <c r="F24" s="642"/>
+      <c r="F24" s="621"/>
       <c r="G24" s="61" t="s">
         <v>490</v>
       </c>
       <c r="I24" s="219"/>
-      <c r="O24" s="680"/>
-      <c r="Q24" s="683"/>
+      <c r="O24" s="624"/>
+      <c r="Q24" s="627"/>
       <c r="T24" s="17"/>
       <c r="U24" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="611"/>
+      <c r="V24" s="662"/>
       <c r="W24" s="148"/>
       <c r="X24" s="429" t="s">
         <v>185</v>
       </c>
-      <c r="Y24" s="655"/>
+      <c r="Y24" s="659"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="415"/>
@@ -8366,12 +8366,12 @@
         <v>463</v>
       </c>
       <c r="AM24" s="300"/>
-      <c r="AN24" s="637"/>
+      <c r="AN24" s="642"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="642"/>
+      <c r="F25" s="621"/>
       <c r="I25" s="219"/>
-      <c r="O25" s="680"/>
+      <c r="O25" s="624"/>
       <c r="P25" s="204" t="s">
         <v>280</v>
       </c>
@@ -8384,12 +8384,12 @@
       <c r="U25" s="400" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="612"/>
+      <c r="V25" s="663"/>
       <c r="W25" s="148"/>
       <c r="X25" s="429" t="s">
         <v>189</v>
       </c>
-      <c r="Y25" s="655"/>
+      <c r="Y25" s="659"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="415"/>
@@ -8406,7 +8406,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="300"/>
-      <c r="AN25" s="637"/>
+      <c r="AN25" s="642"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="231" t="s">
@@ -8424,17 +8424,17 @@
       <c r="E26" s="380">
         <v>1</v>
       </c>
-      <c r="F26" s="642"/>
+      <c r="F26" s="621"/>
       <c r="G26" s="337" t="s">
         <v>487</v>
       </c>
       <c r="I26" s="219"/>
-      <c r="O26" s="680"/>
-      <c r="P26" s="639" t="s">
+      <c r="O26" s="624"/>
+      <c r="P26" s="644" t="s">
         <v>526</v>
       </c>
-      <c r="Q26" s="640"/>
-      <c r="R26" s="676" t="s">
+      <c r="Q26" s="645"/>
+      <c r="R26" s="618" t="s">
         <v>535</v>
       </c>
       <c r="T26" s="178"/>
@@ -8446,7 +8446,7 @@
       <c r="X26" s="429" t="s">
         <v>181</v>
       </c>
-      <c r="Y26" s="655"/>
+      <c r="Y26" s="659"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="415"/>
@@ -8473,7 +8473,7 @@
       <c r="AM26" s="442" t="s">
         <v>456</v>
       </c>
-      <c r="AN26" s="637"/>
+      <c r="AN26" s="642"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8485,13 +8485,13 @@
       <c r="E27" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="678"/>
+      <c r="F27" s="622"/>
       <c r="G27" s="61" t="s">
         <v>544</v>
       </c>
       <c r="I27" s="220"/>
-      <c r="O27" s="681"/>
-      <c r="R27" s="677"/>
+      <c r="O27" s="625"/>
+      <c r="R27" s="619"/>
       <c r="S27" s="421" t="s">
         <v>54</v>
       </c>
@@ -8504,7 +8504,7 @@
       <c r="X27" s="429" t="s">
         <v>530</v>
       </c>
-      <c r="Y27" s="656"/>
+      <c r="Y27" s="660"/>
       <c r="Z27" s="161"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="416"/>
@@ -8521,32 +8521,26 @@
       <c r="AM27" s="381" t="s">
         <v>319</v>
       </c>
-      <c r="AN27" s="638"/>
+      <c r="AN27" s="643"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -8563,22 +8557,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8615,12 +8615,12 @@
       <c r="B1" s="604" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="684"/>
+      <c r="C1" s="628"/>
       <c r="D1" s="204"/>
       <c r="J1" s="604" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="684"/>
+      <c r="K1" s="628"/>
       <c r="L1" s="195" t="s">
         <v>330</v>
       </c>
@@ -9023,7 +9023,7 @@
       <c r="P1" s="398" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" s="715" t="s">
+      <c r="Q1" s="702" t="s">
         <v>180</v>
       </c>
       <c r="R1" s="100" t="s">
@@ -9047,7 +9047,7 @@
       <c r="AA1" s="517" t="s">
         <v>437</v>
       </c>
-      <c r="AB1" s="709" t="s">
+      <c r="AB1" s="696" t="s">
         <v>594</v>
       </c>
       <c r="AC1" s="99" t="s">
@@ -9069,32 +9069,32 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="694">
+      <c r="A2" s="707">
         <f ca="1">TODAY()</f>
-        <v>45286</v>
-      </c>
-      <c r="B2" s="696" t="s">
+        <v>45287</v>
+      </c>
+      <c r="B2" s="709" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="616" t="s">
+      <c r="C2" s="646" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="698" t="s">
+      <c r="D2" s="711" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="700" t="s">
+      <c r="E2" s="713" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="191" t="s">
         <v>218</v>
       </c>
-      <c r="G2" s="660" t="s">
+      <c r="G2" s="614" t="s">
         <v>372</v>
       </c>
       <c r="H2" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I2" s="706" t="s">
+      <c r="I2" s="693" t="s">
         <v>102</v>
       </c>
       <c r="J2" s="396" t="s">
@@ -9118,7 +9118,7 @@
       <c r="P2" s="399">
         <v>40</v>
       </c>
-      <c r="Q2" s="716"/>
+      <c r="Q2" s="703"/>
       <c r="R2" s="21">
         <f>R7+R20</f>
         <v>5</v>
@@ -9143,7 +9143,7 @@
         <f>IF((Z2+T2)&gt;0,0,-1)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="710"/>
+      <c r="AB2" s="697"/>
       <c r="AC2" s="35"/>
       <c r="AH2" s="6" t="s">
         <v>344</v>
@@ -9156,14 +9156,14 @@
       <c r="AL2" s="469"/>
     </row>
     <row r="3" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="695"/>
-      <c r="B3" s="697"/>
-      <c r="C3" s="617"/>
-      <c r="D3" s="699"/>
-      <c r="E3" s="701"/>
-      <c r="G3" s="661"/>
+      <c r="A3" s="708"/>
+      <c r="B3" s="710"/>
+      <c r="C3" s="647"/>
+      <c r="D3" s="712"/>
+      <c r="E3" s="714"/>
+      <c r="G3" s="615"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="707"/>
+      <c r="I3" s="694"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -9178,7 +9178,7 @@
       <c r="V3" s="470"/>
       <c r="W3" s="6"/>
       <c r="X3" s="470"/>
-      <c r="AB3" s="710"/>
+      <c r="AB3" s="697"/>
       <c r="AC3" s="35"/>
       <c r="AE3" s="100" t="s">
         <v>589</v>
@@ -9203,10 +9203,10 @@
         <v>380</v>
       </c>
       <c r="B4" s="243"/>
-      <c r="C4" s="702" t="s">
+      <c r="C4" s="715" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="707"/>
+      <c r="I4" s="694"/>
       <c r="R4" s="471" t="s">
         <v>589</v>
       </c>
@@ -9218,7 +9218,7 @@
       <c r="V4" s="470"/>
       <c r="W4" s="6"/>
       <c r="X4" s="470"/>
-      <c r="AB4" s="710"/>
+      <c r="AB4" s="697"/>
       <c r="AC4" s="35"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="100" t="s">
@@ -9245,7 +9245,7 @@
       <c r="B5" s="100" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="703"/>
+      <c r="C5" s="716"/>
       <c r="D5" s="222" t="s">
         <v>102</v>
       </c>
@@ -9261,7 +9261,7 @@
       <c r="H5" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="707"/>
+      <c r="I5" s="694"/>
       <c r="J5" s="397" t="s">
         <v>268</v>
       </c>
@@ -9288,7 +9288,7 @@
       <c r="V5" s="468"/>
       <c r="W5" s="6"/>
       <c r="X5" s="468"/>
-      <c r="AB5" s="710"/>
+      <c r="AB5" s="697"/>
       <c r="AC5" s="2" t="s">
         <v>592</v>
       </c>
@@ -9306,19 +9306,19 @@
       <c r="AL5" s="468"/>
     </row>
     <row r="6" spans="1:38" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="691" t="s">
+      <c r="A6" s="704" t="s">
         <v>285</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="662"/>
-      <c r="D6" s="663"/>
+      <c r="C6" s="629"/>
+      <c r="D6" s="630"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
       <c r="G6" s="600"/>
-      <c r="I6" s="707"/>
+      <c r="I6" s="694"/>
       <c r="P6" s="61" t="s">
         <v>592</v>
       </c>
@@ -9330,7 +9330,7 @@
         <f>S7+S11-SUM(V2:V10)</f>
         <v>3</v>
       </c>
-      <c r="AB6" s="710"/>
+      <c r="AB6" s="697"/>
       <c r="AC6" s="35"/>
       <c r="AE6" s="64">
         <f>AE7-SUM(AL2:AL10)+AE11</f>
@@ -9346,7 +9346,7 @@
       <c r="AL6" s="112"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="692"/>
+      <c r="A7" s="705"/>
       <c r="B7" s="100" t="s">
         <v>154</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>135</v>
       </c>
       <c r="G7" s="600"/>
-      <c r="I7" s="707"/>
+      <c r="I7" s="694"/>
       <c r="M7" s="16" t="s">
         <v>347</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>249</v>
       </c>
       <c r="X7" s="469"/>
-      <c r="AB7" s="710"/>
+      <c r="AB7" s="697"/>
       <c r="AC7" s="99" t="s">
         <v>593</v>
       </c>
@@ -9413,7 +9413,7 @@
       <c r="AL7" s="24"/>
     </row>
     <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="693"/>
+      <c r="A8" s="706"/>
       <c r="B8" s="212" t="s">
         <v>28</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="600"/>
-      <c r="I8" s="707"/>
+      <c r="I8" s="694"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6"/>
       <c r="V8" s="24"/>
@@ -9430,7 +9430,7 @@
         <v>613</v>
       </c>
       <c r="X8" s="470"/>
-      <c r="AB8" s="710"/>
+      <c r="AB8" s="697"/>
       <c r="AC8" s="515"/>
       <c r="AH8" s="6" t="s">
         <v>612</v>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="G9" s="600"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="707"/>
+      <c r="I9" s="694"/>
       <c r="M9" s="19" t="s">
         <v>525</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>604</v>
       </c>
       <c r="X9" s="470"/>
-      <c r="AB9" s="710"/>
+      <c r="AB9" s="697"/>
       <c r="AC9" s="515"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
@@ -9492,7 +9492,7 @@
         <v>39</v>
       </c>
       <c r="G10" s="600"/>
-      <c r="I10" s="707"/>
+      <c r="I10" s="694"/>
       <c r="J10" s="24" t="s">
         <v>372</v>
       </c>
@@ -9507,7 +9507,7 @@
       <c r="V10" s="470"/>
       <c r="W10" s="6"/>
       <c r="X10" s="470"/>
-      <c r="AB10" s="710"/>
+      <c r="AB10" s="697"/>
       <c r="AC10" s="515"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
@@ -9535,7 +9535,7 @@
         <v>265</v>
       </c>
       <c r="G11" s="600"/>
-      <c r="I11" s="707"/>
+      <c r="I11" s="694"/>
       <c r="J11" s="24" t="s">
         <v>194</v>
       </c>
@@ -9561,13 +9561,13 @@
       <c r="S11" s="24">
         <v>3</v>
       </c>
-      <c r="U11" s="712" t="s">
+      <c r="U11" s="699" t="s">
         <v>558</v>
       </c>
-      <c r="V11" s="713"/>
-      <c r="W11" s="713"/>
-      <c r="X11" s="714"/>
-      <c r="AB11" s="711"/>
+      <c r="V11" s="700"/>
+      <c r="W11" s="700"/>
+      <c r="X11" s="701"/>
+      <c r="AB11" s="698"/>
       <c r="AC11" s="99" t="s">
         <v>595</v>
       </c>
@@ -9581,13 +9581,13 @@
         <v>8</v>
       </c>
       <c r="AG11" s="414"/>
-      <c r="AH11" s="712" t="s">
+      <c r="AH11" s="699" t="s">
         <v>603</v>
       </c>
-      <c r="AI11" s="713"/>
-      <c r="AJ11" s="713"/>
-      <c r="AK11" s="713"/>
-      <c r="AL11" s="714"/>
+      <c r="AI11" s="700"/>
+      <c r="AJ11" s="700"/>
+      <c r="AK11" s="700"/>
+      <c r="AL11" s="701"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="227" t="s">
@@ -9598,7 +9598,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="600"/>
-      <c r="I12" s="707"/>
+      <c r="I12" s="694"/>
       <c r="J12" s="24" t="s">
         <v>516</v>
       </c>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="G13" s="600"/>
-      <c r="I13" s="707"/>
+      <c r="I13" s="694"/>
       <c r="J13" s="108" t="s">
         <v>548</v>
       </c>
@@ -9675,7 +9675,7 @@
       <c r="H14" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="707"/>
+      <c r="I14" s="694"/>
       <c r="U14" s="67" t="s">
         <v>80</v>
       </c>
@@ -9702,7 +9702,7 @@
       <c r="H15" s="271">
         <v>0</v>
       </c>
-      <c r="I15" s="707"/>
+      <c r="I15" s="694"/>
       <c r="J15" s="108" t="s">
         <v>153</v>
       </c>
@@ -9733,7 +9733,7 @@
       <c r="D16" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="I16" s="707"/>
+      <c r="I16" s="694"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -9769,7 +9769,7 @@
       <c r="G17" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I17" s="707"/>
+      <c r="I17" s="694"/>
       <c r="L17" s="2" t="s">
         <v>426</v>
       </c>
@@ -9783,13 +9783,13 @@
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="16"/>
-      <c r="I18" s="707"/>
+      <c r="I18" s="694"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="704" t="s">
+      <c r="O18" s="691" t="s">
         <v>517</v>
       </c>
-      <c r="P18" s="705"/>
+      <c r="P18" s="692"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
@@ -9809,7 +9809,7 @@
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="707"/>
+      <c r="I19" s="694"/>
       <c r="M19" s="21" t="s">
         <v>425</v>
       </c>
@@ -9839,7 +9839,7 @@
       <c r="G20" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I20" s="707"/>
+      <c r="I20" s="694"/>
       <c r="K20" s="19" t="s">
         <v>422</v>
       </c>
@@ -9868,7 +9868,7 @@
       <c r="X20" s="468"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="707"/>
+      <c r="I21" s="694"/>
       <c r="M21" s="216" t="s">
         <v>411</v>
       </c>
@@ -9898,7 +9898,7 @@
       <c r="G22" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I22" s="707"/>
+      <c r="I22" s="694"/>
       <c r="P22" s="99" t="s">
         <v>591</v>
       </c>
@@ -9913,7 +9913,7 @@
       <c r="E23" s="283" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="707"/>
+      <c r="I23" s="694"/>
       <c r="Q23" s="24">
         <f>SUM(V23:V31)</f>
         <v>11</v>
@@ -9930,7 +9930,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="707"/>
+      <c r="I24" s="694"/>
       <c r="U24" s="35"/>
       <c r="V24" s="509">
         <v>2</v>
@@ -9958,7 +9958,7 @@
       <c r="H25" s="191" t="s">
         <v>266</v>
       </c>
-      <c r="I25" s="707"/>
+      <c r="I25" s="694"/>
       <c r="J25" s="397" t="s">
         <v>269</v>
       </c>
@@ -10003,7 +10003,7 @@
       <c r="H26" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="707"/>
+      <c r="I26" s="694"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -10038,7 +10038,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="707"/>
+      <c r="I27" s="694"/>
       <c r="O27" s="2" t="s">
         <v>98</v>
       </c>
@@ -10065,7 +10065,7 @@
       <c r="E28" s="215">
         <v>2</v>
       </c>
-      <c r="I28" s="707"/>
+      <c r="I28" s="694"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="142"/>
@@ -10087,7 +10087,7 @@
       <c r="H29" s="191" t="s">
         <v>267</v>
       </c>
-      <c r="I29" s="708"/>
+      <c r="I29" s="695"/>
       <c r="J29" s="324"/>
       <c r="L29" s="96" t="s">
         <v>273</v>
@@ -10145,13 +10145,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I2:I29"/>
-    <mergeCell ref="AB1:AB11"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="U11:X11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="G5:G14"/>
     <mergeCell ref="A2:A3"/>
@@ -10163,6 +10156,13 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I2:I29"/>
+    <mergeCell ref="AB1:AB11"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10173,8 +10173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q18" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10272,23 +10272,23 @@
       </c>
       <c r="S1" s="151">
         <f ca="1">TODAY()</f>
-        <v>45286</v>
-      </c>
-      <c r="T1" s="743"/>
+        <v>45287</v>
+      </c>
+      <c r="T1" s="736"/>
       <c r="U1" s="142"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-      <c r="X1" s="727" t="s">
+      <c r="X1" s="720" t="s">
         <v>441</v>
       </c>
-      <c r="Y1" s="728"/>
+      <c r="Y1" s="721"/>
       <c r="Z1" s="306">
         <f>68-(W8+Y3+X3+U3)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1" s="102">
         <f>Z1+Z3</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB1" s="102" t="s">
         <v>440</v>
@@ -10297,27 +10297,27 @@
       <c r="AD1" s="302" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="729" t="s">
+      <c r="AE1" s="722" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="730"/>
-      <c r="AG1" s="731"/>
-      <c r="AH1" s="732" t="s">
+      <c r="AF1" s="723"/>
+      <c r="AG1" s="724"/>
+      <c r="AH1" s="725" t="s">
         <v>293</v>
       </c>
-      <c r="AI1" s="733"/>
-      <c r="AJ1" s="734"/>
-      <c r="AK1" s="660" t="s">
+      <c r="AI1" s="726"/>
+      <c r="AJ1" s="727"/>
+      <c r="AK1" s="614" t="s">
         <v>616</v>
       </c>
       <c r="AL1" s="551" t="s">
         <v>617</v>
       </c>
-      <c r="AM1" s="724" t="s">
+      <c r="AM1" s="717" t="s">
         <v>444</v>
       </c>
-      <c r="AN1" s="725"/>
-      <c r="AO1" s="726"/>
+      <c r="AN1" s="718"/>
+      <c r="AO1" s="719"/>
       <c r="AR1" s="142"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10330,29 +10330,29 @@
       </c>
       <c r="J2" s="318">
         <f>K2+L2</f>
-        <v>29</v>
-      </c>
-      <c r="K2" s="722">
+        <v>18</v>
+      </c>
+      <c r="K2" s="744">
         <f>SUM(K4:K37)</f>
         <v>6</v>
       </c>
-      <c r="L2" s="720">
+      <c r="L2" s="742">
         <f>SUM(L4:L37)</f>
-        <v>23</v>
-      </c>
-      <c r="M2" s="735">
+        <v>12</v>
+      </c>
+      <c r="M2" s="728">
         <f>SUM(M5:M30)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="737">
+        <v>1</v>
+      </c>
+      <c r="N2" s="730">
         <f>SUM(N4:N29)</f>
         <v>9</v>
       </c>
-      <c r="O2" s="739">
+      <c r="O2" s="732">
         <f>SUM(O4:O29)</f>
         <v>9</v>
       </c>
-      <c r="P2" s="667">
+      <c r="P2" s="638">
         <f>SUM(N30:N37)* (-1)</f>
         <v>-3</v>
       </c>
@@ -10365,14 +10365,14 @@
       <c r="S2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="T2" s="744"/>
+      <c r="T2" s="737"/>
       <c r="U2" s="537" t="s">
         <v>262</v>
       </c>
       <c r="V2" s="482" t="s">
         <v>219</v>
       </c>
-      <c r="W2" s="741" t="s">
+      <c r="W2" s="734" t="s">
         <v>234</v>
       </c>
       <c r="X2" s="483" t="s">
@@ -10414,7 +10414,7 @@
       <c r="AJ2" s="150" t="s">
         <v>288</v>
       </c>
-      <c r="AK2" s="661"/>
+      <c r="AK2" s="615"/>
       <c r="AL2" s="592" t="s">
         <v>288</v>
       </c>
@@ -10440,14 +10440,14 @@
     <row r="3" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J3" s="312">
         <f>V3+X3+Y3+U3</f>
-        <v>68</v>
-      </c>
-      <c r="K3" s="723"/>
-      <c r="L3" s="721"/>
-      <c r="M3" s="736"/>
-      <c r="N3" s="738"/>
-      <c r="O3" s="740"/>
-      <c r="P3" s="668"/>
+        <v>69</v>
+      </c>
+      <c r="K3" s="745"/>
+      <c r="L3" s="743"/>
+      <c r="M3" s="729"/>
+      <c r="N3" s="731"/>
+      <c r="O3" s="733"/>
+      <c r="P3" s="639"/>
       <c r="Q3" s="172">
         <f>(M2+N2)-Y3</f>
         <v>0</v>
@@ -10455,7 +10455,7 @@
       <c r="S3" s="159" t="s">
         <v>244</v>
       </c>
-      <c r="T3" s="745"/>
+      <c r="T3" s="738"/>
       <c r="U3" s="538">
         <f>SUM(U4:U29)</f>
         <v>12</v>
@@ -10464,14 +10464,14 @@
         <f>SUM(V4:V29)</f>
         <v>39</v>
       </c>
-      <c r="W3" s="742"/>
+      <c r="W3" s="735"/>
       <c r="X3" s="485">
         <f t="shared" ref="X3:AC3" si="0">SUM(X4:X29)</f>
         <v>8</v>
       </c>
       <c r="Y3" s="485">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z3" s="59">
         <f t="shared" si="0"/>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="AB3" s="66">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="0"/>
@@ -10570,7 +10570,7 @@
         <f>AC4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="717">
+      <c r="P4" s="739">
         <v>1</v>
       </c>
       <c r="Q4" s="20"/>
@@ -10656,7 +10656,7 @@
         <f>AC5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="718"/>
+      <c r="P5" s="740"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2" t="s">
         <v>340</v>
@@ -10750,7 +10750,7 @@
         <f>AC6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="718"/>
+      <c r="P6" s="740"/>
       <c r="Q6" s="19" t="s">
         <v>335</v>
       </c>
@@ -10841,7 +10841,7 @@
       <c r="J7" s="571"/>
       <c r="K7" s="575"/>
       <c r="L7" s="581">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="326">
         <v>0</v>
@@ -10853,7 +10853,7 @@
         <f>AC7</f>
         <v>1</v>
       </c>
-      <c r="P7" s="718"/>
+      <c r="P7" s="740"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2" t="s">
         <v>335</v>
@@ -10969,7 +10969,7 @@
         <f t="shared" ref="O8:O37" si="10">AC8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="718"/>
+      <c r="P8" s="740"/>
       <c r="Q8" s="21" t="s">
         <v>233</v>
       </c>
@@ -11060,7 +11060,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P9" s="718"/>
+      <c r="P9" s="740"/>
       <c r="Q9" s="21" t="s">
         <v>335</v>
       </c>
@@ -11155,7 +11155,7 @@
       </c>
       <c r="K10" s="575"/>
       <c r="L10" s="581">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" s="328"/>
       <c r="N10" s="107">
@@ -11165,7 +11165,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P10" s="718"/>
+      <c r="P10" s="740"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="2" t="s">
         <v>340</v>
@@ -11255,7 +11255,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P11" s="718"/>
+      <c r="P11" s="740"/>
       <c r="Q11" s="21" t="s">
         <v>335</v>
       </c>
@@ -11320,14 +11320,14 @@
       <c r="AR11" s="508"/>
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="627" t="s">
+      <c r="A12" s="676" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
         <v>13</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="682" t="s">
+      <c r="E12" s="626" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="262"/>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="K12" s="575"/>
       <c r="L12" s="581">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="328"/>
       <c r="N12" s="107">
@@ -11352,7 +11352,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P12" s="718"/>
+      <c r="P12" s="740"/>
       <c r="Q12" s="21" t="s">
         <v>335</v>
       </c>
@@ -11429,14 +11429,14 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="629"/>
+      <c r="A13" s="678"/>
       <c r="B13" s="584">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="683"/>
+      <c r="E13" s="627"/>
       <c r="F13" s="172">
         <v>0</v>
       </c>
@@ -11460,7 +11460,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P13" s="718"/>
+      <c r="P13" s="740"/>
       <c r="Q13" s="21" t="s">
         <v>335</v>
       </c>
@@ -11532,7 +11532,7 @@
       <c r="J14" s="571"/>
       <c r="K14" s="575"/>
       <c r="L14" s="581">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" s="328"/>
       <c r="N14" s="291">
@@ -11542,7 +11542,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P14" s="718"/>
+      <c r="P14" s="740"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="200" t="s">
         <v>339</v>
@@ -11643,7 +11643,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P15" s="718"/>
+      <c r="P15" s="740"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="200" t="s">
         <v>339</v>
@@ -11725,7 +11725,7 @@
       <c r="J16" s="573"/>
       <c r="K16" s="577"/>
       <c r="L16" s="581">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="328"/>
       <c r="N16" s="107">
@@ -11735,7 +11735,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P16" s="718"/>
+      <c r="P16" s="740"/>
       <c r="Q16" s="21" t="s">
         <v>335</v>
       </c>
@@ -11836,7 +11836,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="718"/>
+      <c r="P17" s="740"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="2" t="s">
         <v>341</v>
@@ -11936,7 +11936,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="718"/>
+      <c r="P18" s="740"/>
       <c r="Q18" s="21" t="s">
         <v>335</v>
       </c>
@@ -12026,7 +12026,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P19" s="718"/>
+      <c r="P19" s="740"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2" t="s">
         <v>334</v>
@@ -12124,7 +12124,7 @@
       </c>
       <c r="K20" s="576"/>
       <c r="L20" s="582">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="327"/>
       <c r="N20" s="107">
@@ -12134,11 +12134,11 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="P20" s="719"/>
+      <c r="P20" s="741"/>
       <c r="Q20" s="604" t="s">
         <v>335</v>
       </c>
-      <c r="R20" s="684"/>
+      <c r="R20" s="628"/>
       <c r="S20" s="534" t="s">
         <v>85</v>
       </c>
@@ -12398,7 +12398,7 @@
     </row>
     <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="E23" s="634" t="s">
+      <c r="E23" s="683" t="s">
         <v>289</v>
       </c>
       <c r="F23" s="180"/>
@@ -12503,7 +12503,7 @@
       <c r="C24" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E24" s="635"/>
+      <c r="E24" s="684"/>
       <c r="F24" s="172"/>
       <c r="H24" s="42"/>
       <c r="J24" s="571" t="s">
@@ -12513,10 +12513,10 @@
         <v>1</v>
       </c>
       <c r="L24" s="581">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" s="326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="107">
         <v>1</v>
@@ -12528,7 +12528,7 @@
       <c r="Q24" s="604" t="s">
         <v>335</v>
       </c>
-      <c r="R24" s="684"/>
+      <c r="R24" s="628"/>
       <c r="S24" s="534" t="s">
         <v>249</v>
       </c>
@@ -12547,7 +12547,7 @@
       <c r="X24" s="26"/>
       <c r="Y24" s="548">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z24" s="296"/>
       <c r="AA24" s="117">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="AB24" s="290">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC24" s="290">
         <v>1</v>
@@ -12616,7 +12616,7 @@
       </c>
       <c r="K25" s="575"/>
       <c r="L25" s="581">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="525">
         <v>0</v>
@@ -13184,12 +13184,12 @@
       <c r="AR31" s="508"/>
     </row>
     <row r="32" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="651"/>
-      <c r="B32" s="651"/>
+      <c r="A32" s="631"/>
+      <c r="B32" s="631"/>
       <c r="J32" s="572"/>
       <c r="K32" s="587"/>
       <c r="L32" s="581">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32" s="510">
         <v>0</v>
@@ -13291,7 +13291,7 @@
       <c r="J33" s="573"/>
       <c r="K33" s="588"/>
       <c r="L33" s="581">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33" s="334"/>
       <c r="N33" s="247">
@@ -13656,9 +13656,7 @@
       </c>
     </row>
     <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="21">
-        <v>10</v>
-      </c>
+      <c r="B37" s="21"/>
       <c r="D37" s="382">
         <v>1</v>
       </c>
@@ -13674,7 +13672,7 @@
       </c>
       <c r="K37" s="589"/>
       <c r="L37" s="583">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37" s="335"/>
       <c r="N37" s="249">
@@ -13762,6 +13760,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="P4:P20"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="AM1:AO1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -13773,15 +13780,6 @@
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="P4:P20"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13844,12 +13842,12 @@
       <c r="P1" s="38"/>
       <c r="S1" s="58">
         <f ca="1">TODAY()</f>
-        <v>45286</v>
+        <v>45287</v>
       </c>
       <c r="V1" s="604" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="684"/>
+      <c r="W1" s="628"/>
       <c r="X1" s="62" t="s">
         <v>101</v>
       </c>
@@ -13868,7 +13866,7 @@
       <c r="AC1" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="AD1" s="760" t="s">
+      <c r="AD1" s="753" t="s">
         <v>211</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -13885,10 +13883,10 @@
       <c r="E2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="791" t="s">
+      <c r="F2" s="752" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="748" t="s">
+      <c r="G2" s="780" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -13916,10 +13914,10 @@
       <c r="U2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="727" t="s">
+      <c r="V2" s="720" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="728"/>
+      <c r="W2" s="721"/>
       <c r="X2" s="64" t="s">
         <v>109</v>
       </c>
@@ -13938,7 +13936,7 @@
       <c r="AC2" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="761"/>
+      <c r="AD2" s="754"/>
       <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
@@ -13957,8 +13955,8 @@
       <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="631"/>
-      <c r="G3" s="749"/>
+      <c r="F3" s="680"/>
+      <c r="G3" s="781"/>
       <c r="H3" s="40" t="s">
         <v>80</v>
       </c>
@@ -13969,13 +13967,13 @@
         <v>81</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="758" t="s">
+      <c r="O3" s="790" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="779" t="s">
+      <c r="P3" s="772" t="s">
         <v>217</v>
       </c>
-      <c r="Q3" s="780"/>
+      <c r="Q3" s="773"/>
       <c r="S3" s="57" t="s">
         <v>218</v>
       </c>
@@ -13985,15 +13983,15 @@
       <c r="W3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AD3" s="761"/>
+      <c r="AD3" s="754"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="749"/>
+      <c r="G4" s="781"/>
       <c r="H4" s="6"/>
       <c r="L4" s="688" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="759"/>
+      <c r="O4" s="791"/>
       <c r="T4" s="55" t="s">
         <v>97</v>
       </c>
@@ -14007,8 +14005,8 @@
         <v>194</v>
       </c>
       <c r="Z4" s="606"/>
-      <c r="AA4" s="684"/>
-      <c r="AD4" s="761"/>
+      <c r="AA4" s="628"/>
+      <c r="AD4" s="754"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -14023,21 +14021,21 @@
       <c r="F5" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="749"/>
+      <c r="G5" s="781"/>
       <c r="H5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="766" t="s">
+      <c r="K5" s="759" t="s">
         <v>215</v>
       </c>
-      <c r="L5" s="781"/>
+      <c r="L5" s="774"/>
       <c r="M5" s="2" t="s">
         <v>213</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="O5" s="759"/>
+      <c r="O5" s="791"/>
       <c r="P5" s="108" t="s">
         <v>214</v>
       </c>
@@ -14053,11 +14051,11 @@
       <c r="U5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="769" t="s">
+      <c r="Y5" s="762" t="s">
         <v>282</v>
       </c>
-      <c r="Z5" s="770"/>
-      <c r="AD5" s="761"/>
+      <c r="Z5" s="763"/>
+      <c r="AD5" s="754"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -14067,16 +14065,16 @@
       <c r="E6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="749"/>
+      <c r="G6" s="781"/>
       <c r="H6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="767"/>
-      <c r="L6" s="781"/>
-      <c r="O6" s="759"/>
+      <c r="K6" s="760"/>
+      <c r="L6" s="774"/>
+      <c r="O6" s="791"/>
       <c r="T6" s="2" t="s">
         <v>100</v>
       </c>
@@ -14086,23 +14084,23 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="761"/>
+      <c r="AD6" s="754"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="749"/>
+      <c r="G7" s="781"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="767"/>
-      <c r="L7" s="781"/>
+      <c r="K7" s="760"/>
+      <c r="L7" s="774"/>
       <c r="N7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="759"/>
+      <c r="O7" s="791"/>
       <c r="P7" s="73"/>
       <c r="U7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AD7" s="761"/>
+      <c r="AD7" s="754"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -14115,7 +14113,7 @@
       <c r="F8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="749"/>
+      <c r="G8" s="781"/>
       <c r="H8" s="50" t="s">
         <v>75</v>
       </c>
@@ -14125,41 +14123,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="767"/>
-      <c r="L8" s="781"/>
-      <c r="O8" s="759"/>
+      <c r="K8" s="760"/>
+      <c r="L8" s="774"/>
+      <c r="O8" s="791"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="763" t="s">
+      <c r="S8" s="756" t="s">
         <v>210</v>
       </c>
-      <c r="T8" s="764"/>
-      <c r="U8" s="764"/>
-      <c r="V8" s="764"/>
-      <c r="W8" s="764"/>
-      <c r="X8" s="764"/>
-      <c r="Y8" s="764"/>
-      <c r="Z8" s="764"/>
-      <c r="AA8" s="764"/>
-      <c r="AB8" s="764"/>
-      <c r="AC8" s="765"/>
-      <c r="AD8" s="761"/>
+      <c r="T8" s="757"/>
+      <c r="U8" s="757"/>
+      <c r="V8" s="757"/>
+      <c r="W8" s="757"/>
+      <c r="X8" s="757"/>
+      <c r="Y8" s="757"/>
+      <c r="Z8" s="757"/>
+      <c r="AA8" s="757"/>
+      <c r="AB8" s="757"/>
+      <c r="AC8" s="758"/>
+      <c r="AD8" s="754"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="785"/>
-      <c r="G9" s="749"/>
+      <c r="C9" s="746"/>
+      <c r="G9" s="781"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="767"/>
-      <c r="L9" s="752" t="s">
+      <c r="K9" s="760"/>
+      <c r="L9" s="784" t="s">
         <v>216</v>
       </c>
-      <c r="M9" s="753"/>
-      <c r="N9" s="754"/>
-      <c r="O9" s="759"/>
+      <c r="M9" s="785"/>
+      <c r="N9" s="786"/>
+      <c r="O9" s="791"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="761"/>
+      <c r="AD9" s="754"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="786"/>
+      <c r="C10" s="747"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>87</v>
@@ -14167,7 +14165,7 @@
       <c r="F10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="749"/>
+      <c r="G10" s="781"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>80</v>
@@ -14175,33 +14173,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="767"/>
-      <c r="M10" s="788" t="s">
+      <c r="K10" s="760"/>
+      <c r="M10" s="749" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="789"/>
-      <c r="O10" s="789"/>
-      <c r="P10" s="789"/>
-      <c r="Q10" s="789"/>
-      <c r="R10" s="789"/>
-      <c r="S10" s="789"/>
-      <c r="T10" s="789"/>
-      <c r="U10" s="789"/>
-      <c r="V10" s="789"/>
-      <c r="W10" s="789"/>
-      <c r="X10" s="789"/>
-      <c r="Y10" s="789"/>
-      <c r="Z10" s="789"/>
-      <c r="AA10" s="789"/>
-      <c r="AB10" s="789"/>
-      <c r="AC10" s="790"/>
-      <c r="AD10" s="761"/>
+      <c r="N10" s="750"/>
+      <c r="O10" s="750"/>
+      <c r="P10" s="750"/>
+      <c r="Q10" s="750"/>
+      <c r="R10" s="750"/>
+      <c r="S10" s="750"/>
+      <c r="T10" s="750"/>
+      <c r="U10" s="750"/>
+      <c r="V10" s="750"/>
+      <c r="W10" s="750"/>
+      <c r="X10" s="750"/>
+      <c r="Y10" s="750"/>
+      <c r="Z10" s="750"/>
+      <c r="AA10" s="750"/>
+      <c r="AB10" s="750"/>
+      <c r="AC10" s="751"/>
+      <c r="AD10" s="754"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="787"/>
-      <c r="G11" s="749"/>
+      <c r="C11" s="748"/>
+      <c r="G11" s="781"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="767"/>
+      <c r="K11" s="760"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -14209,17 +14207,17 @@
       <c r="Y11" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="777" t="s">
+      <c r="Z11" s="770" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="778"/>
+      <c r="AA11" s="771"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="AD11" s="761"/>
+      <c r="AD11" s="754"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -14232,7 +14230,7 @@
       <c r="F12" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="749"/>
+      <c r="G12" s="781"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>80</v>
@@ -14240,8 +14238,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="767"/>
-      <c r="L12" s="782" t="s">
+      <c r="K12" s="760"/>
+      <c r="L12" s="775" t="s">
         <v>92</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -14272,25 +14270,25 @@
         <v>115</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="771" t="s">
+      <c r="AA12" s="764" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="772"/>
+      <c r="AB12" s="765"/>
       <c r="AC12" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="AD12" s="761"/>
+      <c r="AD12" s="754"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="785"/>
-      <c r="G13" s="749"/>
-      <c r="K13" s="767"/>
-      <c r="L13" s="783"/>
+      <c r="C13" s="746"/>
+      <c r="G13" s="781"/>
+      <c r="K13" s="760"/>
+      <c r="L13" s="776"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="751" t="s">
+      <c r="Q13" s="783" t="s">
         <v>208</v>
       </c>
-      <c r="R13" s="640"/>
+      <c r="R13" s="645"/>
       <c r="S13" s="600"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -14299,17 +14297,17 @@
       <c r="X13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="773"/>
-      <c r="AB13" s="774"/>
-      <c r="AD13" s="761"/>
+      <c r="AA13" s="766"/>
+      <c r="AB13" s="767"/>
+      <c r="AD13" s="754"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C14" s="787"/>
+      <c r="C14" s="748"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="749"/>
+      <c r="G14" s="781"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -14317,8 +14315,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="767"/>
-      <c r="L14" s="783"/>
+      <c r="K14" s="760"/>
+      <c r="L14" s="776"/>
       <c r="M14" s="21" t="s">
         <v>110</v>
       </c>
@@ -14339,9 +14337,9 @@
       <c r="Y14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="773"/>
-      <c r="AB14" s="774"/>
-      <c r="AD14" s="761"/>
+      <c r="AA14" s="766"/>
+      <c r="AB14" s="767"/>
+      <c r="AD14" s="754"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -14356,19 +14354,19 @@
       <c r="F15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="749"/>
+      <c r="G15" s="781"/>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="767"/>
-      <c r="L15" s="784"/>
-      <c r="Q15" s="751" t="s">
+      <c r="K15" s="760"/>
+      <c r="L15" s="777"/>
+      <c r="Q15" s="783" t="s">
         <v>209</v>
       </c>
-      <c r="R15" s="640"/>
+      <c r="R15" s="645"/>
       <c r="S15" s="600"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -14377,14 +14375,14 @@
       <c r="X15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="773"/>
-      <c r="AB15" s="774"/>
-      <c r="AD15" s="761"/>
+      <c r="AA15" s="766"/>
+      <c r="AB15" s="767"/>
+      <c r="AD15" s="754"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="749"/>
-      <c r="K16" s="767"/>
+      <c r="G16" s="781"/>
+      <c r="K16" s="760"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>108</v>
@@ -14403,24 +14401,24 @@
       <c r="Z16" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="AA16" s="773"/>
-      <c r="AB16" s="774"/>
-      <c r="AD16" s="761"/>
+      <c r="AA16" s="766"/>
+      <c r="AB16" s="767"/>
+      <c r="AD16" s="754"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="746" t="s">
+      <c r="F17" s="778" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="749"/>
+      <c r="G17" s="781"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="767"/>
+      <c r="K17" s="760"/>
       <c r="S17" s="600"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -14428,9 +14426,9 @@
       <c r="X17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" s="773"/>
-      <c r="AB17" s="774"/>
-      <c r="AD17" s="761"/>
+      <c r="AA17" s="766"/>
+      <c r="AB17" s="767"/>
+      <c r="AD17" s="754"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -14440,15 +14438,15 @@
       <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="747"/>
-      <c r="G18" s="749"/>
+      <c r="F18" s="779"/>
+      <c r="G18" s="781"/>
       <c r="H18" s="108" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="767"/>
+      <c r="K18" s="760"/>
       <c r="O18" s="64" t="s">
         <v>114</v>
       </c>
@@ -14459,39 +14457,42 @@
       <c r="X18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" s="775"/>
-      <c r="AB18" s="776"/>
-      <c r="AD18" s="761"/>
+      <c r="AA18" s="768"/>
+      <c r="AB18" s="769"/>
+      <c r="AD18" s="754"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="750"/>
-      <c r="K19" s="768"/>
+      <c r="G19" s="782"/>
+      <c r="K19" s="761"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="755" t="s">
+      <c r="R19" s="787" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="756"/>
-      <c r="T19" s="757"/>
+      <c r="S19" s="788"/>
+      <c r="T19" s="789"/>
       <c r="V19" s="77" t="s">
         <v>114</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AD19" s="762"/>
+      <c r="AD19" s="755"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -14503,14 +14504,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
